--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,29 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+1 普通道具
+2，装备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 格式为
 物件类型：掉落ID：掉落几率：最小数量：最大数量，多个之间逗号隔开
 物件类型：1表示道具（包含药水，装备），2表示道具组包（比如一堆装备组成的一个虚拟组包）
@@ -69,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>_id</t>
   </si>
@@ -123,6 +146,9 @@
     <t>随机类型</t>
   </si>
   <si>
+    <t>道具类型</t>
+  </si>
+  <si>
     <t>掉落物</t>
   </si>
   <si>
@@ -147,6 +173,9 @@
     <t>RandomType</t>
   </si>
   <si>
+    <t>ItemType</t>
+  </si>
+  <si>
     <t>ItemList</t>
   </si>
   <si>
@@ -175,6 +204,51 @@
   </si>
   <si>
     <t>10101,10102,10103,10104,10105,10106,10107,10108</t>
+  </si>
+  <si>
+    <t>1级技能书</t>
+  </si>
+  <si>
+    <t>1001,2001,3001</t>
+  </si>
+  <si>
+    <t>100,100,100</t>
+  </si>
+  <si>
+    <t>2级技能书</t>
+  </si>
+  <si>
+    <t>1002,2002,3002</t>
+  </si>
+  <si>
+    <t>3级技能书</t>
+  </si>
+  <si>
+    <t>1003,2003,3003</t>
+  </si>
+  <si>
+    <t>4级技能书</t>
+  </si>
+  <si>
+    <t>1004,2004,3004</t>
+  </si>
+  <si>
+    <t>5级技能书</t>
+  </si>
+  <si>
+    <t>1005,2005,3005</t>
+  </si>
+  <si>
+    <t>6级技能书</t>
+  </si>
+  <si>
+    <t>1006,2006,3006</t>
+  </si>
+  <si>
+    <t>7级技能书</t>
+  </si>
+  <si>
+    <t>1007,2007,3007</t>
   </si>
 </sst>
 </file>
@@ -1153,12 +1227,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K10"/>
+  <dimension ref="C2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1168,16 +1242,16 @@
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
     <col min="7" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="52.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="11.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1199,68 +1273,77 @@
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:12">
       <c r="C6" s="1">
         <v>1000001</v>
       </c>
@@ -1274,22 +1357,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>21</v>
+      <c r="J6" s="1">
+        <v>2</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:12">
       <c r="C7" s="1">
         <v>1000002</v>
       </c>
@@ -1303,22 +1389,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
+      <c r="J7" s="1">
+        <v>2</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:12">
       <c r="C8" s="1">
         <v>1000003</v>
       </c>
@@ -1332,22 +1421,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
+      <c r="J8" s="1">
+        <v>2</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:12">
       <c r="C9" s="1">
         <v>1000004</v>
       </c>
@@ -1361,22 +1453,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:12">
       <c r="C10" s="1">
         <v>1000005</v>
       </c>
@@ -1390,19 +1485,246 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>22</v>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="1">
+        <v>9000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="1">
+        <v>9000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="1">
+        <v>9000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9000003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="1">
+        <v>9000004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9000004</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="1">
+        <v>9000005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9000005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="1">
+        <v>9000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9000006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="1">
+        <v>9000007</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9000007</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -194,7 +194,7 @@
     <t>1级通用装备</t>
   </si>
   <si>
-    <t>10001,10002,10003,10004,10005,10006,10007,10008</t>
+    <t>10001,10002,10003,10004,10005,10007,10009,100010</t>
   </si>
   <si>
     <t>10,10,10,10,10,10,10,10</t>
@@ -203,7 +203,7 @@
     <t>10级通用装备</t>
   </si>
   <si>
-    <t>10101,10102,10103,10104,10105,10106,10107,10108</t>
+    <t>10101,10102,10103,10104,10105,10107,10109,101010</t>
   </si>
   <si>
     <t>1级技能书</t>
@@ -1575,7 +1575,7 @@
         <v>9000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>9000004</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>9000005</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>9000006</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>9000007</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -19,17 +19,8 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -37,13 +28,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 表示后面的掉落物中只会掉落一个道具（所有掉落权重总和为10000
-2，表示后面掉落物中每个道具的独立掉落
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,37 +73,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-格式为
-物件类型：掉落ID：掉落几率：最小数量：最大数量，多个之间逗号隔开
-物件类型：1表示道具（包含药水，装备），2表示道具组包（比如一堆装备组成的一个虚拟组包）
-最大数量如果缺少，则最大与最小数量保持一致
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为
-物件类型：掉落ID：掉落几率：最小数量：最大数量，多个之间逗号隔开
-物件类型：1表示道具（包含药水，装备），2表示道具组包（比如一堆装备组成的一个虚拟组包）
-最大数量如果缺少，则最大与最小数量保持一致
-</t>
+格式为</t>
         </r>
       </text>
     </comment>
@@ -123,63 +82,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t>掉落ID</t>
-  </si>
-  <si>
-    <t>怪物ID</t>
-  </si>
-  <si>
-    <t>地图ID</t>
-  </si>
-  <si>
-    <t>掉落信息</t>
-  </si>
-  <si>
-    <t>#说明</t>
-  </si>
-  <si>
-    <t>随机类型</t>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>掉落名称</t>
+  </si>
+  <si>
+    <t>掉落数量</t>
   </si>
   <si>
     <t>道具类型</t>
   </si>
   <si>
-    <t>掉落物</t>
-  </si>
-  <si>
-    <t>概率</t>
+    <t>掉落Id列表</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>DropID</t>
-  </si>
-  <si>
-    <t>MonsterID</t>
-  </si>
-  <si>
-    <t>MapID</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>RandomType</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
   <si>
     <t>ItemType</t>
   </si>
   <si>
-    <t>ItemList</t>
-  </si>
-  <si>
-    <t>Rate</t>
+    <t>ItemIdList</t>
   </si>
   <si>
     <t>int</t>
@@ -191,61 +129,493 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>1级通用装备</t>
-  </si>
-  <si>
-    <t>10001,10002,10003,10004,10005,10007,10009,100010</t>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10</t>
-  </si>
-  <si>
-    <t>10级通用装备</t>
-  </si>
-  <si>
-    <t>10101,10102,10103,10104,10105,10107,10109,101010</t>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0级装备</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21000001,21000002,21000003,21000004,21000005,21000007,21000009,21000010,22000001,22000002,22000003,22000004,22000005,22000007,22000009,22000010,23000001,23000002,23000003,23000004,23000005,23000007,23000009,23000010</t>
+  </si>
+  <si>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10级装备</t>
+  </si>
+  <si>
+    <t>21000101,21000102,21000103,21000104,21000105,21000107,21000109,21000110,22000101,22000102,22000103,22000104,22000105,22000107,22000109,22000110,23000101,23000102,23000103,23000104,23000105,23000107,23000109,23000110</t>
+  </si>
+  <si>
+    <t>200020</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20级装备</t>
+  </si>
+  <si>
+    <t>21000201,21000202,21000203,21000204,21000205,21000207,21000209,21000210,22000201,22000202,22000203,22000204,22000205,22000207,22000209,22000210,23000201,23000202,23000203,23000204,23000205,23000207,23000209,23000210</t>
+  </si>
+  <si>
+    <t>200030</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30级装备</t>
+  </si>
+  <si>
+    <t>21000301,21000302,21000303,21000304,21000305,21000307,21000309,21000310,22000301,22000302,22000303,22000304,22000305,22000307,22000309,22000310,23000301,23000302,23000303,23000304,23000305,23000307,23000309,23000310</t>
+  </si>
+  <si>
+    <t>200040</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40级装备</t>
+  </si>
+  <si>
+    <t>21000401,21000402,21000403,21000404,21000405,21000407,21000409,21000410,22000401,22000402,22000403,22000404,22000405,22000407,22000409,22000410,23000401,23000402,23000403,23000404,23000405,23000407,23000409,23000410</t>
+  </si>
+  <si>
+    <t>200050</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50级装备</t>
+  </si>
+  <si>
+    <t>21000501,21000502,21000503,21000504,21000505,21000507,21000509,21000510,22000501,22000502,22000503,22000504,22000505,22000507,22000509,22000510,23000501,23000502,23000503,23000504,23000505,23000507,23000509,23000510</t>
+  </si>
+  <si>
+    <t>200060</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>60级装备</t>
+  </si>
+  <si>
+    <t>21000601,21000602,21000603,21000604,21000605,21000607,21000609,21000610,22000601,22000602,22000603,22000604,22000605,22000607,22000609,22000610,23000601,23000602,23000603,23000604,23000605,23000607,23000609,23000610</t>
+  </si>
+  <si>
+    <t>200070</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70级装备</t>
+  </si>
+  <si>
+    <t>21000701,21000702,21000703,21000704,21000705,21000707,21000709,21000710,22000701,22000702,22000703,22000704,22000705,22000707,22000709,22000710,23000701,23000702,23000703,23000704,23000705,23000707,23000709,23000710</t>
+  </si>
+  <si>
+    <t>200080</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80级装备</t>
+  </si>
+  <si>
+    <t>21000801,21000802,21000803,21000804,21000805,21000807,21000809,21000810,22000801,22000802,22000803,22000804,22000805,22000807,22000809,22000810,23000801,23000802,23000803,23000804,23000805,23000807,23000809,23000810</t>
+  </si>
+  <si>
+    <t>200090</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90级装备</t>
+  </si>
+  <si>
+    <t>21000901,21000902,21000903,21000904,21000905,21000907,21000909,21000910,22000901,22000902,22000903,22000904,22000905,22000907,22000909,22000910,23000901,23000902,23000903,23000904,23000905,23000907,23000909,23000910</t>
+  </si>
+  <si>
+    <t>200100</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100级装备</t>
+  </si>
+  <si>
+    <t>21001001,21001002,21001003,21001004,21001005,21001007,21001009,21001010,22001001,22001002,22001003,22001004,22001005,22001007,22001009,22001010,23001001,23001002,23001003,23001004,23001005,23001007,23001009,23001010</t>
+  </si>
+  <si>
+    <t>200110</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110级装备</t>
+  </si>
+  <si>
+    <t>21001101,21001102,21001103,21001104,21001105,21001107,21001109,21001110,22001101,22001102,22001103,22001104,22001105,22001107,22001109,22001110,23001101,23001102,23001103,23001104,23001105,23001107,23001109,23001110</t>
+  </si>
+  <si>
+    <t>200120</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>120级装备</t>
+  </si>
+  <si>
+    <t>21001201,21001202,21001203,21001204,21001205,21001207,21001209,21001210,22001201,22001202,22001203,22001204,22001205,22001207,22001209,22001210,23001201,23001202,23001203,23001204,23001205,23001207,23001209,23001210</t>
+  </si>
+  <si>
+    <t>200130</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>130级装备</t>
+  </si>
+  <si>
+    <t>21001301,21001302,21001303,21001304,21001305,21001307,21001309,21001310,22001301,22001302,22001303,22001304,22001305,22001307,22001309,22001310,23001301,23001302,23001303,23001304,23001305,23001307,23001309,23001310</t>
+  </si>
+  <si>
+    <t>200140</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>140级装备</t>
+  </si>
+  <si>
+    <t>21001401,21001402,21001403,21001404,21001405,21001407,21001409,21001410,22001401,22001402,22001403,22001404,22001405,22001407,22001409,22001410,23001401,23001402,23001403,23001404,23001405,23001407,23001409,23001410</t>
+  </si>
+  <si>
+    <t>200150</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>150级装备</t>
+  </si>
+  <si>
+    <t>21001501,21001502,21001503,21001504,21001505,21001507,21001509,21001510,22001501,22001502,22001503,22001504,22001505,22001507,22001509,22001510,23001501,23001502,23001503,23001504,23001505,23001507,23001509,23001510</t>
+  </si>
+  <si>
+    <t>200160</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>160级装备</t>
+  </si>
+  <si>
+    <t>21001601,21001602,21001603,21001604,21001605,21001607,21001609,21001610,22001601,22001602,22001603,22001604,22001605,22001607,22001609,22001610,23001601,23001602,23001603,23001604,23001605,23001607,23001609,23001610</t>
+  </si>
+  <si>
+    <t>200170</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>170级装备</t>
+  </si>
+  <si>
+    <t>21001701,21001702,21001703,21001704,21001705,21001707,21001709,21001710,22001701,22001702,22001703,22001704,22001705,22001707,22001709,22001710,23001701,23001702,23001703,23001704,23001705,23001707,23001709,23001710</t>
+  </si>
+  <si>
+    <t>200180</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>180级装备</t>
+  </si>
+  <si>
+    <t>21001801,21001802,21001803,21001804,21001805,21001807,21001809,21001810,22001801,22001802,22001803,22001804,22001805,22001807,22001809,22001810,23001801,23001802,23001803,23001804,23001805,23001807,23001809,23001810</t>
+  </si>
+  <si>
+    <t>200190</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>190级装备</t>
+  </si>
+  <si>
+    <t>21001901,21001902,21001903,21001904,21001905,21001907,21001909,21001910,22001901,22001902,22001903,22001904,22001905,22001907,22001909,22001910,23001901,23001902,23001903,23001904,23001905,23001907,23001909,23001910</t>
+  </si>
+  <si>
+    <t>200200</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>200级装备</t>
+  </si>
+  <si>
+    <t>21002001,21002002,21002003,21002004,21002005,21002007,21002009,21002010,22002001,22002002,22002003,22002004,22002005,22002007,22002009,22002010,23002001,23002002,23002003,23002004,23002005,23002007,23002009,23002010</t>
+  </si>
+  <si>
+    <t>200210</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>210级装备</t>
+  </si>
+  <si>
+    <t>21002101,21002102,21002103,21002104,21002105,21002107,21002109,21002110,22002101,22002102,22002103,22002104,22002105,22002107,22002109,22002110,23002101,23002102,23002103,23002104,23002105,23002107,23002109,23002110</t>
+  </si>
+  <si>
+    <t>200220</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>220级装备</t>
+  </si>
+  <si>
+    <t>21002201,21002202,21002203,21002204,21002205,21002207,21002209,21002210,22002201,22002202,22002203,22002204,22002205,22002207,22002209,22002210,23002201,23002202,23002203,23002204,23002205,23002207,23002209,23002210</t>
+  </si>
+  <si>
+    <t>200230</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>230级装备</t>
+  </si>
+  <si>
+    <t>21002301,21002302,21002303,21002304,21002305,21002307,21002309,21002310,22002301,22002302,22002303,22002304,22002305,22002307,22002309,22002310,23002301,23002302,23002303,23002304,23002305,23002307,23002309,23002310</t>
+  </si>
+  <si>
+    <t>200240</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>240级装备</t>
+  </si>
+  <si>
+    <t>21002401,21002402,21002403,21002404,21002405,21002407,21002409,21002410,22002401,22002402,22002403,22002404,22002405,22002407,22002409,22002410,23002401,23002402,23002403,23002404,23002405,23002407,23002409,23002410</t>
+  </si>
+  <si>
+    <t>200250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>250级装备</t>
+  </si>
+  <si>
+    <t>21002501,21002502,21002503,21002504,21002505,21002507,21002509,21002510,22002501,22002502,22002503,22002504,22002505,22002507,22002509,22002510,23002501,23002502,23002503,23002504,23002505,23002507,23002509,23002510</t>
+  </si>
+  <si>
+    <t>200260</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>260级装备</t>
+  </si>
+  <si>
+    <t>21002601,21002602,21002603,21002604,21002605,21002607,21002609,21002610,22002601,22002602,22002603,22002604,22002605,22002607,22002609,22002610,23002601,23002602,23002603,23002604,23002605,23002607,23002609,23002610</t>
+  </si>
+  <si>
+    <t>200270</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>270级装备</t>
+  </si>
+  <si>
+    <t>21002701,21002702,21002703,21002704,21002705,21002707,21002709,21002710,22002701,22002702,22002703,22002704,22002705,22002707,22002709,22002710,23002701,23002702,23002703,23002704,23002705,23002707,23002709,23002710</t>
+  </si>
+  <si>
+    <t>200280</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>280级装备</t>
+  </si>
+  <si>
+    <t>21002801,21002802,21002803,21002804,21002805,21002807,21002809,21002810,22002801,22002802,22002803,22002804,22002805,22002807,22002809,22002810,23002801,23002802,23002803,23002804,23002805,23002807,23002809,23002810</t>
+  </si>
+  <si>
+    <t>200290</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>290级装备</t>
+  </si>
+  <si>
+    <t>21002901,21002902,21002903,21002904,21002905,21002907,21002909,21002910,22002901,22002902,22002903,22002904,22002905,22002907,22002909,22002910,23002901,23002902,23002903,23002904,23002905,23002907,23002909,23002910</t>
+  </si>
+  <si>
+    <t>200300</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>300级装备</t>
+  </si>
+  <si>
+    <t>21003001,21003002,21003003,21003004,21003005,21003007,21003009,21003010,22003001,22003002,22003003,22003004,22003005,22003007,22003009,22003010,23003001,23003002,23003003,23003004,23003005,23003007,23003009,23003010</t>
+  </si>
+  <si>
+    <t>200310</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>310级装备</t>
+  </si>
+  <si>
+    <t>21003101,21003102,21003103,21003104,21003105,21003107,21003109,21003110,22003101,22003102,22003103,22003104,22003105,22003107,22003109,22003110,23003101,23003102,23003103,23003104,23003105,23003107,23003109,23003110</t>
+  </si>
+  <si>
+    <t>200320</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>320级装备</t>
+  </si>
+  <si>
+    <t>21003201,21003202,21003203,21003204,21003205,21003207,21003209,21003210,22003201,22003202,22003203,22003204,22003205,22003207,22003209,22003210,23003201,23003202,23003203,23003204,23003205,23003207,23003209,23003210</t>
+  </si>
+  <si>
+    <t>200330</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>330级装备</t>
+  </si>
+  <si>
+    <t>21003301,21003302,21003303,21003304,21003305,21003307,21003309,21003310,22003301,22003302,22003303,22003304,22003305,22003307,22003309,22003310,23003301,23003302,23003303,23003304,23003305,23003307,23003309,23003310</t>
+  </si>
+  <si>
+    <t>200340</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>340级装备</t>
+  </si>
+  <si>
+    <t>21003401,21003402,21003403,21003404,21003405,21003407,21003409,21003410,22003401,22003402,22003403,22003404,22003405,22003407,22003409,22003410,23003401,23003402,23003403,23003404,23003405,23003407,23003409,23003410</t>
+  </si>
+  <si>
+    <t>300001</t>
   </si>
   <si>
     <t>1级技能书</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1001,2001,3001</t>
   </si>
   <si>
-    <t>100,100,100</t>
-  </si>
-  <si>
-    <t>2级技能书</t>
+    <t>300010</t>
+  </si>
+  <si>
+    <t>10级技能书</t>
   </si>
   <si>
     <t>1002,2002,3002</t>
   </si>
   <si>
-    <t>3级技能书</t>
+    <t>300020</t>
+  </si>
+  <si>
+    <t>20级技能书</t>
   </si>
   <si>
     <t>1003,2003,3003</t>
   </si>
   <si>
-    <t>4级技能书</t>
+    <t>300030</t>
+  </si>
+  <si>
+    <t>30级技能书</t>
   </si>
   <si>
     <t>1004,2004,3004</t>
   </si>
   <si>
-    <t>5级技能书</t>
+    <t>300040</t>
+  </si>
+  <si>
+    <t>40级技能书</t>
   </si>
   <si>
     <t>1005,2005,3005</t>
   </si>
   <si>
-    <t>6级技能书</t>
+    <t>300050</t>
+  </si>
+  <si>
+    <t>50级技能书</t>
   </si>
   <si>
     <t>1006,2006,3006</t>
   </si>
   <si>
-    <t>7级技能书</t>
+    <t>300060</t>
+  </si>
+  <si>
+    <t>60级技能书</t>
   </si>
   <si>
     <t>1007,2007,3007</t>
@@ -892,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -904,9 +1274,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1227,31 +1594,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L17"/>
+  <dimension ref="C2:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="40.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.25" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.25" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="2" width="40.375" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:4">
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="3:12">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1267,469 +1633,893 @@
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row r="6" ht="24.0" customHeight="true">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="1">
-        <v>1000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" ht="24.0" customHeight="true">
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" ht="24.0" customHeight="true">
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="1">
-        <v>1000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="1">
-        <v>1000003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="1">
-        <v>1000004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1000004</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" ht="24.0" customHeight="true">
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="1">
-        <v>1000005</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1000005</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1005</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="1">
-        <v>9000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="1">
-        <v>9000002</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9000002</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" ht="24.0" customHeight="true">
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="1">
-        <v>9000003</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9000003</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10006</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="1">
-        <v>9000004</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9000004</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10006</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" ht="24.0" customHeight="true">
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="1">
-        <v>9000005</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9000005</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10006</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="1">
-        <v>9000006</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9000006</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10006</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" ht="24.0" customHeight="true">
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="1">
-        <v>9000007</v>
-      </c>
-      <c r="D17" s="1">
-        <v>9000007</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10006</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>29</v>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" ht="24.0" customHeight="true">
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -555,10 +555,10 @@
     <t>21003401,21003402,21003403,21003404,21003405,21003407,21003409,21003410,22003401,22003402,22003403,22003404,22003405,22003407,22003409,22003410,23003401,23003402,23003403,23003404,23003405,23003407,23003409,23003410</t>
   </si>
   <si>
-    <t>300001</t>
-  </si>
-  <si>
-    <t>1级技能书</t>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>0级技能书</t>
   </si>
   <si>
     <t>3</t>
@@ -2382,7 +2382,7 @@
         <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>158</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="生成配置" sheetId="1" r:id="rId1"/>
+    <sheet name="定制配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -81,8 +82,76 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 普通道具
+2，装备</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="182">
   <si>
     <t>_id</t>
   </si>
@@ -129,19 +198,28 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4件套装备</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>101,201,301,401</t>
+  </si>
+  <si>
     <t>200000</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>0级装备</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>21000001,21000002,21000003,21000004,21000005,21000007,21000009,21000010,22000001,22000002,22000003,22000004,22000005,22000007,22000009,22000010,23000001,23000002,23000003,23000004,23000005,23000007,23000009,23000010</t>
@@ -1596,10 +1674,10 @@
   <sheetPr/>
   <dimension ref="C2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1679,13 +1757,13 @@
     </row>
     <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1694,18 +1772,18 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1714,18 +1792,18 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1734,18 +1812,18 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -1754,18 +1832,18 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1774,18 +1852,18 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1794,18 +1872,18 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1814,18 +1892,18 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1834,18 +1912,18 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1854,18 +1932,18 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1874,18 +1952,18 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1894,18 +1972,18 @@
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1914,18 +1992,18 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1934,18 +2012,18 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1954,18 +2032,18 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -1974,18 +2052,18 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1994,18 +2072,18 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -2014,18 +2092,18 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -2034,18 +2112,18 @@
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -2054,18 +2132,18 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2074,18 +2152,18 @@
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -2094,18 +2172,18 @@
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -2114,18 +2192,18 @@
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2134,18 +2212,18 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2154,18 +2232,18 @@
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -2174,18 +2252,18 @@
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2194,18 +2272,18 @@
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2214,18 +2292,18 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2234,18 +2312,18 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -2254,18 +2332,18 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -2274,18 +2352,18 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -2294,18 +2372,18 @@
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -2314,18 +2392,18 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -2334,18 +2412,18 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -2354,18 +2432,18 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -2374,147 +2452,147 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
         <v>162</v>
       </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2528,4 +2606,129 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.25" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.25" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="2" width="40.375" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="8:8">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:8">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:8">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:8">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:8">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -120,7 +120,8 @@
           </rPr>
           <t xml:space="preserve">
 1 普通道具
-2，装备</t>
+2，装备
+6，buff</t>
         </r>
       </text>
     </comment>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="184">
   <si>
     <t>_id</t>
   </si>
@@ -216,10 +217,16 @@
     <t>101,201,301,401</t>
   </si>
   <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>0级装备</t>
+    <t>经验BUFF</t>
+  </si>
+  <si>
+    <t>6001,6002,6003</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>1级装备</t>
   </si>
   <si>
     <t>21000001,21000002,21000003,21000004,21000005,21000007,21000009,21000010,22000001,22000002,22000003,22000004,22000005,22000007,22000009,22000010,23000001,23000002,23000003,23000004,23000005,23000007,23000009,23000010</t>
@@ -875,12 +882,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1340,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1353,6 +1360,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1757,13 +1766,13 @@
     </row>
     <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1772,18 +1781,18 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1792,18 +1801,18 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1812,18 +1821,18 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -1832,18 +1841,18 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1852,18 +1861,18 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1872,18 +1881,18 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1892,18 +1901,18 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1912,18 +1921,18 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1932,18 +1941,18 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1952,18 +1961,18 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1972,18 +1981,18 @@
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1992,18 +2001,18 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2012,18 +2021,18 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -2032,18 +2041,18 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -2052,18 +2061,18 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -2072,18 +2081,18 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -2092,18 +2101,18 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -2112,18 +2121,18 @@
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -2132,18 +2141,18 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2152,18 +2161,18 @@
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -2172,18 +2181,18 @@
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -2192,18 +2201,18 @@
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2212,18 +2221,18 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2232,18 +2241,18 @@
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -2252,18 +2261,18 @@
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2272,18 +2281,18 @@
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2292,18 +2301,18 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2312,18 +2321,18 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -2332,18 +2341,18 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -2352,18 +2361,18 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -2372,18 +2381,18 @@
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -2392,18 +2401,18 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -2412,18 +2421,18 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -2432,18 +2441,18 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -2452,147 +2461,147 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
         <v>164</v>
       </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>162</v>
-      </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2611,13 +2620,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
     <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
@@ -2634,9 +2643,6 @@
     <row r="2" s="1" customFormat="1" spans="3:8">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:8">
@@ -2719,6 +2725,28 @@
       </c>
       <c r="H6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -37,22 +37,16 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">admin:
 1 普通道具
-2，装备</t>
+2，装备
+3，技能书
+6，buff
+</t>
         </r>
       </text>
     </comment>
@@ -121,6 +115,7 @@
           <t xml:space="preserve">
 1 普通道具
 2，装备
+3，技能书
 6，buff</t>
         </r>
       </text>
@@ -152,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
   <si>
     <t>_id</t>
   </si>
@@ -223,427 +218,430 @@
     <t>6001,6002,6003</t>
   </si>
   <si>
-    <t>200001</t>
-  </si>
-  <si>
-    <t>1级装备</t>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10级装备</t>
   </si>
   <si>
     <t>21000001,21000002,21000003,21000004,21000005,21000007,21000009,21000010,22000001,22000002,22000003,22000004,22000005,22000007,22000009,22000010,23000001,23000002,23000003,23000004,23000005,23000007,23000009,23000010</t>
   </si>
   <si>
-    <t>200010</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10级装备</t>
+    <t>200020</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20级装备</t>
   </si>
   <si>
     <t>21000101,21000102,21000103,21000104,21000105,21000107,21000109,21000110,22000101,22000102,22000103,22000104,22000105,22000107,22000109,22000110,23000101,23000102,23000103,23000104,23000105,23000107,23000109,23000110</t>
   </si>
   <si>
-    <t>200020</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20级装备</t>
+    <t>200030</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30级装备</t>
   </si>
   <si>
     <t>21000201,21000202,21000203,21000204,21000205,21000207,21000209,21000210,22000201,22000202,22000203,22000204,22000205,22000207,22000209,22000210,23000201,23000202,23000203,23000204,23000205,23000207,23000209,23000210</t>
   </si>
   <si>
-    <t>200030</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>30级装备</t>
+    <t>200040</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40级装备</t>
   </si>
   <si>
     <t>21000301,21000302,21000303,21000304,21000305,21000307,21000309,21000310,22000301,22000302,22000303,22000304,22000305,22000307,22000309,22000310,23000301,23000302,23000303,23000304,23000305,23000307,23000309,23000310</t>
   </si>
   <si>
-    <t>200040</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>40级装备</t>
+    <t>200050</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50级装备</t>
   </si>
   <si>
     <t>21000401,21000402,21000403,21000404,21000405,21000407,21000409,21000410,22000401,22000402,22000403,22000404,22000405,22000407,22000409,22000410,23000401,23000402,23000403,23000404,23000405,23000407,23000409,23000410</t>
   </si>
   <si>
-    <t>200050</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>50级装备</t>
+    <t>200060</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>60级装备</t>
   </si>
   <si>
     <t>21000501,21000502,21000503,21000504,21000505,21000507,21000509,21000510,22000501,22000502,22000503,22000504,22000505,22000507,22000509,22000510,23000501,23000502,23000503,23000504,23000505,23000507,23000509,23000510</t>
   </si>
   <si>
-    <t>200060</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>60级装备</t>
+    <t>200070</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70级装备</t>
   </si>
   <si>
     <t>21000601,21000602,21000603,21000604,21000605,21000607,21000609,21000610,22000601,22000602,22000603,22000604,22000605,22000607,22000609,22000610,23000601,23000602,23000603,23000604,23000605,23000607,23000609,23000610</t>
   </si>
   <si>
-    <t>200070</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70级装备</t>
+    <t>200080</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80级装备</t>
   </si>
   <si>
     <t>21000701,21000702,21000703,21000704,21000705,21000707,21000709,21000710,22000701,22000702,22000703,22000704,22000705,22000707,22000709,22000710,23000701,23000702,23000703,23000704,23000705,23000707,23000709,23000710</t>
   </si>
   <si>
-    <t>200080</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80级装备</t>
+    <t>200090</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90级装备</t>
   </si>
   <si>
     <t>21000801,21000802,21000803,21000804,21000805,21000807,21000809,21000810,22000801,22000802,22000803,22000804,22000805,22000807,22000809,22000810,23000801,23000802,23000803,23000804,23000805,23000807,23000809,23000810</t>
   </si>
   <si>
-    <t>200090</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90级装备</t>
+    <t>200100</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100级装备</t>
   </si>
   <si>
     <t>21000901,21000902,21000903,21000904,21000905,21000907,21000909,21000910,22000901,22000902,22000903,22000904,22000905,22000907,22000909,22000910,23000901,23000902,23000903,23000904,23000905,23000907,23000909,23000910</t>
   </si>
   <si>
-    <t>200100</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100级装备</t>
+    <t>200110</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110级装备</t>
   </si>
   <si>
     <t>21001001,21001002,21001003,21001004,21001005,21001007,21001009,21001010,22001001,22001002,22001003,22001004,22001005,22001007,22001009,22001010,23001001,23001002,23001003,23001004,23001005,23001007,23001009,23001010</t>
   </si>
   <si>
-    <t>200110</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>110级装备</t>
+    <t>200120</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>120级装备</t>
   </si>
   <si>
     <t>21001101,21001102,21001103,21001104,21001105,21001107,21001109,21001110,22001101,22001102,22001103,22001104,22001105,22001107,22001109,22001110,23001101,23001102,23001103,23001104,23001105,23001107,23001109,23001110</t>
   </si>
   <si>
-    <t>200120</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>120级装备</t>
+    <t>200130</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>130级装备</t>
   </si>
   <si>
     <t>21001201,21001202,21001203,21001204,21001205,21001207,21001209,21001210,22001201,22001202,22001203,22001204,22001205,22001207,22001209,22001210,23001201,23001202,23001203,23001204,23001205,23001207,23001209,23001210</t>
   </si>
   <si>
-    <t>200130</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>130级装备</t>
+    <t>200140</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>140级装备</t>
   </si>
   <si>
     <t>21001301,21001302,21001303,21001304,21001305,21001307,21001309,21001310,22001301,22001302,22001303,22001304,22001305,22001307,22001309,22001310,23001301,23001302,23001303,23001304,23001305,23001307,23001309,23001310</t>
   </si>
   <si>
-    <t>200140</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>140级装备</t>
+    <t>200150</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>150级装备</t>
   </si>
   <si>
     <t>21001401,21001402,21001403,21001404,21001405,21001407,21001409,21001410,22001401,22001402,22001403,22001404,22001405,22001407,22001409,22001410,23001401,23001402,23001403,23001404,23001405,23001407,23001409,23001410</t>
   </si>
   <si>
-    <t>200150</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>150级装备</t>
+    <t>200160</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>160级装备</t>
   </si>
   <si>
     <t>21001501,21001502,21001503,21001504,21001505,21001507,21001509,21001510,22001501,22001502,22001503,22001504,22001505,22001507,22001509,22001510,23001501,23001502,23001503,23001504,23001505,23001507,23001509,23001510</t>
   </si>
   <si>
-    <t>200160</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>160级装备</t>
+    <t>200170</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>170级装备</t>
   </si>
   <si>
     <t>21001601,21001602,21001603,21001604,21001605,21001607,21001609,21001610,22001601,22001602,22001603,22001604,22001605,22001607,22001609,22001610,23001601,23001602,23001603,23001604,23001605,23001607,23001609,23001610</t>
   </si>
   <si>
-    <t>200170</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>170级装备</t>
+    <t>200180</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>180级装备</t>
   </si>
   <si>
     <t>21001701,21001702,21001703,21001704,21001705,21001707,21001709,21001710,22001701,22001702,22001703,22001704,22001705,22001707,22001709,22001710,23001701,23001702,23001703,23001704,23001705,23001707,23001709,23001710</t>
   </si>
   <si>
-    <t>200180</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>180级装备</t>
+    <t>200190</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>190级装备</t>
   </si>
   <si>
     <t>21001801,21001802,21001803,21001804,21001805,21001807,21001809,21001810,22001801,22001802,22001803,22001804,22001805,22001807,22001809,22001810,23001801,23001802,23001803,23001804,23001805,23001807,23001809,23001810</t>
   </si>
   <si>
-    <t>200190</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>190级装备</t>
+    <t>200200</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>200级装备</t>
   </si>
   <si>
     <t>21001901,21001902,21001903,21001904,21001905,21001907,21001909,21001910,22001901,22001902,22001903,22001904,22001905,22001907,22001909,22001910,23001901,23001902,23001903,23001904,23001905,23001907,23001909,23001910</t>
   </si>
   <si>
-    <t>200200</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>200级装备</t>
+    <t>200210</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>210级装备</t>
   </si>
   <si>
     <t>21002001,21002002,21002003,21002004,21002005,21002007,21002009,21002010,22002001,22002002,22002003,22002004,22002005,22002007,22002009,22002010,23002001,23002002,23002003,23002004,23002005,23002007,23002009,23002010</t>
   </si>
   <si>
-    <t>200210</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>210级装备</t>
+    <t>200220</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>220级装备</t>
   </si>
   <si>
     <t>21002101,21002102,21002103,21002104,21002105,21002107,21002109,21002110,22002101,22002102,22002103,22002104,22002105,22002107,22002109,22002110,23002101,23002102,23002103,23002104,23002105,23002107,23002109,23002110</t>
   </si>
   <si>
-    <t>200220</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>220级装备</t>
+    <t>200230</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>230级装备</t>
   </si>
   <si>
     <t>21002201,21002202,21002203,21002204,21002205,21002207,21002209,21002210,22002201,22002202,22002203,22002204,22002205,22002207,22002209,22002210,23002201,23002202,23002203,23002204,23002205,23002207,23002209,23002210</t>
   </si>
   <si>
-    <t>200230</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>230级装备</t>
+    <t>200240</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>240级装备</t>
   </si>
   <si>
     <t>21002301,21002302,21002303,21002304,21002305,21002307,21002309,21002310,22002301,22002302,22002303,22002304,22002305,22002307,22002309,22002310,23002301,23002302,23002303,23002304,23002305,23002307,23002309,23002310</t>
   </si>
   <si>
-    <t>200240</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>240级装备</t>
+    <t>200250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>250级装备</t>
   </si>
   <si>
     <t>21002401,21002402,21002403,21002404,21002405,21002407,21002409,21002410,22002401,22002402,22002403,22002404,22002405,22002407,22002409,22002410,23002401,23002402,23002403,23002404,23002405,23002407,23002409,23002410</t>
   </si>
   <si>
-    <t>200250</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>250级装备</t>
+    <t>200260</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>260级装备</t>
   </si>
   <si>
     <t>21002501,21002502,21002503,21002504,21002505,21002507,21002509,21002510,22002501,22002502,22002503,22002504,22002505,22002507,22002509,22002510,23002501,23002502,23002503,23002504,23002505,23002507,23002509,23002510</t>
   </si>
   <si>
-    <t>200260</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>260级装备</t>
+    <t>200270</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>270级装备</t>
   </si>
   <si>
     <t>21002601,21002602,21002603,21002604,21002605,21002607,21002609,21002610,22002601,22002602,22002603,22002604,22002605,22002607,22002609,22002610,23002601,23002602,23002603,23002604,23002605,23002607,23002609,23002610</t>
   </si>
   <si>
-    <t>200270</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>270级装备</t>
+    <t>200280</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>280级装备</t>
   </si>
   <si>
     <t>21002701,21002702,21002703,21002704,21002705,21002707,21002709,21002710,22002701,22002702,22002703,22002704,22002705,22002707,22002709,22002710,23002701,23002702,23002703,23002704,23002705,23002707,23002709,23002710</t>
   </si>
   <si>
-    <t>200280</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>280级装备</t>
+    <t>200290</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>290级装备</t>
   </si>
   <si>
     <t>21002801,21002802,21002803,21002804,21002805,21002807,21002809,21002810,22002801,22002802,22002803,22002804,22002805,22002807,22002809,22002810,23002801,23002802,23002803,23002804,23002805,23002807,23002809,23002810</t>
   </si>
   <si>
-    <t>200290</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>290级装备</t>
+    <t>200300</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>300级装备</t>
   </si>
   <si>
     <t>21002901,21002902,21002903,21002904,21002905,21002907,21002909,21002910,22002901,22002902,22002903,22002904,22002905,22002907,22002909,22002910,23002901,23002902,23002903,23002904,23002905,23002907,23002909,23002910</t>
   </si>
   <si>
-    <t>200300</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>300级装备</t>
+    <t>200310</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>310级装备</t>
   </si>
   <si>
     <t>21003001,21003002,21003003,21003004,21003005,21003007,21003009,21003010,22003001,22003002,22003003,22003004,22003005,22003007,22003009,22003010,23003001,23003002,23003003,23003004,23003005,23003007,23003009,23003010</t>
   </si>
   <si>
-    <t>200310</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>310级装备</t>
+    <t>200320</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>320级装备</t>
   </si>
   <si>
     <t>21003101,21003102,21003103,21003104,21003105,21003107,21003109,21003110,22003101,22003102,22003103,22003104,22003105,22003107,22003109,22003110,23003101,23003102,23003103,23003104,23003105,23003107,23003109,23003110</t>
   </si>
   <si>
-    <t>200320</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>320级装备</t>
+    <t>200330</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>330级装备</t>
   </si>
   <si>
     <t>21003201,21003202,21003203,21003204,21003205,21003207,21003209,21003210,22003201,22003202,22003203,22003204,22003205,22003207,22003209,22003210,23003201,23003202,23003203,23003204,23003205,23003207,23003209,23003210</t>
   </si>
   <si>
-    <t>200330</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>330级装备</t>
+    <t>200340</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>340级装备</t>
   </si>
   <si>
     <t>21003301,21003302,21003303,21003304,21003305,21003307,21003309,21003310,22003301,22003302,22003303,22003304,22003305,22003307,22003309,22003310,23003301,23003302,23003303,23003304,23003305,23003307,23003309,23003310</t>
   </si>
   <si>
-    <t>200340</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>340级装备</t>
+    <t>200350</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>350级装备</t>
   </si>
   <si>
     <t>21003401,21003402,21003403,21003404,21003405,21003407,21003409,21003410,22003401,22003402,22003403,22003404,22003405,22003407,22003409,22003410,23003401,23003402,23003403,23003404,23003405,23003407,23003409,23003410</t>
   </si>
   <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>0级技能书</t>
+    <t>300010</t>
+  </si>
+  <si>
+    <t>10级技能书</t>
   </si>
   <si>
     <t>3</t>
@@ -652,55 +650,55 @@
     <t>1001,2001,3001</t>
   </si>
   <si>
-    <t>300010</t>
-  </si>
-  <si>
-    <t>10级技能书</t>
+    <t>300020</t>
+  </si>
+  <si>
+    <t>20级技能书</t>
   </si>
   <si>
     <t>1002,2002,3002</t>
   </si>
   <si>
-    <t>300020</t>
-  </si>
-  <si>
-    <t>20级技能书</t>
+    <t>300030</t>
+  </si>
+  <si>
+    <t>30级技能书</t>
   </si>
   <si>
     <t>1003,2003,3003</t>
   </si>
   <si>
-    <t>300030</t>
-  </si>
-  <si>
-    <t>30级技能书</t>
+    <t>300040</t>
+  </si>
+  <si>
+    <t>40级技能书</t>
   </si>
   <si>
     <t>1004,2004,3004</t>
   </si>
   <si>
-    <t>300040</t>
-  </si>
-  <si>
-    <t>40级技能书</t>
+    <t>300050</t>
+  </si>
+  <si>
+    <t>50级技能书</t>
   </si>
   <si>
     <t>1005,2005,3005</t>
   </si>
   <si>
-    <t>300050</t>
-  </si>
-  <si>
-    <t>50级技能书</t>
+    <t>300060</t>
+  </si>
+  <si>
+    <t>60级技能书</t>
   </si>
   <si>
     <t>1006,2006,3006</t>
   </si>
   <si>
-    <t>300060</t>
-  </si>
-  <si>
-    <t>60级技能书</t>
+    <t>300070</t>
+  </si>
+  <si>
+    <t>70级技能书</t>
   </si>
   <si>
     <t>1007,2007,3007</t>
@@ -709,7 +707,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -738,34 +736,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -779,14 +749,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,6 +788,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,7 +853,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,49 +906,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,121 +1044,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,21 +1097,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1146,6 +1129,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,148 +1200,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,52 +1363,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1683,10 +1681,10 @@
   <sheetPr/>
   <dimension ref="C2:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1769,10 +1767,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1781,18 +1779,18 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1801,18 +1799,18 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1821,18 +1819,18 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -1841,18 +1839,18 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1861,18 +1859,18 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1881,18 +1879,18 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1901,18 +1899,18 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1921,18 +1919,18 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1941,18 +1939,18 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1961,18 +1959,18 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1981,18 +1979,18 @@
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2001,18 +1999,18 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2021,18 +2019,18 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -2041,18 +2039,18 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -2061,18 +2059,18 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -2081,18 +2079,18 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -2101,18 +2099,18 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -2121,18 +2119,18 @@
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -2141,18 +2139,18 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2161,18 +2159,18 @@
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -2181,18 +2179,18 @@
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -2201,18 +2199,18 @@
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2221,18 +2219,18 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2241,18 +2239,18 @@
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -2261,18 +2259,18 @@
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2281,18 +2279,18 @@
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2301,18 +2299,18 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2321,18 +2319,18 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -2341,18 +2339,18 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -2361,18 +2359,18 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -2381,18 +2379,18 @@
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -2401,18 +2399,18 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -2421,18 +2419,18 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -2441,18 +2439,18 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -2461,147 +2459,147 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2622,8 +2620,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -51,6 +51,28 @@
       </text>
     </comment>
     <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,12 +164,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="208">
   <si>
     <t>_id</t>
   </si>
@@ -167,6 +211,9 @@
     <t>掉落Id列表</t>
   </si>
   <si>
+    <t>掉落概率列表</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -185,6 +232,9 @@
     <t>ItemIdList</t>
   </si>
   <si>
+    <t>ItemRaTEList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -194,6 +244,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -636,6 +689,66 @@
   </si>
   <si>
     <t>21003401,21003402,21003403,21003404,21003405,21003407,21003409,21003410,22003401,22003402,22003403,22003404,22003405,22003407,22003409,22003410,23003401,23003402,23003403,23003404,23003405,23003407,23003409,23003410</t>
+  </si>
+  <si>
+    <t>200360</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>360级装备</t>
+  </si>
+  <si>
+    <t>21003501,21003502,21003503,21003504,21003505,21003507,21003509,21003510,22003501,22003502,22003503,22003504,22003505,22003507,22003509,22003510,23003501,23003502,23003503,23003504,23003505,23003507,23003509,23003510</t>
+  </si>
+  <si>
+    <t>200370</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>370级装备</t>
+  </si>
+  <si>
+    <t>21003601,21003602,21003603,21003604,21003605,21003607,21003609,21003610,22003601,22003602,22003603,22003604,22003605,22003607,22003609,22003610,23003601,23003602,23003603,23003604,23003605,23003607,23003609,23003610</t>
+  </si>
+  <si>
+    <t>200380</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>380级装备</t>
+  </si>
+  <si>
+    <t>21003701,21003702,21003703,21003704,21003705,21003707,21003709,21003710,22003701,22003702,22003703,22003704,22003705,22003707,22003709,22003710,23003701,23003702,23003703,23003704,23003705,23003707,23003709,23003710</t>
+  </si>
+  <si>
+    <t>200390</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>390级装备</t>
+  </si>
+  <si>
+    <t>21003801,21003802,21003803,21003804,21003805,21003807,21003809,21003810,22003801,22003802,22003803,22003804,22003805,22003807,22003809,22003810,23003801,23003802,23003803,23003804,23003805,23003807,23003809,23003810</t>
+  </si>
+  <si>
+    <t>200400</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>400级装备</t>
+  </si>
+  <si>
+    <t>21003901,21003902,21003903,21003904,21003905,21003907,21003909,21003910,22003901,22003902,22003903,22003904,22003905,22003907,22003909,22003910,23003901,23003902,23003903,23003904,23003905,23003907,23003909,23003910</t>
   </si>
   <si>
     <t>300010</t>
@@ -1679,30 +1792,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:H47"/>
+  <dimension ref="C2:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
     <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
     <col min="5" max="5" customWidth="true" style="1" width="13.875" collapsed="false"/>
     <col min="6" max="6" customWidth="true" style="1" width="13.25" collapsed="false"/>
     <col min="7" max="7" customWidth="true" style="1" width="14.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="40.375" collapsed="false"/>
-    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" style="2" width="40.375" collapsed="false"/>
+    <col min="10" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:9">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1721,886 +1834,1042 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="24.0" customHeight="true">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9">
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="9:9">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I10"/>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I12"/>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I13"/>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I14"/>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I15"/>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I16"/>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I17"/>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
+        <v>77</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="9:9">
       <c r="C19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I20"/>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="I21"/>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I22"/>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I23"/>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I24"/>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I25"/>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I26"/>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I27"/>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I28"/>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I29"/>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I30"/>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I31"/>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I32"/>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="I33"/>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I34"/>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I35"/>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I36"/>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I37"/>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="I38"/>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I39"/>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="I40"/>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I41"/>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>169</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I42"/>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I43"/>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>175</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I44"/>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I45"/>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="I46"/>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I47"/>
+    </row>
+    <row r="48" ht="24.0" customHeight="true">
+      <c r="C48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48"/>
+    </row>
+    <row r="49" ht="24.0" customHeight="true">
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49"/>
+    </row>
+    <row r="50" ht="24.0" customHeight="true">
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50"/>
+    </row>
+    <row r="51" ht="24.0" customHeight="true">
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51"/>
+    </row>
+    <row r="52" ht="24.0" customHeight="true">
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2618,32 +2887,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
     <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
     <col min="5" max="5" customWidth="true" style="1" width="13.875" collapsed="false"/>
     <col min="6" max="6" customWidth="true" style="1" width="13.25" collapsed="false"/>
     <col min="7" max="7" customWidth="true" style="1" width="14.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="40.375" collapsed="false"/>
-    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" style="2" width="40.375" collapsed="false"/>
+    <col min="10" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:8">
+    <row r="1" s="1" customFormat="1" spans="8:9">
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:8">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:9">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:8">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:9">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2662,89 +2933,105 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:8">
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:9">
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:8">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7">
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
   <si>
     <t>_id</t>
   </si>
@@ -244,577 +244,637 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10级装备</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21000001,21000002,21000003,21000004,21000005,21000007,21000009,21000010,22000001,22000002,22000003,22000004,22000005,22000007,22000009,22000010,23000001,23000002,23000003,23000004,23000005,23000007,23000009,23000010</t>
+  </si>
+  <si>
+    <t>200020</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20级装备</t>
+  </si>
+  <si>
+    <t>21000101,21000102,21000103,21000104,21000105,21000107,21000109,21000110,22000101,22000102,22000103,22000104,22000105,22000107,22000109,22000110,23000101,23000102,23000103,23000104,23000105,23000107,23000109,23000110</t>
+  </si>
+  <si>
+    <t>200030</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30级装备</t>
+  </si>
+  <si>
+    <t>21000201,21000202,21000203,21000204,21000205,21000207,21000209,21000210,22000201,22000202,22000203,22000204,22000205,22000207,22000209,22000210,23000201,23000202,23000203,23000204,23000205,23000207,23000209,23000210</t>
+  </si>
+  <si>
+    <t>200040</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40级装备</t>
+  </si>
+  <si>
+    <t>21000301,21000302,21000303,21000304,21000305,21000307,21000309,21000310,22000301,22000302,22000303,22000304,22000305,22000307,22000309,22000310,23000301,23000302,23000303,23000304,23000305,23000307,23000309,23000310</t>
+  </si>
+  <si>
+    <t>200050</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50级装备</t>
+  </si>
+  <si>
+    <t>21000401,21000402,21000403,21000404,21000405,21000407,21000409,21000410,22000401,22000402,22000403,22000404,22000405,22000407,22000409,22000410,23000401,23000402,23000403,23000404,23000405,23000407,23000409,23000410</t>
+  </si>
+  <si>
+    <t>200060</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>60级装备</t>
+  </si>
+  <si>
+    <t>21000501,21000502,21000503,21000504,21000505,21000507,21000509,21000510,22000501,22000502,22000503,22000504,22000505,22000507,22000509,22000510,23000501,23000502,23000503,23000504,23000505,23000507,23000509,23000510</t>
+  </si>
+  <si>
+    <t>200070</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70级装备</t>
+  </si>
+  <si>
+    <t>21000601,21000602,21000603,21000604,21000605,21000607,21000609,21000610,22000601,22000602,22000603,22000604,22000605,22000607,22000609,22000610,23000601,23000602,23000603,23000604,23000605,23000607,23000609,23000610</t>
+  </si>
+  <si>
+    <t>200080</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80级装备</t>
+  </si>
+  <si>
+    <t>21000701,21000702,21000703,21000704,21000705,21000707,21000709,21000710,22000701,22000702,22000703,22000704,22000705,22000707,22000709,22000710,23000701,23000702,23000703,23000704,23000705,23000707,23000709,23000710</t>
+  </si>
+  <si>
+    <t>200090</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90级装备</t>
+  </si>
+  <si>
+    <t>21000801,21000802,21000803,21000804,21000805,21000807,21000809,21000810,22000801,22000802,22000803,22000804,22000805,22000807,22000809,22000810,23000801,23000802,23000803,23000804,23000805,23000807,23000809,23000810</t>
+  </si>
+  <si>
+    <t>200100</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100级装备</t>
+  </si>
+  <si>
+    <t>21000901,21000902,21000903,21000904,21000905,21000907,21000909,21000910,22000901,22000902,22000903,22000904,22000905,22000907,22000909,22000910,23000901,23000902,23000903,23000904,23000905,23000907,23000909,23000910</t>
+  </si>
+  <si>
+    <t>200110</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110级装备</t>
+  </si>
+  <si>
+    <t>21001001,21001002,21001003,21001004,21001005,21001007,21001009,21001010,22001001,22001002,22001003,22001004,22001005,22001007,22001009,22001010,23001001,23001002,23001003,23001004,23001005,23001007,23001009,23001010</t>
+  </si>
+  <si>
+    <t>200120</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>120级装备</t>
+  </si>
+  <si>
+    <t>21001101,21001102,21001103,21001104,21001105,21001107,21001109,21001110,22001101,22001102,22001103,22001104,22001105,22001107,22001109,22001110,23001101,23001102,23001103,23001104,23001105,23001107,23001109,23001110</t>
+  </si>
+  <si>
+    <t>200130</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>130级装备</t>
+  </si>
+  <si>
+    <t>21001201,21001202,21001203,21001204,21001205,21001207,21001209,21001210,22001201,22001202,22001203,22001204,22001205,22001207,22001209,22001210,23001201,23001202,23001203,23001204,23001205,23001207,23001209,23001210</t>
+  </si>
+  <si>
+    <t>200140</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>140级装备</t>
+  </si>
+  <si>
+    <t>21001301,21001302,21001303,21001304,21001305,21001307,21001309,21001310,22001301,22001302,22001303,22001304,22001305,22001307,22001309,22001310,23001301,23001302,23001303,23001304,23001305,23001307,23001309,23001310</t>
+  </si>
+  <si>
+    <t>200150</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>150级装备</t>
+  </si>
+  <si>
+    <t>21001401,21001402,21001403,21001404,21001405,21001407,21001409,21001410,22001401,22001402,22001403,22001404,22001405,22001407,22001409,22001410,23001401,23001402,23001403,23001404,23001405,23001407,23001409,23001410</t>
+  </si>
+  <si>
+    <t>200160</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>160级装备</t>
+  </si>
+  <si>
+    <t>21001501,21001502,21001503,21001504,21001505,21001507,21001509,21001510,22001501,22001502,22001503,22001504,22001505,22001507,22001509,22001510,23001501,23001502,23001503,23001504,23001505,23001507,23001509,23001510</t>
+  </si>
+  <si>
+    <t>200170</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>170级装备</t>
+  </si>
+  <si>
+    <t>21001601,21001602,21001603,21001604,21001605,21001607,21001609,21001610,22001601,22001602,22001603,22001604,22001605,22001607,22001609,22001610,23001601,23001602,23001603,23001604,23001605,23001607,23001609,23001610</t>
+  </si>
+  <si>
+    <t>200180</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>180级装备</t>
+  </si>
+  <si>
+    <t>21001701,21001702,21001703,21001704,21001705,21001707,21001709,21001710,22001701,22001702,22001703,22001704,22001705,22001707,22001709,22001710,23001701,23001702,23001703,23001704,23001705,23001707,23001709,23001710</t>
+  </si>
+  <si>
+    <t>200190</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>190级装备</t>
+  </si>
+  <si>
+    <t>21001801,21001802,21001803,21001804,21001805,21001807,21001809,21001810,22001801,22001802,22001803,22001804,22001805,22001807,22001809,22001810,23001801,23001802,23001803,23001804,23001805,23001807,23001809,23001810</t>
+  </si>
+  <si>
+    <t>200200</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>200级装备</t>
+  </si>
+  <si>
+    <t>21001901,21001902,21001903,21001904,21001905,21001907,21001909,21001910,22001901,22001902,22001903,22001904,22001905,22001907,22001909,22001910,23001901,23001902,23001903,23001904,23001905,23001907,23001909,23001910</t>
+  </si>
+  <si>
+    <t>200210</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>210级装备</t>
+  </si>
+  <si>
+    <t>21002001,21002002,21002003,21002004,21002005,21002007,21002009,21002010,22002001,22002002,22002003,22002004,22002005,22002007,22002009,22002010,23002001,23002002,23002003,23002004,23002005,23002007,23002009,23002010</t>
+  </si>
+  <si>
+    <t>200220</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>220级装备</t>
+  </si>
+  <si>
+    <t>21002101,21002102,21002103,21002104,21002105,21002107,21002109,21002110,22002101,22002102,22002103,22002104,22002105,22002107,22002109,22002110,23002101,23002102,23002103,23002104,23002105,23002107,23002109,23002110</t>
+  </si>
+  <si>
+    <t>200230</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>230级装备</t>
+  </si>
+  <si>
+    <t>21002201,21002202,21002203,21002204,21002205,21002207,21002209,21002210,22002201,22002202,22002203,22002204,22002205,22002207,22002209,22002210,23002201,23002202,23002203,23002204,23002205,23002207,23002209,23002210</t>
+  </si>
+  <si>
+    <t>200240</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>240级装备</t>
+  </si>
+  <si>
+    <t>21002301,21002302,21002303,21002304,21002305,21002307,21002309,21002310,22002301,22002302,22002303,22002304,22002305,22002307,22002309,22002310,23002301,23002302,23002303,23002304,23002305,23002307,23002309,23002310</t>
+  </si>
+  <si>
+    <t>200250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>250级装备</t>
+  </si>
+  <si>
+    <t>21002401,21002402,21002403,21002404,21002405,21002407,21002409,21002410,22002401,22002402,22002403,22002404,22002405,22002407,22002409,22002410,23002401,23002402,23002403,23002404,23002405,23002407,23002409,23002410</t>
+  </si>
+  <si>
+    <t>200260</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>260级装备</t>
+  </si>
+  <si>
+    <t>21002501,21002502,21002503,21002504,21002505,21002507,21002509,21002510,22002501,22002502,22002503,22002504,22002505,22002507,22002509,22002510,23002501,23002502,23002503,23002504,23002505,23002507,23002509,23002510</t>
+  </si>
+  <si>
+    <t>200270</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>270级装备</t>
+  </si>
+  <si>
+    <t>21002601,21002602,21002603,21002604,21002605,21002607,21002609,21002610,22002601,22002602,22002603,22002604,22002605,22002607,22002609,22002610,23002601,23002602,23002603,23002604,23002605,23002607,23002609,23002610</t>
+  </si>
+  <si>
+    <t>200280</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>280级装备</t>
+  </si>
+  <si>
+    <t>21002701,21002702,21002703,21002704,21002705,21002707,21002709,21002710,22002701,22002702,22002703,22002704,22002705,22002707,22002709,22002710,23002701,23002702,23002703,23002704,23002705,23002707,23002709,23002710</t>
+  </si>
+  <si>
+    <t>200290</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>290级装备</t>
+  </si>
+  <si>
+    <t>21002801,21002802,21002803,21002804,21002805,21002807,21002809,21002810,22002801,22002802,22002803,22002804,22002805,22002807,22002809,22002810,23002801,23002802,23002803,23002804,23002805,23002807,23002809,23002810</t>
+  </si>
+  <si>
+    <t>200300</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>300级装备</t>
+  </si>
+  <si>
+    <t>21002901,21002902,21002903,21002904,21002905,21002907,21002909,21002910,22002901,22002902,22002903,22002904,22002905,22002907,22002909,22002910,23002901,23002902,23002903,23002904,23002905,23002907,23002909,23002910</t>
+  </si>
+  <si>
+    <t>200310</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>310级装备</t>
+  </si>
+  <si>
+    <t>21003001,21003002,21003003,21003004,21003005,21003007,21003009,21003010,22003001,22003002,22003003,22003004,22003005,22003007,22003009,22003010,23003001,23003002,23003003,23003004,23003005,23003007,23003009,23003010</t>
+  </si>
+  <si>
+    <t>200320</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>320级装备</t>
+  </si>
+  <si>
+    <t>21003101,21003102,21003103,21003104,21003105,21003107,21003109,21003110,22003101,22003102,22003103,22003104,22003105,22003107,22003109,22003110,23003101,23003102,23003103,23003104,23003105,23003107,23003109,23003110</t>
+  </si>
+  <si>
+    <t>200330</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>330级装备</t>
+  </si>
+  <si>
+    <t>21003201,21003202,21003203,21003204,21003205,21003207,21003209,21003210,22003201,22003202,22003203,22003204,22003205,22003207,22003209,22003210,23003201,23003202,23003203,23003204,23003205,23003207,23003209,23003210</t>
+  </si>
+  <si>
+    <t>200340</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>340级装备</t>
+  </si>
+  <si>
+    <t>21003301,21003302,21003303,21003304,21003305,21003307,21003309,21003310,22003301,22003302,22003303,22003304,22003305,22003307,22003309,22003310,23003301,23003302,23003303,23003304,23003305,23003307,23003309,23003310</t>
+  </si>
+  <si>
+    <t>200350</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>350级装备</t>
+  </si>
+  <si>
+    <t>21003401,21003402,21003403,21003404,21003405,21003407,21003409,21003410,22003401,22003402,22003403,22003404,22003405,22003407,22003409,22003410,23003401,23003402,23003403,23003404,23003405,23003407,23003409,23003410</t>
+  </si>
+  <si>
+    <t>200360</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>360级装备</t>
+  </si>
+  <si>
+    <t>21003501,21003502,21003503,21003504,21003505,21003507,21003509,21003510,22003501,22003502,22003503,22003504,22003505,22003507,22003509,22003510,23003501,23003502,23003503,23003504,23003505,23003507,23003509,23003510</t>
+  </si>
+  <si>
+    <t>200370</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>370级装备</t>
+  </si>
+  <si>
+    <t>21003601,21003602,21003603,21003604,21003605,21003607,21003609,21003610,22003601,22003602,22003603,22003604,22003605,22003607,22003609,22003610,23003601,23003602,23003603,23003604,23003605,23003607,23003609,23003610</t>
+  </si>
+  <si>
+    <t>200380</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>380级装备</t>
+  </si>
+  <si>
+    <t>21003701,21003702,21003703,21003704,21003705,21003707,21003709,21003710,22003701,22003702,22003703,22003704,22003705,22003707,22003709,22003710,23003701,23003702,23003703,23003704,23003705,23003707,23003709,23003710</t>
+  </si>
+  <si>
+    <t>200390</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>390级装备</t>
+  </si>
+  <si>
+    <t>21003801,21003802,21003803,21003804,21003805,21003807,21003809,21003810,22003801,22003802,22003803,22003804,22003805,22003807,22003809,22003810,23003801,23003802,23003803,23003804,23003805,23003807,23003809,23003810</t>
+  </si>
+  <si>
+    <t>200400</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>400级装备</t>
+  </si>
+  <si>
+    <t>21003901,21003902,21003903,21003904,21003905,21003907,21003909,21003910,22003901,22003902,22003903,22003904,22003905,22003907,22003909,22003910,23003901,23003902,23003903,23003904,23003905,23003907,23003909,23003910</t>
+  </si>
+  <si>
+    <t>200410</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>410级装备</t>
+  </si>
+  <si>
+    <t>21004001,21004002,21004003,21004004,21004005,21004007,21004009,21004010,22004001,22004002,22004003,22004004,22004005,22004007,22004009,22004010,23004001,23004002,23004003,23004004,23004005,23004007,23004009,23004010</t>
+  </si>
+  <si>
+    <t>200420</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>420级装备</t>
+  </si>
+  <si>
+    <t>21004101,21004102,21004103,21004104,21004105,21004107,21004109,21004110,22004101,22004102,22004103,22004104,22004105,22004107,22004109,22004110,23004101,23004102,23004103,23004104,23004105,23004107,23004109,23004110</t>
+  </si>
+  <si>
+    <t>200430</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>430级装备</t>
+  </si>
+  <si>
+    <t>21004201,21004202,21004203,21004204,21004205,21004207,21004209,21004210,22004201,22004202,22004203,22004204,22004205,22004207,22004209,22004210,23004201,23004202,23004203,23004204,23004205,23004207,23004209,23004210</t>
+  </si>
+  <si>
+    <t>200440</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>440级装备</t>
+  </si>
+  <si>
+    <t>21004301,21004302,21004303,21004304,21004305,21004307,21004309,21004310,22004301,22004302,22004303,22004304,22004305,22004307,22004309,22004310,23004301,23004302,23004303,23004304,23004305,23004307,23004309,23004310</t>
+  </si>
+  <si>
+    <t>200450</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>450级装备</t>
+  </si>
+  <si>
+    <t>21004401,21004402,21004403,21004404,21004405,21004407,21004409,21004410,22004401,22004402,22004403,22004404,22004405,22004407,22004409,22004410,23004401,23004402,23004403,23004404,23004405,23004407,23004409,23004410</t>
+  </si>
+  <si>
+    <t>300010</t>
+  </si>
+  <si>
+    <t>10级技能书</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1001,2001,3001</t>
+  </si>
+  <si>
+    <t>300020</t>
+  </si>
+  <si>
+    <t>20级技能书</t>
+  </si>
+  <si>
+    <t>1002,2002,3002</t>
+  </si>
+  <si>
+    <t>300030</t>
+  </si>
+  <si>
+    <t>30级技能书</t>
+  </si>
+  <si>
+    <t>1003,2003,3003</t>
+  </si>
+  <si>
+    <t>300040</t>
+  </si>
+  <si>
+    <t>40级技能书</t>
+  </si>
+  <si>
+    <t>1004,2004,3004</t>
+  </si>
+  <si>
+    <t>300050</t>
+  </si>
+  <si>
+    <t>50级技能书</t>
+  </si>
+  <si>
+    <t>1005,2005,3005</t>
+  </si>
+  <si>
+    <t>300060</t>
+  </si>
+  <si>
+    <t>60级技能书</t>
+  </si>
+  <si>
+    <t>1006,2006,3006</t>
+  </si>
+  <si>
+    <t>300070</t>
+  </si>
+  <si>
+    <t>70级技能书</t>
+  </si>
+  <si>
+    <t>1007,2007,3007</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4件套装备</t>
+  </si>
+  <si>
+    <t>101,201,301,401</t>
+  </si>
+  <si>
+    <t>经验BUFF</t>
+  </si>
+  <si>
+    <t>6001,6002,6003</t>
+  </si>
+  <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4件套装备</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>101,201,301,401</t>
-  </si>
-  <si>
-    <t>经验BUFF</t>
-  </si>
-  <si>
-    <t>6001,6002,6003</t>
-  </si>
-  <si>
-    <t>200010</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10级装备</t>
-  </si>
-  <si>
-    <t>21000001,21000002,21000003,21000004,21000005,21000007,21000009,21000010,22000001,22000002,22000003,22000004,22000005,22000007,22000009,22000010,23000001,23000002,23000003,23000004,23000005,23000007,23000009,23000010</t>
-  </si>
-  <si>
-    <t>200020</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20级装备</t>
-  </si>
-  <si>
-    <t>21000101,21000102,21000103,21000104,21000105,21000107,21000109,21000110,22000101,22000102,22000103,22000104,22000105,22000107,22000109,22000110,23000101,23000102,23000103,23000104,23000105,23000107,23000109,23000110</t>
-  </si>
-  <si>
-    <t>200030</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>30级装备</t>
-  </si>
-  <si>
-    <t>21000201,21000202,21000203,21000204,21000205,21000207,21000209,21000210,22000201,22000202,22000203,22000204,22000205,22000207,22000209,22000210,23000201,23000202,23000203,23000204,23000205,23000207,23000209,23000210</t>
-  </si>
-  <si>
-    <t>200040</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>40级装备</t>
-  </si>
-  <si>
-    <t>21000301,21000302,21000303,21000304,21000305,21000307,21000309,21000310,22000301,22000302,22000303,22000304,22000305,22000307,22000309,22000310,23000301,23000302,23000303,23000304,23000305,23000307,23000309,23000310</t>
-  </si>
-  <si>
-    <t>200050</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>50级装备</t>
-  </si>
-  <si>
-    <t>21000401,21000402,21000403,21000404,21000405,21000407,21000409,21000410,22000401,22000402,22000403,22000404,22000405,22000407,22000409,22000410,23000401,23000402,23000403,23000404,23000405,23000407,23000409,23000410</t>
-  </si>
-  <si>
-    <t>200060</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>60级装备</t>
-  </si>
-  <si>
-    <t>21000501,21000502,21000503,21000504,21000505,21000507,21000509,21000510,22000501,22000502,22000503,22000504,22000505,22000507,22000509,22000510,23000501,23000502,23000503,23000504,23000505,23000507,23000509,23000510</t>
-  </si>
-  <si>
-    <t>200070</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70级装备</t>
-  </si>
-  <si>
-    <t>21000601,21000602,21000603,21000604,21000605,21000607,21000609,21000610,22000601,22000602,22000603,22000604,22000605,22000607,22000609,22000610,23000601,23000602,23000603,23000604,23000605,23000607,23000609,23000610</t>
-  </si>
-  <si>
-    <t>200080</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80级装备</t>
-  </si>
-  <si>
-    <t>21000701,21000702,21000703,21000704,21000705,21000707,21000709,21000710,22000701,22000702,22000703,22000704,22000705,22000707,22000709,22000710,23000701,23000702,23000703,23000704,23000705,23000707,23000709,23000710</t>
-  </si>
-  <si>
-    <t>200090</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90级装备</t>
-  </si>
-  <si>
-    <t>21000801,21000802,21000803,21000804,21000805,21000807,21000809,21000810,22000801,22000802,22000803,22000804,22000805,22000807,22000809,22000810,23000801,23000802,23000803,23000804,23000805,23000807,23000809,23000810</t>
-  </si>
-  <si>
-    <t>200100</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100级装备</t>
-  </si>
-  <si>
-    <t>21000901,21000902,21000903,21000904,21000905,21000907,21000909,21000910,22000901,22000902,22000903,22000904,22000905,22000907,22000909,22000910,23000901,23000902,23000903,23000904,23000905,23000907,23000909,23000910</t>
-  </si>
-  <si>
-    <t>200110</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>110级装备</t>
-  </si>
-  <si>
-    <t>21001001,21001002,21001003,21001004,21001005,21001007,21001009,21001010,22001001,22001002,22001003,22001004,22001005,22001007,22001009,22001010,23001001,23001002,23001003,23001004,23001005,23001007,23001009,23001010</t>
-  </si>
-  <si>
-    <t>200120</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>120级装备</t>
-  </si>
-  <si>
-    <t>21001101,21001102,21001103,21001104,21001105,21001107,21001109,21001110,22001101,22001102,22001103,22001104,22001105,22001107,22001109,22001110,23001101,23001102,23001103,23001104,23001105,23001107,23001109,23001110</t>
-  </si>
-  <si>
-    <t>200130</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>130级装备</t>
-  </si>
-  <si>
-    <t>21001201,21001202,21001203,21001204,21001205,21001207,21001209,21001210,22001201,22001202,22001203,22001204,22001205,22001207,22001209,22001210,23001201,23001202,23001203,23001204,23001205,23001207,23001209,23001210</t>
-  </si>
-  <si>
-    <t>200140</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>140级装备</t>
-  </si>
-  <si>
-    <t>21001301,21001302,21001303,21001304,21001305,21001307,21001309,21001310,22001301,22001302,22001303,22001304,22001305,22001307,22001309,22001310,23001301,23001302,23001303,23001304,23001305,23001307,23001309,23001310</t>
-  </si>
-  <si>
-    <t>200150</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>150级装备</t>
-  </si>
-  <si>
-    <t>21001401,21001402,21001403,21001404,21001405,21001407,21001409,21001410,22001401,22001402,22001403,22001404,22001405,22001407,22001409,22001410,23001401,23001402,23001403,23001404,23001405,23001407,23001409,23001410</t>
-  </si>
-  <si>
-    <t>200160</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>160级装备</t>
-  </si>
-  <si>
-    <t>21001501,21001502,21001503,21001504,21001505,21001507,21001509,21001510,22001501,22001502,22001503,22001504,22001505,22001507,22001509,22001510,23001501,23001502,23001503,23001504,23001505,23001507,23001509,23001510</t>
-  </si>
-  <si>
-    <t>200170</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>170级装备</t>
-  </si>
-  <si>
-    <t>21001601,21001602,21001603,21001604,21001605,21001607,21001609,21001610,22001601,22001602,22001603,22001604,22001605,22001607,22001609,22001610,23001601,23001602,23001603,23001604,23001605,23001607,23001609,23001610</t>
-  </si>
-  <si>
-    <t>200180</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>180级装备</t>
-  </si>
-  <si>
-    <t>21001701,21001702,21001703,21001704,21001705,21001707,21001709,21001710,22001701,22001702,22001703,22001704,22001705,22001707,22001709,22001710,23001701,23001702,23001703,23001704,23001705,23001707,23001709,23001710</t>
-  </si>
-  <si>
-    <t>200190</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>190级装备</t>
-  </si>
-  <si>
-    <t>21001801,21001802,21001803,21001804,21001805,21001807,21001809,21001810,22001801,22001802,22001803,22001804,22001805,22001807,22001809,22001810,23001801,23001802,23001803,23001804,23001805,23001807,23001809,23001810</t>
-  </si>
-  <si>
-    <t>200200</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>200级装备</t>
-  </si>
-  <si>
-    <t>21001901,21001902,21001903,21001904,21001905,21001907,21001909,21001910,22001901,22001902,22001903,22001904,22001905,22001907,22001909,22001910,23001901,23001902,23001903,23001904,23001905,23001907,23001909,23001910</t>
-  </si>
-  <si>
-    <t>200210</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>210级装备</t>
-  </si>
-  <si>
-    <t>21002001,21002002,21002003,21002004,21002005,21002007,21002009,21002010,22002001,22002002,22002003,22002004,22002005,22002007,22002009,22002010,23002001,23002002,23002003,23002004,23002005,23002007,23002009,23002010</t>
-  </si>
-  <si>
-    <t>200220</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>220级装备</t>
-  </si>
-  <si>
-    <t>21002101,21002102,21002103,21002104,21002105,21002107,21002109,21002110,22002101,22002102,22002103,22002104,22002105,22002107,22002109,22002110,23002101,23002102,23002103,23002104,23002105,23002107,23002109,23002110</t>
-  </si>
-  <si>
-    <t>200230</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>230级装备</t>
-  </si>
-  <si>
-    <t>21002201,21002202,21002203,21002204,21002205,21002207,21002209,21002210,22002201,22002202,22002203,22002204,22002205,22002207,22002209,22002210,23002201,23002202,23002203,23002204,23002205,23002207,23002209,23002210</t>
-  </si>
-  <si>
-    <t>200240</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>240级装备</t>
-  </si>
-  <si>
-    <t>21002301,21002302,21002303,21002304,21002305,21002307,21002309,21002310,22002301,22002302,22002303,22002304,22002305,22002307,22002309,22002310,23002301,23002302,23002303,23002304,23002305,23002307,23002309,23002310</t>
-  </si>
-  <si>
-    <t>200250</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>250级装备</t>
-  </si>
-  <si>
-    <t>21002401,21002402,21002403,21002404,21002405,21002407,21002409,21002410,22002401,22002402,22002403,22002404,22002405,22002407,22002409,22002410,23002401,23002402,23002403,23002404,23002405,23002407,23002409,23002410</t>
-  </si>
-  <si>
-    <t>200260</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>260级装备</t>
-  </si>
-  <si>
-    <t>21002501,21002502,21002503,21002504,21002505,21002507,21002509,21002510,22002501,22002502,22002503,22002504,22002505,22002507,22002509,22002510,23002501,23002502,23002503,23002504,23002505,23002507,23002509,23002510</t>
-  </si>
-  <si>
-    <t>200270</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>270级装备</t>
-  </si>
-  <si>
-    <t>21002601,21002602,21002603,21002604,21002605,21002607,21002609,21002610,22002601,22002602,22002603,22002604,22002605,22002607,22002609,22002610,23002601,23002602,23002603,23002604,23002605,23002607,23002609,23002610</t>
-  </si>
-  <si>
-    <t>200280</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>280级装备</t>
-  </si>
-  <si>
-    <t>21002701,21002702,21002703,21002704,21002705,21002707,21002709,21002710,22002701,22002702,22002703,22002704,22002705,22002707,22002709,22002710,23002701,23002702,23002703,23002704,23002705,23002707,23002709,23002710</t>
-  </si>
-  <si>
-    <t>200290</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>290级装备</t>
-  </si>
-  <si>
-    <t>21002801,21002802,21002803,21002804,21002805,21002807,21002809,21002810,22002801,22002802,22002803,22002804,22002805,22002807,22002809,22002810,23002801,23002802,23002803,23002804,23002805,23002807,23002809,23002810</t>
-  </si>
-  <si>
-    <t>200300</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>300级装备</t>
-  </si>
-  <si>
-    <t>21002901,21002902,21002903,21002904,21002905,21002907,21002909,21002910,22002901,22002902,22002903,22002904,22002905,22002907,22002909,22002910,23002901,23002902,23002903,23002904,23002905,23002907,23002909,23002910</t>
-  </si>
-  <si>
-    <t>200310</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>310级装备</t>
-  </si>
-  <si>
-    <t>21003001,21003002,21003003,21003004,21003005,21003007,21003009,21003010,22003001,22003002,22003003,22003004,22003005,22003007,22003009,22003010,23003001,23003002,23003003,23003004,23003005,23003007,23003009,23003010</t>
-  </si>
-  <si>
-    <t>200320</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>320级装备</t>
-  </si>
-  <si>
-    <t>21003101,21003102,21003103,21003104,21003105,21003107,21003109,21003110,22003101,22003102,22003103,22003104,22003105,22003107,22003109,22003110,23003101,23003102,23003103,23003104,23003105,23003107,23003109,23003110</t>
-  </si>
-  <si>
-    <t>200330</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>330级装备</t>
-  </si>
-  <si>
-    <t>21003201,21003202,21003203,21003204,21003205,21003207,21003209,21003210,22003201,22003202,22003203,22003204,22003205,22003207,22003209,22003210,23003201,23003202,23003203,23003204,23003205,23003207,23003209,23003210</t>
-  </si>
-  <si>
-    <t>200340</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>340级装备</t>
-  </si>
-  <si>
-    <t>21003301,21003302,21003303,21003304,21003305,21003307,21003309,21003310,22003301,22003302,22003303,22003304,22003305,22003307,22003309,22003310,23003301,23003302,23003303,23003304,23003305,23003307,23003309,23003310</t>
-  </si>
-  <si>
-    <t>200350</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>350级装备</t>
-  </si>
-  <si>
-    <t>21003401,21003402,21003403,21003404,21003405,21003407,21003409,21003410,22003401,22003402,22003403,22003404,22003405,22003407,22003409,22003410,23003401,23003402,23003403,23003404,23003405,23003407,23003409,23003410</t>
-  </si>
-  <si>
-    <t>200360</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>360级装备</t>
-  </si>
-  <si>
-    <t>21003501,21003502,21003503,21003504,21003505,21003507,21003509,21003510,22003501,22003502,22003503,22003504,22003505,22003507,22003509,22003510,23003501,23003502,23003503,23003504,23003505,23003507,23003509,23003510</t>
-  </si>
-  <si>
-    <t>200370</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>370级装备</t>
-  </si>
-  <si>
-    <t>21003601,21003602,21003603,21003604,21003605,21003607,21003609,21003610,22003601,22003602,22003603,22003604,22003605,22003607,22003609,22003610,23003601,23003602,23003603,23003604,23003605,23003607,23003609,23003610</t>
-  </si>
-  <si>
-    <t>200380</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>380级装备</t>
-  </si>
-  <si>
-    <t>21003701,21003702,21003703,21003704,21003705,21003707,21003709,21003710,22003701,22003702,22003703,22003704,22003705,22003707,22003709,22003710,23003701,23003702,23003703,23003704,23003705,23003707,23003709,23003710</t>
-  </si>
-  <si>
-    <t>200390</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>390级装备</t>
-  </si>
-  <si>
-    <t>21003801,21003802,21003803,21003804,21003805,21003807,21003809,21003810,22003801,22003802,22003803,22003804,22003805,22003807,22003809,22003810,23003801,23003802,23003803,23003804,23003805,23003807,23003809,23003810</t>
-  </si>
-  <si>
-    <t>200400</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>400级装备</t>
-  </si>
-  <si>
-    <t>21003901,21003902,21003903,21003904,21003905,21003907,21003909,21003910,22003901,22003902,22003903,22003904,22003905,22003907,22003909,22003910,23003901,23003902,23003903,23003904,23003905,23003907,23003909,23003910</t>
-  </si>
-  <si>
-    <t>300010</t>
-  </si>
-  <si>
-    <t>10级技能书</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1001,2001,3001</t>
-  </si>
-  <si>
-    <t>300020</t>
-  </si>
-  <si>
-    <t>20级技能书</t>
-  </si>
-  <si>
-    <t>1002,2002,3002</t>
-  </si>
-  <si>
-    <t>300030</t>
-  </si>
-  <si>
-    <t>30级技能书</t>
-  </si>
-  <si>
-    <t>1003,2003,3003</t>
-  </si>
-  <si>
-    <t>300040</t>
-  </si>
-  <si>
-    <t>40级技能书</t>
-  </si>
-  <si>
-    <t>1004,2004,3004</t>
-  </si>
-  <si>
-    <t>300050</t>
-  </si>
-  <si>
-    <t>50级技能书</t>
-  </si>
-  <si>
-    <t>1005,2005,3005</t>
-  </si>
-  <si>
-    <t>300060</t>
-  </si>
-  <si>
-    <t>60级技能书</t>
-  </si>
-  <si>
-    <t>1006,2006,3006</t>
-  </si>
-  <si>
-    <t>300070</t>
-  </si>
-  <si>
-    <t>70级技能书</t>
-  </si>
-  <si>
-    <t>1007,2007,3007</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1792,23 +1852,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I52"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="$A46:$XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="13.25" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="14.25" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" style="2" width="40.375" collapsed="false"/>
-    <col min="10" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="40.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
@@ -1884,992 +1944,1108 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="9:9">
+    <row r="6" spans="3:9">
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:9">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="9:9">
-      <c r="C7" t="s">
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:9">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
-      <c r="C8" t="s">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:9">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
-      <c r="C9" t="s">
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:9">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
-      <c r="C10" t="s">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:9">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
-      <c r="C11" t="s">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:9">
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
-      <c r="C12" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:9">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
-      <c r="C13" t="s">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:9">
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
-      <c r="C14" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="I15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:9">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E16" t="s">
         <v>61</v>
       </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
-      <c r="C15" t="s">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:9">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E17" t="s">
         <v>65</v>
       </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
-      <c r="C16" t="s">
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:9">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
-      <c r="C17" t="s">
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
-      <c r="C18" t="s">
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:9">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="E20" t="s">
         <v>77</v>
       </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="9:9">
-      <c r="C19" t="s">
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:9">
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
-      <c r="C20" t="s">
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:9">
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E22" t="s">
         <v>85</v>
       </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
-      <c r="C21" t="s">
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:9">
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E23" t="s">
         <v>89</v>
       </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
-      <c r="C22" t="s">
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
+      <c r="I23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:9">
+      <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="E24" t="s">
         <v>93</v>
       </c>
-      <c r="I22"/>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
-      <c r="C23" t="s">
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:9">
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D25" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="E25" t="s">
         <v>97</v>
       </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
-      <c r="C24" t="s">
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
         <v>98</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:9">
+      <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D26" t="s">
         <v>100</v>
       </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="E26" t="s">
         <v>101</v>
       </c>
-      <c r="I24"/>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
-      <c r="C25" t="s">
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:9">
+      <c r="C27" t="s">
         <v>103</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E27" t="s">
         <v>105</v>
       </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
-      <c r="C26" t="s">
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
         <v>106</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:9">
+      <c r="C28" t="s">
         <v>107</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D28" t="s">
         <v>108</v>
       </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
-      <c r="C27" t="s">
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
         <v>110</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:9">
+      <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D29" t="s">
         <v>112</v>
       </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E29" t="s">
         <v>113</v>
       </c>
-      <c r="I27"/>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
-      <c r="C28" t="s">
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:9">
+      <c r="C30" t="s">
         <v>115</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="E30" t="s">
         <v>117</v>
       </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
-      <c r="C29" t="s">
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
         <v>118</v>
       </c>
-      <c r="D29" t="s">
+      <c r="I30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:9">
+      <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="E31" t="s">
         <v>121</v>
       </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
-      <c r="C30" t="s">
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
         <v>122</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:9">
+      <c r="C32" t="s">
         <v>123</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="E32" t="s">
         <v>125</v>
       </c>
-      <c r="I30"/>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
-      <c r="C31" t="s">
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
         <v>126</v>
       </c>
-      <c r="D31" t="s">
+      <c r="I32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:9">
+      <c r="C33" t="s">
         <v>127</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D33" t="s">
         <v>128</v>
       </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E33" t="s">
         <v>129</v>
       </c>
-      <c r="I31"/>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
-      <c r="C32" t="s">
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
         <v>130</v>
       </c>
-      <c r="D32" t="s">
+      <c r="I33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:9">
+      <c r="C34" t="s">
         <v>131</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D34" t="s">
         <v>132</v>
       </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E34" t="s">
         <v>133</v>
       </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
-      <c r="C33" t="s">
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
         <v>134</v>
       </c>
-      <c r="D33" t="s">
+      <c r="I34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:9">
+      <c r="C35" t="s">
         <v>135</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D35" t="s">
         <v>136</v>
       </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="E35" t="s">
         <v>137</v>
       </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
-      <c r="C34" t="s">
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:9">
+      <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D36" t="s">
         <v>140</v>
       </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="E36" t="s">
         <v>141</v>
       </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
-      <c r="C35" t="s">
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
         <v>142</v>
       </c>
-      <c r="D35" t="s">
+      <c r="I36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:9">
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D37" t="s">
         <v>144</v>
       </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E37" t="s">
         <v>145</v>
       </c>
-      <c r="I35"/>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
-      <c r="C36" t="s">
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
         <v>146</v>
       </c>
-      <c r="D36" t="s">
+      <c r="I37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:9">
+      <c r="C38" t="s">
         <v>147</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D38" t="s">
         <v>148</v>
       </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="E38" t="s">
         <v>149</v>
       </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
-      <c r="C37" t="s">
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
         <v>150</v>
       </c>
-      <c r="D37" t="s">
+      <c r="I38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:9">
+      <c r="C39" t="s">
         <v>151</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="E39" t="s">
         <v>153</v>
       </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
-      <c r="C38" t="s">
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
         <v>154</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:9">
+      <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="E40" t="s">
         <v>157</v>
       </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
-      <c r="C39" t="s">
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
         <v>158</v>
       </c>
-      <c r="D39" t="s">
+      <c r="I40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:9">
+      <c r="C41" t="s">
         <v>159</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D41" t="s">
         <v>160</v>
       </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E41" t="s">
         <v>161</v>
       </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
-      <c r="C40" t="s">
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
         <v>162</v>
       </c>
-      <c r="D40" t="s">
+      <c r="I41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:9">
+      <c r="C42" t="s">
         <v>163</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D42" t="s">
         <v>164</v>
       </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="E42" t="s">
         <v>165</v>
       </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" ht="24.0" customHeight="true">
-      <c r="C41" t="s">
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
         <v>166</v>
       </c>
-      <c r="D41" t="s">
+      <c r="I42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:9">
+      <c r="C43" t="s">
         <v>167</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="E43" t="s">
         <v>169</v>
       </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" ht="24.0" customHeight="true">
-      <c r="C42" t="s">
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="D42" t="s">
+      <c r="I43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:9">
+      <c r="C44" t="s">
         <v>171</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D44" t="s">
         <v>172</v>
       </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="E44" t="s">
         <v>173</v>
       </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" ht="24.0" customHeight="true">
-      <c r="C43" t="s">
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
         <v>174</v>
       </c>
-      <c r="D43" t="s">
+      <c r="I44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:9">
+      <c r="C45" t="s">
         <v>175</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D45" t="s">
         <v>176</v>
       </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="E45" t="s">
         <v>177</v>
       </c>
-      <c r="I43"/>
-    </row>
-    <row r="44" ht="24.0" customHeight="true">
-      <c r="C44" t="s">
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
         <v>178</v>
       </c>
-      <c r="D44" t="s">
+      <c r="I45"/>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D46" t="s">
         <v>180</v>
       </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="E46" t="s">
         <v>181</v>
       </c>
-      <c r="I44"/>
-    </row>
-    <row r="45" ht="24.0" customHeight="true">
-      <c r="C45" t="s">
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
         <v>182</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
         <v>183</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D47" t="s">
         <v>184</v>
       </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="E47" t="s">
         <v>185</v>
       </c>
-      <c r="I45"/>
-    </row>
-    <row r="46" ht="24.0" customHeight="true">
-      <c r="C46" t="s">
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
         <v>186</v>
       </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
         <v>187</v>
       </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="D48" t="s">
         <v>188</v>
       </c>
-      <c r="H46" t="s">
+      <c r="E48" t="s">
         <v>189</v>
       </c>
-      <c r="I46"/>
-    </row>
-    <row r="47" ht="24.0" customHeight="true">
-      <c r="C47" t="s">
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
         <v>190</v>
       </c>
-      <c r="D47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" t="s">
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" t="s">
         <v>191</v>
       </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>188</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="D49" t="s">
         <v>192</v>
       </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" ht="24.0" customHeight="true">
-      <c r="C48" t="s">
+      <c r="E49" t="s">
         <v>193</v>
       </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
         <v>194</v>
       </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>188</v>
-      </c>
-      <c r="H48" t="s">
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
         <v>195</v>
       </c>
-      <c r="I48"/>
-    </row>
-    <row r="49" ht="24.0" customHeight="true">
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>196</v>
       </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>197</v>
       </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
         <v>198</v>
       </c>
-      <c r="I49"/>
-    </row>
-    <row r="50" ht="24.0" customHeight="true">
-      <c r="C50" t="s">
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
         <v>199</v>
       </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
         <v>200</v>
       </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>188</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
         <v>201</v>
       </c>
-      <c r="I50"/>
-    </row>
-    <row r="51" ht="24.0" customHeight="true">
-      <c r="C51" t="s">
+      <c r="H51" t="s">
         <v>202</v>
       </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
         <v>203</v>
       </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
         <v>204</v>
       </c>
-      <c r="I51"/>
-    </row>
-    <row r="52" ht="24.0" customHeight="true">
-      <c r="C52" t="s">
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" t="s">
         <v>205</v>
       </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
         <v>206</v>
       </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>188</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
         <v>207</v>
       </c>
-      <c r="I52"/>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2895,13 +3071,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="13.25" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="14.25" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" style="2" width="40.375" collapsed="false"/>
-    <col min="10" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="40.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="8:9">
@@ -2987,22 +3163,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -3013,25 +3189,25 @@
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="232">
   <si>
     <t>_id</t>
   </si>
@@ -790,6 +790,27 @@
     <t>21004401,21004402,21004403,21004404,21004405,21004407,21004409,21004410,22004401,22004402,22004403,22004404,22004405,22004407,22004409,22004410,23004401,23004402,23004403,23004404,23004405,23004407,23004409,23004410</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4件套装备</t>
+  </si>
+  <si>
+    <t>101,201,301,401</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>4件套装备2</t>
+  </si>
+  <si>
+    <t>102,202,302,402</t>
+  </si>
+  <si>
     <t>300010</t>
   </si>
   <si>
@@ -856,22 +877,13 @@
     <t>1007,2007,3007</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4件套装备</t>
-  </si>
-  <si>
-    <t>101,201,301,401</t>
-  </si>
-  <si>
-    <t>经验BUFF</t>
-  </si>
-  <si>
-    <t>6001,6002,6003</t>
+    <t>300080</t>
+  </si>
+  <si>
+    <t>80级技能书</t>
+  </si>
+  <si>
+    <t>1008,2008,3008</t>
   </si>
   <si>
     <t>S</t>
@@ -1532,6 +1544,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1852,12 +1865,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="$A46:$XFD57"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2893,160 +2906,14 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>201</v>
-      </c>
-      <c r="H52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>201</v>
-      </c>
-      <c r="H53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" t="s">
-        <v>213</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>201</v>
-      </c>
-      <c r="H55" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>201</v>
-      </c>
-      <c r="H56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>201</v>
-      </c>
-      <c r="H57" t="s">
-        <v>220</v>
-      </c>
-    </row>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
@@ -3066,7 +2933,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3163,13 +3030,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -3178,36 +3045,212 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7">
-        <v>102</v>
+      <c r="C7" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
         <v>222</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,7 @@
 1 普通道具
 2，装备
 3，技能书
+5，材料
 6，buff</t>
         </r>
       </text>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
   <si>
     <t>_id</t>
   </si>
@@ -809,6 +810,18 @@
   </si>
   <si>
     <t>102,202,302,402</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>专属第一批</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4101,4102,4103,4104,4105,4106</t>
   </si>
   <si>
     <t>300010</t>
@@ -1065,12 +1078,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1867,7 +1880,7 @@
   <sheetPr/>
   <dimension ref="A2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
@@ -2930,10 +2943,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3072,14 +3085,14 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>207</v>
@@ -3087,12 +3100,13 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A9" s="1"/>
@@ -3101,7 +3115,7 @@
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>211</v>
@@ -3110,147 +3124,169 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9">
-      <c r="I19" s="2" t="s">
-        <v>231</v>
+      <c r="E16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="258">
   <si>
     <t>_id</t>
   </si>
@@ -791,6 +791,66 @@
     <t>21004401,21004402,21004403,21004404,21004405,21004407,21004409,21004410,22004401,22004402,22004403,22004404,22004405,22004407,22004409,22004410,23004401,23004402,23004403,23004404,23004405,23004407,23004409,23004410</t>
   </si>
   <si>
+    <t>200460</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>460级装备</t>
+  </si>
+  <si>
+    <t>21004501,21004502,21004503,21004504,21004505,21004507,21004509,21004510,22004501,22004502,22004503,22004504,22004505,22004507,22004509,22004510,23004501,23004502,23004503,23004504,23004505,23004507,23004509,23004510</t>
+  </si>
+  <si>
+    <t>200470</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>470级装备</t>
+  </si>
+  <si>
+    <t>21004601,21004602,21004603,21004604,21004605,21004607,21004609,21004610,22004601,22004602,22004603,22004604,22004605,22004607,22004609,22004610,23004601,23004602,23004603,23004604,23004605,23004607,23004609,23004610</t>
+  </si>
+  <si>
+    <t>200480</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>480级装备</t>
+  </si>
+  <si>
+    <t>21004701,21004702,21004703,21004704,21004705,21004707,21004709,21004710,22004701,22004702,22004703,22004704,22004705,22004707,22004709,22004710,23004701,23004702,23004703,23004704,23004705,23004707,23004709,23004710</t>
+  </si>
+  <si>
+    <t>200490</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>490级装备</t>
+  </si>
+  <si>
+    <t>21004801,21004802,21004803,21004804,21004805,21004807,21004809,21004810,22004801,22004802,22004803,22004804,22004805,22004807,22004809,22004810,23004801,23004802,23004803,23004804,23004805,23004807,23004809,23004810</t>
+  </si>
+  <si>
+    <t>200500</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>500级装备</t>
+  </si>
+  <si>
+    <t>21004901,21004902,21004903,21004904,21004905,21004907,21004909,21004910,22004901,22004902,22004903,22004904,22004905,22004907,22004909,22004910,23004901,23004902,23004903,23004904,23004905,23004907,23004909,23004910</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -821,7 +881,13 @@
     <t>5</t>
   </si>
   <si>
-    <t>4101,4102,4103,4104,4105,4106</t>
+    <t>4101,4102,4103</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>4104,4105,4106</t>
   </si>
   <si>
     <t>300010</t>
@@ -1883,7 +1949,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2919,11 +2985,116 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="56" customFormat="1"/>
     <row r="57" customFormat="1"/>
     <row r="58" customFormat="1"/>
@@ -2943,10 +3114,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3043,13 +3214,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -3058,7 +3229,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -3066,13 +3237,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -3081,7 +3252,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -3089,204 +3260,227 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>210</v>
+      <c r="C9" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" t="s">
-        <v>213</v>
-      </c>
+      <c r="G9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20" s="2" t="s">
-        <v>235</v>
+      <c r="H17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="257">
   <si>
     <t>_id</t>
   </si>
@@ -878,16 +878,13 @@
     <t>专属第一批</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4101,4102,4103</t>
+    <t>1,2,3</t>
   </si>
   <si>
     <t>502</t>
   </si>
   <si>
-    <t>4104,4105,4106</t>
+    <t>4,5,6</t>
   </si>
   <si>
     <t>300010</t>
@@ -1144,12 +1141,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3117,7 +3114,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3272,10 +3269,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -3283,7 +3280,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
         <v>220</v>
@@ -3295,10 +3292,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -3306,181 +3303,181 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>233</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>234</v>
-      </c>
-      <c r="H10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" t="s">
         <v>240</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
       <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" t="s">
         <v>243</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="E14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" t="s">
         <v>246</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" t="s">
         <v>249</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
         <v>252</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" t="s">
         <v>255</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="259">
   <si>
     <t>_id</t>
   </si>
@@ -878,13 +878,19 @@
     <t>专属第一批</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1,2</t>
   </si>
   <si>
     <t>502</t>
   </si>
   <si>
-    <t>4,5,6</t>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>5,6</t>
   </si>
   <si>
     <t>300010</t>
@@ -3111,10 +3117,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3299,185 +3305,208 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" t="s">
-        <v>234</v>
-      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>235</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>236</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>238</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" t="s">
         <v>239</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>241</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" t="s">
         <v>242</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>244</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" t="s">
         <v>245</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
         <v>247</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" t="s">
         <v>248</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>250</v>
       </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" t="s">
         <v>251</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
         <v>253</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9">
-      <c r="I21" s="2" t="s">
+      <c r="E18" t="s">
         <v>256</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="279">
   <si>
     <t>_id</t>
   </si>
@@ -849,6 +849,66 @@
   </si>
   <si>
     <t>21004901,21004902,21004903,21004904,21004905,21004907,21004909,21004910,22004901,22004902,22004903,22004904,22004905,22004907,22004909,22004910,23004901,23004902,23004903,23004904,23004905,23004907,23004909,23004910</t>
+  </si>
+  <si>
+    <t>200510</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>510级装备</t>
+  </si>
+  <si>
+    <t>21005001,21005002,21005003,21005004,21005005,21005007,21005009,21005010,22005001,22005002,22005003,22005004,22005005,22005007,22005009,22005010,23005001,23005002,23005003,23005004,23005005,23005007,23005009,23005010</t>
+  </si>
+  <si>
+    <t>200520</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>520级装备</t>
+  </si>
+  <si>
+    <t>21005101,21005102,21005103,21005104,21005105,21005107,21005109,21005110,22005101,22005102,22005103,22005104,22005105,22005107,22005109,22005110,23005101,23005102,23005103,23005104,23005105,23005107,23005109,23005110</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>530级装备</t>
+  </si>
+  <si>
+    <t>21005201,21005202,21005203,21005204,21005205,21005207,21005209,21005210,22005201,22005202,22005203,22005204,22005205,22005207,22005209,22005210,23005201,23005202,23005203,23005204,23005205,23005207,23005209,23005210</t>
+  </si>
+  <si>
+    <t>200540</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>540级装备</t>
+  </si>
+  <si>
+    <t>21005301,21005302,21005303,21005304,21005305,21005307,21005309,21005310,22005301,22005302,22005303,22005304,22005305,22005307,22005309,22005310,23005301,23005302,23005303,23005304,23005305,23005307,23005309,23005310</t>
+  </si>
+  <si>
+    <t>200550</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>550级装备</t>
+  </si>
+  <si>
+    <t>21005401,21005402,21005403,21005404,21005405,21005407,21005409,21005410,22005401,22005402,22005403,22005404,22005405,22005407,22005409,22005410,23005401,23005402,23005403,23005404,23005405,23005407,23005409,23005410</t>
   </si>
   <si>
     <t>101</t>
@@ -1147,12 +1207,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1947,12 +2007,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I58"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3098,9 +3158,116 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
@@ -3119,7 +3286,7 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -3217,13 +3384,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -3232,7 +3399,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -3240,13 +3407,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -3255,7 +3422,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -3263,13 +3430,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -3278,7 +3445,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -3286,13 +3453,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -3301,7 +3468,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -3309,13 +3476,13 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -3324,7 +3491,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -3332,181 +3499,181 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H13" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" s="2" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -51,28 +51,6 @@
       </text>
     </comment>
     <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,34 +143,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="280">
   <si>
     <t>_id</t>
   </si>
@@ -212,9 +168,6 @@
     <t>掉落Id列表</t>
   </si>
   <si>
-    <t>掉落概率列表</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -233,9 +186,6 @@
     <t>ItemIdList</t>
   </si>
   <si>
-    <t>ItemRaTEList</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -1028,7 +978,16 @@
     <t>1008,2008,3008</t>
   </si>
   <si>
-    <t>S</t>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>特殊月饼BOSS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4006</t>
   </si>
 </sst>
 </file>
@@ -1207,12 +1166,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2007,30 +1966,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I60"/>
+  <dimension ref="A2:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2049,1223 +2008,1175 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:8">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:9">
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:8">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:9">
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:8">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:9">
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:8">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:9">
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:8">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:9">
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:8">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:9">
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:8">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:9">
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:8">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:9">
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:8">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:9">
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:8">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:9">
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:8">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:9">
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18"/>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:8">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:9">
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:8">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:9">
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:8">
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:9">
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:8">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="I22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:9">
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:8">
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:9">
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:8">
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
-      <c r="I24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:9">
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
         <v>96</v>
       </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:8">
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:9">
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
         <v>100</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:8">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:9">
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
         <v>104</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:8">
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="I27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:9">
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:8">
+      <c r="C29" t="s">
         <v>109</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:9">
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:8">
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="D30" t="s">
         <v>114</v>
       </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:9">
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:8">
+      <c r="C31" t="s">
         <v>117</v>
       </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="D31" t="s">
         <v>118</v>
       </c>
-      <c r="I30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:9">
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:8">
+      <c r="C32" t="s">
         <v>121</v>
       </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D32" t="s">
         <v>122</v>
       </c>
-      <c r="I31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:9">
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>123</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
         <v>124</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:8">
+      <c r="C33" t="s">
         <v>125</v>
       </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="D33" t="s">
         <v>126</v>
       </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:9">
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
         <v>128</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:8">
+      <c r="C34" t="s">
         <v>129</v>
       </c>
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:9">
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>131</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
         <v>132</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:8">
+      <c r="C35" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="D35" t="s">
         <v>134</v>
       </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:9">
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>135</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
         <v>136</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:8">
+      <c r="C36" t="s">
         <v>137</v>
       </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="D36" t="s">
         <v>138</v>
       </c>
-      <c r="I35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:9">
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>139</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
         <v>140</v>
       </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:8">
+      <c r="C37" t="s">
         <v>141</v>
       </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="D37" t="s">
         <v>142</v>
       </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:9">
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>143</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
         <v>144</v>
       </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:8">
+      <c r="C38" t="s">
         <v>145</v>
       </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="D38" t="s">
         <v>146</v>
       </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:9">
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>147</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
         <v>148</v>
       </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:8">
+      <c r="C39" t="s">
         <v>149</v>
       </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="D39" t="s">
         <v>150</v>
       </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:9">
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>151</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
         <v>152</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:8">
+      <c r="C40" t="s">
         <v>153</v>
       </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="D40" t="s">
         <v>154</v>
       </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:9">
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
         <v>156</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:8">
+      <c r="C41" t="s">
         <v>157</v>
       </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="D41" t="s">
         <v>158</v>
       </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:9">
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>159</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
         <v>160</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:8">
+      <c r="C42" t="s">
         <v>161</v>
       </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="D42" t="s">
         <v>162</v>
       </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:9">
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>163</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
         <v>164</v>
       </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:8">
+      <c r="C43" t="s">
         <v>165</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="D43" t="s">
         <v>166</v>
       </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:9">
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>167</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
         <v>168</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:8">
+      <c r="C44" t="s">
         <v>169</v>
       </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="I43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:9">
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>171</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
         <v>172</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:8">
+      <c r="C45" t="s">
         <v>173</v>
       </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="D45" t="s">
         <v>174</v>
       </c>
-      <c r="I44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:9">
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>175</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
         <v>176</v>
       </c>
-      <c r="E45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45"/>
     </row>
     <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
         <v>180</v>
-      </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
         <v>183</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
         <v>184</v>
-      </c>
-      <c r="E47" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
         <v>187</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
         <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" t="s">
         <v>191</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
         <v>192</v>
-      </c>
-      <c r="E49" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" t="s">
         <v>195</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
         <v>196</v>
-      </c>
-      <c r="E50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
         <v>199</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
         <v>200</v>
-      </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
         <v>203</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
         <v>204</v>
-      </c>
-      <c r="E52" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" t="s">
         <v>207</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
         <v>208</v>
-      </c>
-      <c r="E53" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" t="s">
         <v>211</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
         <v>212</v>
-      </c>
-      <c r="E54" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" t="s">
         <v>215</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
         <v>216</v>
-      </c>
-      <c r="E55" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" t="s">
         <v>219</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
         <v>220</v>
-      </c>
-      <c r="E56" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" t="s">
         <v>223</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
         <v>224</v>
-      </c>
-      <c r="E57" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" t="s">
         <v>227</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
         <v>228</v>
-      </c>
-      <c r="E58" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" t="s">
         <v>231</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
         <v>232</v>
-      </c>
-      <c r="E59" t="s">
-        <v>233</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" t="s">
         <v>235</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
         <v>236</v>
-      </c>
-      <c r="E60" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3284,34 +3195,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:9">
+    <row r="1" s="1" customFormat="1" spans="8:8">
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:9">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:8">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:9">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3330,350 +3239,353 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:8">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:9">
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:8">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:9">
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    </row>
+    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" t="s">
         <v>239</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>240</v>
       </c>
-      <c r="E6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    </row>
+    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    </row>
+    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    </row>
+    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>253</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>254</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" t="s">
         <v>257</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" t="s">
         <v>260</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" t="s">
         <v>263</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H14" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" t="s">
         <v>266</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>255</v>
-      </c>
-      <c r="H15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" t="s">
         <v>269</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" t="s">
         <v>272</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" t="s">
         <v>275</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="22" spans="9:9">
-      <c r="I22" s="2" t="s">
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>278</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="280">
   <si>
     <t>_id</t>
   </si>
@@ -1166,12 +1166,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3198,7 +3198,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3578,8 +3578,8 @@
       <c r="E19" t="s">
         <v>277</v>
       </c>
-      <c r="F19">
-        <v>10</v>
+      <c r="F19" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>278</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="290">
   <si>
     <t>_id</t>
   </si>
@@ -988,6 +988,36 @@
   </si>
   <si>
     <t>4006</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>第一批冠名图鉴</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2000001,2000002,2000003,2000004,2000005</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>第一批白绿图鉴</t>
+  </si>
+  <si>
+    <t>2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111,2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>第一批蓝紫图鉴</t>
+  </si>
+  <si>
+    <t>2000121,2000122,2000123,2000124,2000125,2000126,2000127,2000128,2000129</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1030,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1042,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1166,12 +1202,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1501,152 +1537,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1969,9 +2015,9 @@
   <dimension ref="A2:H60"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1981,71 +2027,71 @@
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3195,397 +3241,464 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="8:8">
-      <c r="H1" s="2"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="3:8">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="7" t="s">
+    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
+    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
+    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
+    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
+    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" t="s">
+    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
+    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="7" t="s">
+    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="12" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20" customHeight="1" spans="8:8">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C23" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="303">
   <si>
     <t>_id</t>
   </si>
@@ -861,6 +861,39 @@
     <t>21005401,21005402,21005403,21005404,21005405,21005407,21005409,21005410,22005401,22005402,22005403,22005404,22005405,22005407,22005409,22005410,23005401,23005402,23005403,23005404,23005405,23005407,23005409,23005410</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>600级装备</t>
+  </si>
+  <si>
+    <t>21005501,21005502,22005501,22005502,23005501,23005502</t>
+  </si>
+  <si>
+    <t>200601</t>
+  </si>
+  <si>
+    <t>21005503,21005504,22005503,22005504,23005503,23005504</t>
+  </si>
+  <si>
+    <t>200602</t>
+  </si>
+  <si>
+    <t>21005505,21005507,22005505,22005507,23005505,23005507</t>
+  </si>
+  <si>
+    <t>200603</t>
+  </si>
+  <si>
+    <t>21005509,21005510,22005509,22005510,23005509,23005510</t>
+  </si>
+  <si>
+    <t>200604</t>
+  </si>
+  <si>
+    <t>21005501,21005502,21005503,21005504,21005505,21005507,21005509,21005510,22005501,22005502,22005503,22005504,22005505,22005507,22005509,22005510,23005501,23005502,23005503,23005504,23005505,23005507,23005509,23005510</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -901,6 +934,12 @@
   </si>
   <si>
     <t>5,6</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
   </si>
   <si>
     <t>300010</t>
@@ -1030,7 +1069,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1095,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1537,140 +1591,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1687,6 +1740,18 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2012,1217 +2077,1289 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H60"/>
+  <dimension ref="C2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="10"/>
+    <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="6" t="s">
+    <row r="2" customHeight="1" spans="3:4">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" customHeight="1" spans="3:8">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="6" t="s">
+    <row r="4" customHeight="1" spans="3:8">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="6" t="s">
+    <row r="5" customHeight="1" spans="3:8">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" t="s">
+    <row r="6" customHeight="1" spans="3:8">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" t="s">
+    <row r="7" customHeight="1" spans="3:8">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" t="s">
+    <row r="8" customHeight="1" spans="3:8">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" t="s">
+    <row r="9" customHeight="1" spans="3:8">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" t="s">
+    <row r="10" customHeight="1" spans="3:8">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="3:8">
-      <c r="C11" t="s">
+    <row r="11" customHeight="1" spans="3:8">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="3:8">
-      <c r="C12" t="s">
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="3:8">
-      <c r="C13" t="s">
+    <row r="13" customHeight="1" spans="3:8">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:8">
-      <c r="C14" t="s">
+    <row r="14" customHeight="1" spans="3:8">
+      <c r="C14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:8">
-      <c r="C15" t="s">
+    <row r="15" customHeight="1" spans="3:8">
+      <c r="C15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:8">
-      <c r="C16" t="s">
+    <row r="16" customHeight="1" spans="3:8">
+      <c r="C16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:8">
-      <c r="C17" t="s">
+    <row r="17" customHeight="1" spans="3:8">
+      <c r="C17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="3:8">
-      <c r="C18" t="s">
+    <row r="18" customHeight="1" spans="3:8">
+      <c r="C18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="C19" t="s">
+    <row r="19" customHeight="1" spans="3:8">
+      <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="3:8">
-      <c r="C20" t="s">
+    <row r="20" customHeight="1" spans="3:8">
+      <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="3:8">
-      <c r="C21" t="s">
+    <row r="21" customHeight="1" spans="3:8">
+      <c r="C21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="3:8">
-      <c r="C22" t="s">
+    <row r="22" customHeight="1" spans="3:8">
+      <c r="C22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="3:8">
-      <c r="C23" t="s">
+    <row r="23" customHeight="1" spans="3:8">
+      <c r="C23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="3:8">
-      <c r="C24" t="s">
+    <row r="24" customHeight="1" spans="3:8">
+      <c r="C24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="3:8">
-      <c r="C25" t="s">
+    <row r="25" customHeight="1" spans="3:8">
+      <c r="C25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:8">
-      <c r="C26" t="s">
+    <row r="26" customHeight="1" spans="3:8">
+      <c r="C26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="3:8">
-      <c r="C27" t="s">
+    <row r="27" customHeight="1" spans="3:8">
+      <c r="C27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:8">
-      <c r="C28" t="s">
+    <row r="28" customHeight="1" spans="3:8">
+      <c r="C28" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:8">
-      <c r="C29" t="s">
+    <row r="29" customHeight="1" spans="3:8">
+      <c r="C29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:8">
-      <c r="C30" t="s">
+    <row r="30" customHeight="1" spans="3:8">
+      <c r="C30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" ht="24" customHeight="1" spans="3:8">
-      <c r="C31" t="s">
+    <row r="31" customHeight="1" spans="3:8">
+      <c r="C31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="F31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:8">
-      <c r="C32" t="s">
+    <row r="32" customHeight="1" spans="3:8">
+      <c r="C32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="3:8">
-      <c r="C33" t="s">
+    <row r="33" customHeight="1" spans="3:8">
+      <c r="C33" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="3:8">
-      <c r="C34" t="s">
+    <row r="34" customHeight="1" spans="3:8">
+      <c r="C34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="3:8">
-      <c r="C35" t="s">
+    <row r="35" customHeight="1" spans="3:8">
+      <c r="C35" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="3:8">
-      <c r="C36" t="s">
+    <row r="36" customHeight="1" spans="3:8">
+      <c r="C36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:8">
-      <c r="C37" t="s">
+    <row r="37" customHeight="1" spans="3:8">
+      <c r="C37" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:8">
-      <c r="C38" t="s">
+    <row r="38" customHeight="1" spans="3:8">
+      <c r="C38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:8">
-      <c r="C39" t="s">
+    <row r="39" customHeight="1" spans="3:8">
+      <c r="C39" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="F39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" ht="24" customHeight="1" spans="3:8">
-      <c r="C40" t="s">
+    <row r="40" customHeight="1" spans="3:8">
+      <c r="C40" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="F40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" ht="24" customHeight="1" spans="3:8">
-      <c r="C41" t="s">
+    <row r="41" customHeight="1" spans="3:8">
+      <c r="C41" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" ht="24" customHeight="1" spans="3:8">
-      <c r="C42" t="s">
+    <row r="42" customHeight="1" spans="3:8">
+      <c r="C42" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:8">
-      <c r="C43" t="s">
+    <row r="43" customHeight="1" spans="3:8">
+      <c r="C43" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:8">
-      <c r="C44" t="s">
+    <row r="44" customHeight="1" spans="3:8">
+      <c r="C44" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:8">
-      <c r="C45" t="s">
+    <row r="45" customHeight="1" spans="3:8">
+      <c r="C45" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" t="s">
+    <row r="46" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C46" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" t="s">
+    <row r="47" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C47" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" t="s">
+    <row r="48" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C48" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" t="s">
+    <row r="49" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C49" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" t="s">
+    <row r="50" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C50" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" t="s">
+    <row r="51" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C51" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" t="s">
+    <row r="52" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C52" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="F52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" t="s">
+    <row r="53" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C53" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="F53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" t="s">
+    <row r="54" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C54" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="F54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
+    <row r="55" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C55" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="F55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" t="s">
+    <row r="56" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="F56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" t="s">
+    <row r="57" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C57" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="F57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" t="s">
+    <row r="58" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C58" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="F58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" t="s">
+    <row r="59" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C59" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="F59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" t="s">
+    <row r="60" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C60" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="F60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C61" s="10">
+        <v>200600</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" s="10" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C62" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C63" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C64" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C65" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3241,464 +3378,452 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="C1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:8">
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:8">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:8">
-      <c r="C3" s="6" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:8">
-      <c r="C4" s="6" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:8">
-      <c r="C5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="H8" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="11" t="s">
+      <c r="H9" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="H10" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="H11" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="E16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="H16" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C19" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="20" customHeight="1" spans="8:8">
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C23" s="11" t="s">
+      <c r="E19" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="14" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="16" t="s">
         <v>289</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C22" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="306">
   <si>
     <t>_id</t>
   </si>
@@ -1015,6 +1015,15 @@
   </si>
   <si>
     <t>1008,2008,3008</t>
+  </si>
+  <si>
+    <t>300090</t>
+  </si>
+  <si>
+    <t>90级技能书</t>
+  </si>
+  <si>
+    <t>1009,2009,3009</t>
   </si>
   <si>
     <t>1001</t>
@@ -3378,10 +3387,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H24"/>
+  <dimension ref="C1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -3747,62 +3756,62 @@
       <c r="C20" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>249</v>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="H20" s="17" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="16" t="s">
+      <c r="D21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>296</v>
-      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H22" s="8"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3820,10 +3829,30 @@
         <v>18</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H24" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="311">
   <si>
     <t>_id</t>
   </si>
@@ -861,34 +861,49 @@
     <t>21005401,21005402,21005403,21005404,21005405,21005407,21005409,21005410,22005401,22005402,22005403,22005404,22005405,22005407,22005409,22005410,23005401,23005402,23005403,23005404,23005405,23005407,23005409,23005410</t>
   </si>
   <si>
+    <t>200600</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>600级装备</t>
+  </si>
+  <si>
+    <t>21005501,21005502,22005501,22005502,23005501,23005502</t>
+  </si>
+  <si>
+    <t>200601</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>21005503,21005504,22005503,22005504,23005503,23005504</t>
+  </si>
+  <si>
+    <t>200602</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>21005505,21005507,22005505,22005507,23005505,23005507</t>
+  </si>
+  <si>
+    <t>200603</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>21005509,21005510,22005509,22005510,23005509,23005510</t>
+  </si>
+  <si>
+    <t>200604</t>
+  </si>
+  <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>600级装备</t>
-  </si>
-  <si>
-    <t>21005501,21005502,22005501,22005502,23005501,23005502</t>
-  </si>
-  <si>
-    <t>200601</t>
-  </si>
-  <si>
-    <t>21005503,21005504,22005503,22005504,23005503,23005504</t>
-  </si>
-  <si>
-    <t>200602</t>
-  </si>
-  <si>
-    <t>21005505,21005507,22005505,22005507,23005505,23005507</t>
-  </si>
-  <si>
-    <t>200603</t>
-  </si>
-  <si>
-    <t>21005509,21005510,22005509,22005510,23005509,23005510</t>
-  </si>
-  <si>
-    <t>200604</t>
   </si>
   <si>
     <t>21005501,21005502,21005503,21005504,21005505,21005507,21005509,21005510,22005501,22005502,22005503,22005504,22005505,22005507,22005509,22005510,23005501,23005502,23005503,23005504,23005505,23005507,23005509,23005510</t>
@@ -1761,6 +1776,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2088,10 +2104,10 @@
   <sheetPr/>
   <dimension ref="C2:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3270,14 +3286,14 @@
       </c>
     </row>
     <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="10">
-        <v>200600</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="C61" s="16" t="s">
         <v>237</v>
       </c>
+      <c r="D61" s="16" t="s">
+        <v>238</v>
+      </c>
       <c r="E61" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>18</v>
@@ -3286,19 +3302,19 @@
         <v>19</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I61" s="15"/>
     </row>
     <row r="62" s="10" customFormat="1" customHeight="1" spans="3:9">
       <c r="C62" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>18</v>
@@ -3307,19 +3323,19 @@
         <v>19</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I62" s="15"/>
     </row>
     <row r="63" s="10" customFormat="1" customHeight="1" spans="3:8">
       <c r="C63" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>18</v>
@@ -3328,18 +3344,18 @@
         <v>19</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" customHeight="1" spans="3:8">
       <c r="C64" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>237</v>
+        <v>247</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>18</v>
@@ -3348,18 +3364,18 @@
         <v>19</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" customHeight="1" spans="3:8">
       <c r="C65" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>18</v>
@@ -3368,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3405,7 @@
   <sheetPr/>
   <dimension ref="C1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3474,13 +3490,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3489,18 +3505,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="16" t="s">
-        <v>252</v>
+      <c r="C7" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -3508,351 +3524,351 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>257</v>
+      <c r="H8" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="16" t="s">
-        <v>258</v>
+      <c r="C9" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>259</v>
+      <c r="H9" s="18" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="16" t="s">
-        <v>260</v>
+      <c r="C10" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>263</v>
+      <c r="H11" s="18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>282</v>
+        <v>271</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>285</v>
+        <v>271</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>288</v>
+        <v>271</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>291</v>
+        <v>271</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="16" t="s">
-        <v>292</v>
+      <c r="C21" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H22" s="8"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="16" t="s">
-        <v>296</v>
+      <c r="C23" s="17" t="s">
+        <v>301</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>299</v>
+        <v>302</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="16" t="s">
-        <v>300</v>
+      <c r="C24" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>305</v>
+      <c r="H25" s="20" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="316">
   <si>
     <t>_id</t>
   </si>
@@ -1053,6 +1053,12 @@
     <t>4006</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -1081,6 +1087,15 @@
   </si>
   <si>
     <t>2000121,2000122,2000123,2000124,2000125,2000126,2000127,2000128,2000129</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000006,2000007,2000008,2000009,2000010</t>
   </si>
 </sst>
 </file>
@@ -1280,12 +1295,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2104,7 +2119,7 @@
   <sheetPr/>
   <dimension ref="C2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
@@ -3403,10 +3418,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H25"/>
+  <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -3808,67 +3823,110 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C22" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>307</v>
-      </c>
+      <c r="F22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C26" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="H25" s="20" t="s">
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C27" s="17" t="s">
         <v>310</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -1295,12 +1295,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3421,7 +3421,7 @@
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -3920,7 +3920,7 @@
         <v>314</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>305</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="319">
   <si>
     <t>_id</t>
   </si>
@@ -1057,6 +1057,15 @@
   </si>
   <si>
     <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>镜像挑战1羽毛</t>
+  </si>
+  <si>
+    <t>4008</t>
   </si>
   <si>
     <t>2001</t>
@@ -3421,7 +3430,7 @@
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -3843,90 +3852,107 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H23" s="8"/>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="17" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>305</v>
-      </c>
       <c r="H26" s="19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="17" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="17" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
     <sheet name="定制配置" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="331">
   <si>
     <t>_id</t>
   </si>
@@ -907,6 +920,42 @@
   </si>
   <si>
     <t>21005501,21005502,21005503,21005504,21005505,21005507,21005509,21005510,22005501,22005502,22005503,22005504,22005505,22005507,22005509,22005510,23005501,23005502,23005503,23005504,23005505,23005507,23005509,23005510</t>
+  </si>
+  <si>
+    <t>200650</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>650级装备</t>
+  </si>
+  <si>
+    <t>21005601,21005602,22005601,22005602,23005601,23005602</t>
+  </si>
+  <si>
+    <t>200651</t>
+  </si>
+  <si>
+    <t>21005603,21005604,22005603,22005604,23005603,23005604</t>
+  </si>
+  <si>
+    <t>200652</t>
+  </si>
+  <si>
+    <t>21005605,21005607,22005605,22005607,23005605,23005607</t>
+  </si>
+  <si>
+    <t>200653</t>
+  </si>
+  <si>
+    <t>21005609,21005610,22005609,22005610,23005609,23005610</t>
+  </si>
+  <si>
+    <t>200654</t>
+  </si>
+  <si>
+    <t>21005601,21005602,21005603,21005604,21005605,21005607,21005609,21005610,22005601,22005602,22005603,22005604,22005605,22005607,22005609,22005610,23005601,23005602,23005603,23005604,23005605,23005607,23005609,23005610</t>
   </si>
   <si>
     <t>101</t>
@@ -1110,7 +1159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1769,7 +1818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1800,6 +1849,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
@@ -2126,12 +2176,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I65"/>
+  <dimension ref="C2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3310,10 +3360,10 @@
       </c>
     </row>
     <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="17" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3334,7 +3384,7 @@
       <c r="C62" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="17" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -3355,7 +3405,7 @@
       <c r="C63" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="17" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -3375,7 +3425,7 @@
       <c r="C64" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="17" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -3410,6 +3460,111 @@
       <c r="H65" s="10" t="s">
         <v>252</v>
       </c>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C66" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C67" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C69" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I70" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3429,7 +3584,7 @@
   <sheetPr/>
   <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -3514,13 +3669,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3529,18 +3684,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
-        <v>257</v>
+      <c r="C7" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -3548,411 +3703,411 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>259</v>
+      <c r="H7" s="19" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
-        <v>260</v>
+      <c r="C8" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>262</v>
+      <c r="H8" s="19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
-        <v>263</v>
+      <c r="C9" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>264</v>
+      <c r="H9" s="19" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
-        <v>265</v>
+      <c r="C10" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>268</v>
+      <c r="H11" s="19" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>272</v>
+        <v>283</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>275</v>
+        <v>283</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>278</v>
+        <v>283</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>284</v>
+      <c r="H16" s="18" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>293</v>
+        <v>283</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>296</v>
+        <v>283</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="17" t="s">
-        <v>297</v>
+      <c r="C21" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>300</v>
+        <v>310</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
-        <v>301</v>
+      <c r="C22" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F22" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>300</v>
+      <c r="G22" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
-        <v>303</v>
+      <c r="C23" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>305</v>
+        <v>316</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
-        <v>306</v>
+      <c r="C25" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>309</v>
+        <v>319</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
-        <v>310</v>
+      <c r="C26" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>312</v>
+        <v>323</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
-        <v>313</v>
+      <c r="C27" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>315</v>
+        <v>326</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="17" t="s">
-        <v>316</v>
+      <c r="C28" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>318</v>
+        <v>329</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="335">
   <si>
     <t>_id</t>
   </si>
@@ -925,34 +925,46 @@
     <t>200650</t>
   </si>
   <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>650级装备</t>
+  </si>
+  <si>
+    <t>21005601,21005602,22005601,22005602,23005601,23005602</t>
+  </si>
+  <si>
+    <t>200651</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>21005603,21005604,22005603,22005604,23005603,23005604</t>
+  </si>
+  <si>
+    <t>200652</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>21005605,21005607,22005605,22005607,23005605,23005607</t>
+  </si>
+  <si>
+    <t>200653</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>21005609,21005610,22005609,22005610,23005609,23005610</t>
+  </si>
+  <si>
+    <t>200654</t>
+  </si>
+  <si>
     <t>650</t>
-  </si>
-  <si>
-    <t>650级装备</t>
-  </si>
-  <si>
-    <t>21005601,21005602,22005601,22005602,23005601,23005602</t>
-  </si>
-  <si>
-    <t>200651</t>
-  </si>
-  <si>
-    <t>21005603,21005604,22005603,22005604,23005603,23005604</t>
-  </si>
-  <si>
-    <t>200652</t>
-  </si>
-  <si>
-    <t>21005605,21005607,22005605,22005607,23005605,23005607</t>
-  </si>
-  <si>
-    <t>200653</t>
-  </si>
-  <si>
-    <t>21005609,21005610,22005609,22005610,23005609,23005610</t>
-  </si>
-  <si>
-    <t>200654</t>
   </si>
   <si>
     <t>21005601,21005602,21005603,21005604,21005605,21005607,21005609,21005610,22005601,22005602,22005603,22005604,22005605,22005607,22005609,22005610,23005601,23005602,23005603,23005604,23005605,23005607,23005609,23005610</t>
@@ -1818,7 +1830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1849,7 +1861,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
@@ -2181,7 +2192,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3360,10 +3371,10 @@
       </c>
     </row>
     <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3384,7 +3395,7 @@
       <c r="C62" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -3405,7 +3416,7 @@
       <c r="C63" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="16" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -3425,7 +3436,7 @@
       <c r="C64" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -3461,11 +3472,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:9">
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="17" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -3480,14 +3491,13 @@
       <c r="H66" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I66" s="16"/>
-    </row>
-    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:9">
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>254</v>
+      <c r="D67" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>255</v>
@@ -3499,16 +3509,15 @@
         <v>19</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:9">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C68" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>255</v>
@@ -3520,16 +3529,15 @@
         <v>19</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" s="2" customFormat="1" customHeight="1" spans="3:9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C69" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>255</v>
@@ -3541,16 +3549,15 @@
         <v>19</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C70" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>255</v>
@@ -3562,9 +3569,8 @@
         <v>19</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I70" s="16"/>
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3669,13 +3675,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3684,430 +3690,430 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="18" t="s">
-        <v>269</v>
+      <c r="C7" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>274</v>
+      <c r="H8" s="18" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="18" t="s">
-        <v>275</v>
+      <c r="C9" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>276</v>
+      <c r="H9" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>278</v>
+      <c r="H10" s="18" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="18" t="s">
-        <v>279</v>
+      <c r="C11" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>280</v>
+      <c r="H11" s="18" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" s="18" t="s">
         <v>287</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>296</v>
+        <v>287</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>302</v>
+        <v>287</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>305</v>
+        <v>287</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>308</v>
+        <v>287</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="18" t="s">
-        <v>309</v>
+      <c r="C21" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="18" t="s">
-        <v>313</v>
+      <c r="C22" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>312</v>
+      <c r="G22" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>317</v>
+      <c r="H23" s="18" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="18" t="s">
-        <v>318</v>
+      <c r="C25" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="18" t="s">
-        <v>322</v>
+      <c r="C26" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>324</v>
       </c>
+      <c r="H26" s="19" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="18" t="s">
-        <v>325</v>
+      <c r="C27" s="17" t="s">
+        <v>329</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>327</v>
+        <v>330</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="18" t="s">
-        <v>328</v>
+      <c r="C28" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="339">
   <si>
     <t>_id</t>
   </si>
@@ -1166,6 +1166,18 @@
   </si>
   <si>
     <t>2000006,2000007,2000008,2000009,2000010</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>第一批时装</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3000001,3000002,3000003,3000004,3000005,3000006,3000007,3000008,3000009,3000010,3000011,3000012,3000013,3000014,3000015,3000016,3000017,3000018,3000019,3000020,3000021,3000022,3000023,3000024</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2201,7 @@
   <sheetPr/>
   <dimension ref="C2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
@@ -3588,10 +3600,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H28"/>
+  <dimension ref="C1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -4116,6 +4128,26 @@
         <v>334</v>
       </c>
     </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C30" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="340">
   <si>
     <t>_id</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>3000001,3000002,3000003,3000004,3000005,3000006,3000007,3000008,3000009,3000010,3000011,3000012,3000013,3000014,3000015,3000016,3000017,3000018,3000019,3000020,3000021,3000022,3000023,3000024</t>
+  </si>
+  <si>
+    <t>3002</t>
   </si>
 </sst>
 </file>
@@ -3600,10 +3603,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H30"/>
+  <dimension ref="C1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -4148,6 +4151,26 @@
         <v>338</v>
       </c>
     </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="352">
   <si>
     <t>_id</t>
   </si>
@@ -968,6 +968,42 @@
   </si>
   <si>
     <t>21005601,21005602,21005603,21005604,21005605,21005607,21005609,21005610,22005601,22005602,22005603,22005604,22005605,22005607,22005609,22005610,23005601,23005602,23005603,23005604,23005605,23005607,23005609,23005610</t>
+  </si>
+  <si>
+    <t>200700</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>700级装备</t>
+  </si>
+  <si>
+    <t>21005701,21005702,22005701,22005702,23005701,23005702</t>
+  </si>
+  <si>
+    <t>200701</t>
+  </si>
+  <si>
+    <t>21005703,21005704,22005703,22005704,23005703,23005704</t>
+  </si>
+  <si>
+    <t>200702</t>
+  </si>
+  <si>
+    <t>21005705,21005707,22005705,22005707,23005705,23005707</t>
+  </si>
+  <si>
+    <t>200703</t>
+  </si>
+  <si>
+    <t>21005709,21005710,22005709,22005710,23005709,23005710</t>
+  </si>
+  <si>
+    <t>200704</t>
+  </si>
+  <si>
+    <t>21005701,21005702,21005703,21005704,21005705,21005707,21005709,21005710,22005701,22005702,22005703,22005704,22005705,22005707,22005709,22005710,23005701,23005702,23005703,23005704,23005705,23005707,23005709,23005710</t>
   </si>
   <si>
     <t>101</t>
@@ -1193,7 +1229,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,6 +1270,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1380,12 +1422,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1715,137 +1757,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1876,6 +1918,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
@@ -2202,12 +2247,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I70"/>
+  <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3386,10 +3431,10 @@
       </c>
     </row>
     <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="19" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3410,7 +3455,7 @@
       <c r="C62" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="19" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -3431,7 +3476,7 @@
       <c r="C63" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="19" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -3451,7 +3496,7 @@
       <c r="C64" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="19" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -3491,7 +3536,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="20" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -3511,7 +3556,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="20" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3531,7 +3576,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="20" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -3551,7 +3596,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="20" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3571,7 +3616,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="20" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -3586,6 +3631,121 @@
       <c r="H70" s="2" t="s">
         <v>268</v>
       </c>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="I75" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3605,7 +3765,7 @@
   <sheetPr/>
   <dimension ref="C1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3690,13 +3850,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3705,18 +3865,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
-        <v>273</v>
+      <c r="C7" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -3724,451 +3884,451 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>275</v>
+      <c r="H7" s="21" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
-        <v>276</v>
+      <c r="C8" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>278</v>
+      <c r="H8" s="21" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
-        <v>279</v>
+      <c r="C9" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>280</v>
+      <c r="H9" s="21" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
-        <v>281</v>
+      <c r="C10" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>284</v>
+      <c r="H11" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>288</v>
+        <v>299</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>291</v>
+        <v>299</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>294</v>
+        <v>299</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>300</v>
+      <c r="H16" s="20" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>309</v>
+        <v>299</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>312</v>
+        <v>299</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="17" t="s">
-        <v>313</v>
+      <c r="C21" s="20" t="s">
+        <v>325</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>316</v>
+        <v>326</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
-        <v>317</v>
+      <c r="C22" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>316</v>
+      <c r="G22" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
-        <v>319</v>
+      <c r="C23" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>321</v>
+        <v>332</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
-        <v>322</v>
+      <c r="C25" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>325</v>
+        <v>335</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
-        <v>326</v>
+      <c r="C26" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>328</v>
+        <v>339</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
-        <v>329</v>
+      <c r="C27" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="17" t="s">
-        <v>332</v>
+      <c r="C28" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>334</v>
+        <v>345</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="17" t="s">
-        <v>335</v>
+      <c r="C30" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="17" t="s">
-        <v>339</v>
+      <c r="C31" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="356">
   <si>
     <t>_id</t>
   </si>
@@ -973,34 +973,46 @@
     <t>200700</t>
   </si>
   <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>700级装备</t>
+  </si>
+  <si>
+    <t>21005701,21005702,22005701,22005702,23005701,23005702</t>
+  </si>
+  <si>
+    <t>200701</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>21005703,21005704,22005703,22005704,23005703,23005704</t>
+  </si>
+  <si>
+    <t>200702</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>21005705,21005707,22005705,22005707,23005705,23005707</t>
+  </si>
+  <si>
+    <t>200703</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>21005709,21005710,22005709,22005710,23005709,23005710</t>
+  </si>
+  <si>
+    <t>200704</t>
+  </si>
+  <si>
     <t>700</t>
-  </si>
-  <si>
-    <t>700级装备</t>
-  </si>
-  <si>
-    <t>21005701,21005702,22005701,22005702,23005701,23005702</t>
-  </si>
-  <si>
-    <t>200701</t>
-  </si>
-  <si>
-    <t>21005703,21005704,22005703,22005704,23005703,23005704</t>
-  </si>
-  <si>
-    <t>200702</t>
-  </si>
-  <si>
-    <t>21005705,21005707,22005705,22005707,23005705,23005707</t>
-  </si>
-  <si>
-    <t>200703</t>
-  </si>
-  <si>
-    <t>21005709,21005710,22005709,22005710,23005709,23005710</t>
-  </si>
-  <si>
-    <t>200704</t>
   </si>
   <si>
     <t>21005701,21005702,21005703,21005704,21005705,21005707,21005709,21005710,22005701,22005702,22005703,22005704,22005705,22005707,22005709,22005710,23005701,23005702,23005703,23005704,23005705,23005707,23005709,23005710</t>
@@ -1422,12 +1434,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1887,7 +1899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1918,7 +1930,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -2252,7 +2263,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3431,10 +3442,10 @@
       </c>
     </row>
     <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3455,7 +3466,7 @@
       <c r="C62" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -3476,7 +3487,7 @@
       <c r="C63" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -3496,7 +3507,7 @@
       <c r="C64" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -3536,7 +3547,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -3556,7 +3567,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="19" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3576,7 +3587,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -3596,7 +3607,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="19" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3616,7 +3627,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="19" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -3635,22 +3646,22 @@
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="17" t="s">
+      <c r="F71" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>272</v>
       </c>
       <c r="I71" s="16"/>
@@ -3658,92 +3669,92 @@
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E72" s="17" t="s">
+      <c r="D72" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>274</v>
+      <c r="F72" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="I72" s="16"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E73" s="17" t="s">
+      <c r="C73" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>276</v>
+      <c r="F73" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="I73" s="16"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E74" s="17" t="s">
+      <c r="C74" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I74" s="18"/>
+      <c r="F74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I74" s="17"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E75" s="17" t="s">
+      <c r="C75" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>280</v>
+      <c r="F75" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="I75" s="16"/>
     </row>
@@ -3850,13 +3861,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3865,470 +3876,470 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="20" t="s">
-        <v>285</v>
+      <c r="C7" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>290</v>
+      <c r="H8" s="20" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="20" t="s">
-        <v>291</v>
+      <c r="C9" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>292</v>
+      <c r="H9" s="20" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>294</v>
+      <c r="H10" s="20" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="20" t="s">
-        <v>295</v>
+      <c r="C11" s="19" t="s">
+        <v>299</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>296</v>
+      <c r="H11" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H13" s="20" t="s">
         <v>303</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>309</v>
+        <v>303</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>315</v>
+        <v>303</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>318</v>
+        <v>303</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>321</v>
+        <v>303</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>324</v>
+        <v>303</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="20" t="s">
-        <v>325</v>
+      <c r="C21" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="20" t="s">
-        <v>329</v>
+      <c r="C22" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>328</v>
+      <c r="G22" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>333</v>
+      <c r="H23" s="20" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="20" t="s">
-        <v>334</v>
+      <c r="C25" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="20" t="s">
-        <v>338</v>
+      <c r="C26" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="H26" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>340</v>
       </c>
+      <c r="H26" s="21" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="20" t="s">
-        <v>341</v>
+      <c r="C27" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>343</v>
+        <v>346</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="20" t="s">
-        <v>344</v>
+      <c r="C28" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="20" t="s">
-        <v>347</v>
+      <c r="C30" s="19" t="s">
+        <v>351</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="20" t="s">
-        <v>351</v>
+      <c r="C31" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="359">
   <si>
     <t>_id</t>
   </si>
@@ -1175,6 +1175,15 @@
   </si>
   <si>
     <t>4008</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>4010</t>
   </si>
   <si>
     <t>2001</t>
@@ -1434,12 +1443,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2260,7 +2269,7 @@
   <sheetPr/>
   <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
@@ -3774,10 +3783,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H31"/>
+  <dimension ref="C1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -4219,46 +4228,46 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="19" t="s">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="F24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>341</v>
-      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H25" s="8"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4276,9 +4285,9 @@
         <v>18</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H27" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4296,50 +4305,70 @@
         <v>18</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H28" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="19" t="s">
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C29" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="F29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="362">
   <si>
     <t>_id</t>
   </si>
@@ -1184,6 +1184,15 @@
   </si>
   <si>
     <t>4010</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>节日活动</t>
+  </si>
+  <si>
+    <t>4106</t>
   </si>
   <si>
     <t>2001</t>
@@ -1443,12 +1452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3783,10 +3792,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H32"/>
+  <dimension ref="C1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -4248,46 +4257,46 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="19" t="s">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="19" t="s">
+      <c r="F25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>344</v>
-      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H26" s="8"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="20" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4305,9 +4314,9 @@
         <v>18</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="H28" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4325,50 +4334,70 @@
         <v>18</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="H29" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="19" t="s">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C30" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="19" t="s">
+      <c r="F30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C33" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="365">
   <si>
     <t>_id</t>
   </si>
@@ -1232,6 +1232,15 @@
   </si>
   <si>
     <t>2000006,2000007,2000008,2000009,2000010</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>1999995,1999996,1999997</t>
   </si>
   <si>
     <t>3001</t>
@@ -3792,10 +3801,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H33"/>
+  <dimension ref="C1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -4360,44 +4369,72 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C32" s="19" t="s">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="F31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>360</v>
-      </c>
+    </row>
+    <row r="32" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>360</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="381">
   <si>
     <t>_id</t>
   </si>
@@ -1009,13 +1009,52 @@
     <t>21005709,21005710,22005709,22005710,23005709,23005710</t>
   </si>
   <si>
-    <t>200704</t>
+    <t>200750</t>
   </si>
   <si>
     <t>700</t>
   </si>
   <si>
-    <t>21005701,21005702,21005703,21005704,21005705,21005707,21005709,21005710,22005701,22005702,22005703,22005704,22005705,22005707,22005709,22005710,23005701,23005702,23005703,23005704,23005705,23005707,23005709,23005710</t>
+    <t>750级装备</t>
+  </si>
+  <si>
+    <t>21005801,21005802,22005801,22005802,23005801,23005802</t>
+  </si>
+  <si>
+    <t>200751</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>21005803,21005804,22005803,22005804,23005803,23005804</t>
+  </si>
+  <si>
+    <t>200752</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>21005805,21005807,22005805,22005807,23005805,23005807</t>
+  </si>
+  <si>
+    <t>200753</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>21005809,21005810,22005809,22005810,23005809,23005810</t>
+  </si>
+  <si>
+    <t>200754</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>21005801,21005802,21005803,21005804,21005805,21005807,21005809,21005810,22005801,22005802,22005803,22005804,22005805,22005807,22005809,22005810,23005801,23005802,23005803,23005804,23005805,23005807,23005809,23005810</t>
   </si>
   <si>
     <t>101</t>
@@ -1150,13 +1189,22 @@
     <t>1009,2009,3009</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>特殊BOSS四格碎片</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4007</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
     <t>特殊月饼BOSS</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>4006</t>
@@ -1268,7 +1316,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1296,19 +1344,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1796,137 +1836,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1945,21 +1985,20 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2285,1288 +2324,1288 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I75"/>
+  <dimension ref="A2:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="10"/>
-    <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="10" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="3:4">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" customHeight="1" spans="3:8">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:8">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:8">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:8">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:8">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:8">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:8">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="10" t="s">
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="F36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="F37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="F38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="F39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="10" t="s">
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:8">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="10" t="s">
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:8">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="10" t="s">
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:8">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="10" t="s">
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:8">
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:8">
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="10" t="s">
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C46" s="10" t="s">
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C46" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="10" t="s">
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C47" s="10" t="s">
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="10" t="s">
+      <c r="F47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C48" s="10" t="s">
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C48" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C49" s="10" t="s">
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C49" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="F49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C50" s="10" t="s">
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="F50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C51" s="10" t="s">
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="F51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C52" s="10" t="s">
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="10" t="s">
+      <c r="F52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C53" s="10" t="s">
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="10" t="s">
+      <c r="F53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C54" s="10" t="s">
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C54" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="10" t="s">
+      <c r="F54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C55" s="10" t="s">
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C55" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="10" t="s">
+      <c r="F55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C56" s="10" t="s">
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="10" t="s">
+      <c r="F56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="57" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C57" s="10" t="s">
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C57" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="10" t="s">
+      <c r="F57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="58" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C58" s="10" t="s">
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C58" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="F58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C59" s="10" t="s">
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="10" t="s">
+      <c r="F59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C60" s="10" t="s">
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C60" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="10" t="s">
+      <c r="F60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="18" t="s">
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C61" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="10" t="s">
+      <c r="F61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" s="10" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C62" s="10" t="s">
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="10" t="s">
+      <c r="F62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C63" s="10" t="s">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="10" t="s">
+      <c r="F63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="64" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C64" s="10" t="s">
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="10" t="s">
+      <c r="F64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C65" s="10" t="s">
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C65" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="10" t="s">
+      <c r="F65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3574,7 +3613,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="16" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -3594,7 +3633,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="16" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3614,7 +3653,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="16" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -3634,7 +3673,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="16" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3654,7 +3693,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="16" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -3671,119 +3710,212 @@
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="16" t="s">
+      <c r="F71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I71" s="16"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="16" t="s">
+      <c r="F72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="I72" s="16"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="16" t="s">
+      <c r="F73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="16" t="s">
+      <c r="F74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="I74" s="17"/>
-    </row>
-    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16" t="s">
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C75" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="16" t="s">
+      <c r="E75" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="F75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C76" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C77" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C78" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C79" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3801,10 +3933,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H34"/>
+  <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -3888,13 +4020,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3903,18 +4035,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="19" t="s">
-        <v>289</v>
+      <c r="C7" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -3922,519 +4054,542 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>291</v>
+      <c r="H7" s="19" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="19" t="s">
-        <v>292</v>
+      <c r="C8" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>294</v>
+      <c r="H8" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="19" t="s">
-        <v>295</v>
+      <c r="C9" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>296</v>
+      <c r="H9" s="19" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="19" t="s">
-        <v>297</v>
+      <c r="C10" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>298</v>
+      <c r="H10" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>300</v>
+      <c r="H11" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>307</v>
+        <v>316</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="19" t="s">
         <v>316</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>325</v>
+        <v>316</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>328</v>
+        <v>316</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="19" t="s">
-        <v>329</v>
+      <c r="C21" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>332</v>
+        <v>343</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="19" t="s">
-        <v>333</v>
+      <c r="C22" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F22" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>337</v>
+      <c r="G23" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="19" t="s">
-        <v>338</v>
+      <c r="C24" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>340</v>
+        <v>352</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="19" t="s">
-        <v>341</v>
+      <c r="C25" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>350</v>
-      </c>
+      <c r="H25" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C26" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H28" s="8"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="19" t="s">
-        <v>351</v>
+      <c r="C29" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>353</v>
+        <v>361</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="19" t="s">
-        <v>354</v>
+      <c r="C30" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>346</v>
+        <v>365</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="19" t="s">
-        <v>357</v>
+      <c r="C31" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="19" t="s">
-        <v>360</v>
+      <c r="C33" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>363</v>
+      <c r="H33" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C35" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C36" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
-    <sheet name="定制配置" sheetId="2" r:id="rId2"/>
+    <sheet name="红装" sheetId="3" r:id="rId2"/>
+    <sheet name="定制配置" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,6 +113,68 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+1 普通道具
+2，装备
+3，技能书
+6，buff
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
@@ -161,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="396">
   <si>
     <t>_id</t>
   </si>
@@ -1055,6 +1118,51 @@
   </si>
   <si>
     <t>21005801,21005802,21005803,21005804,21005805,21005807,21005809,21005810,22005801,22005802,22005803,22005804,22005805,22005807,22005809,22005810,23005801,23005802,23005803,23005804,23005805,23005807,23005809,23005810</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>1介红装1</t>
+  </si>
+  <si>
+    <t>21105801,21105802,22105801,22105802,23105801,23105802</t>
+  </si>
+  <si>
+    <t>210001</t>
+  </si>
+  <si>
+    <t>1介红装2</t>
+  </si>
+  <si>
+    <t>21105803,21105804,22105803,22105804,23105803,23105804</t>
+  </si>
+  <si>
+    <t>210002</t>
+  </si>
+  <si>
+    <t>1介红装3</t>
+  </si>
+  <si>
+    <t>21105805,21105807,22105805,22105807,23105805,23105807</t>
+  </si>
+  <si>
+    <t>210003</t>
+  </si>
+  <si>
+    <t>1介红装4</t>
+  </si>
+  <si>
+    <t>21105809,21105810,22105809,22105810,23105809,23105810</t>
+  </si>
+  <si>
+    <t>210004</t>
+  </si>
+  <si>
+    <t>1介红装5</t>
+  </si>
+  <si>
+    <t>21105801,21105802,21105803,21105804,21105805,21105807,21105809,21105810,22105801,22105802,22105803,22105804,22105805,22105807,22105809,22105810,23105801,23105802,23105803,23105804,23105805,23105807,23105809,23105810</t>
   </si>
   <si>
     <t>101</t>
@@ -1966,7 +2074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1995,11 +2103,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
@@ -2326,10 +2432,10 @@
   <sheetPr/>
   <dimension ref="A2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3508,10 +3614,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="15" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -3532,7 +3638,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3553,7 +3659,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -3573,7 +3679,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -3613,7 +3719,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -3633,7 +3739,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="15" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3653,7 +3759,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="15" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -3673,7 +3779,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="15" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3693,7 +3799,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="15" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -3715,7 +3821,7 @@
       <c r="C71" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="15" t="s">
         <v>270</v>
       </c>
       <c r="E71" s="13" t="s">
@@ -3738,7 +3844,7 @@
       <c r="C72" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="15" t="s">
         <v>274</v>
       </c>
       <c r="E72" s="13" t="s">
@@ -3761,7 +3867,7 @@
       <c r="C73" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>277</v>
       </c>
       <c r="E73" s="13" t="s">
@@ -3784,7 +3890,7 @@
       <c r="C74" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="15" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="13" t="s">
@@ -3799,13 +3905,13 @@
       <c r="H74" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="I74" s="15"/>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C75" s="17" t="s">
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C75" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="15" t="s">
         <v>283</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -3820,13 +3926,12 @@
       <c r="H75" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C76" s="17" t="s">
+    </row>
+    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C76" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="15" t="s">
         <v>287</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -3841,13 +3946,12 @@
       <c r="H76" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I76" s="14"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C77" s="17" t="s">
+    </row>
+    <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C77" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="15" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -3862,13 +3966,12 @@
       <c r="H77" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I77" s="14"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C78" s="17" t="s">
+    </row>
+    <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C78" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="15" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -3883,13 +3986,12 @@
       <c r="H78" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I78" s="14"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C79" s="17" t="s">
+    </row>
+    <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C79" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="15" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -3904,13 +4006,11 @@
       <c r="H79" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I79" s="14"/>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="2"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -3931,6 +4031,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C6" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C7" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C8" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C9" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C10" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:H36"/>
@@ -4020,13 +4333,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -4035,18 +4348,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="16" t="s">
-        <v>302</v>
+      <c r="C7" s="15" t="s">
+        <v>317</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -4054,388 +4367,388 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>304</v>
+      <c r="H7" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="16" t="s">
-        <v>305</v>
+      <c r="C8" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>307</v>
+      <c r="H8" s="17" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="16" t="s">
-        <v>308</v>
+      <c r="C9" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>309</v>
+      <c r="H9" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="16" t="s">
-        <v>310</v>
+      <c r="C10" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>311</v>
+      <c r="H10" s="17" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="16" t="s">
-        <v>312</v>
+      <c r="C11" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>313</v>
+      <c r="H11" s="17" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>317</v>
+        <v>331</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>320</v>
+        <v>331</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>323</v>
+        <v>331</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>332</v>
+      <c r="H17" s="15" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>338</v>
+        <v>331</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="16" t="s">
-        <v>342</v>
+      <c r="C21" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>345</v>
+        <v>358</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="16" t="s">
-        <v>346</v>
+      <c r="C22" s="15" t="s">
+        <v>361</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>348</v>
+        <v>362</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="16" t="s">
-        <v>349</v>
+      <c r="C23" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F23" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>348</v>
+      <c r="G23" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="16" t="s">
-        <v>351</v>
+      <c r="C24" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>353</v>
+        <v>367</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
-        <v>354</v>
+      <c r="C25" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>356</v>
+        <v>370</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="16" t="s">
-        <v>357</v>
+      <c r="C26" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="H26" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>359</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -4445,103 +4758,103 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="16" t="s">
-        <v>360</v>
+      <c r="C29" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>363</v>
+        <v>376</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="16" t="s">
-        <v>364</v>
+      <c r="C30" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>366</v>
+        <v>380</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="16" t="s">
-        <v>367</v>
+      <c r="C31" s="15" t="s">
+        <v>382</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>369</v>
+        <v>383</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C32" s="16" t="s">
-        <v>370</v>
+      <c r="C32" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>372</v>
+        <v>386</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="16" t="s">
-        <v>373</v>
+      <c r="C33" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>375</v>
+        <v>389</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -4553,43 +4866,43 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C35" s="16" t="s">
-        <v>376</v>
+      <c r="C35" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="16" t="s">
-        <v>380</v>
+      <c r="C36" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
     <sheet name="红装" sheetId="3" r:id="rId2"/>
-    <sheet name="定制配置" sheetId="2" r:id="rId3"/>
+    <sheet name="专属" sheetId="4" r:id="rId3"/>
+    <sheet name="定制配置" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,6 +176,68 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+1 普通道具
+2，装备
+3，技能书
+6，buff
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
@@ -224,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="434">
   <si>
     <t>_id</t>
   </si>
@@ -1163,6 +1226,120 @@
   </si>
   <si>
     <t>21105801,21105802,21105803,21105804,21105805,21105807,21105809,21105810,22105801,22105802,22105803,22105804,22105805,22105807,22105809,22105810,23105801,23105802,23105803,23105804,23105805,23105807,23105809,23105810</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>沃玛宝剑</t>
+  </si>
+  <si>
+    <t>1400001</t>
+  </si>
+  <si>
+    <t>沃玛号角</t>
+  </si>
+  <si>
+    <t>1400002</t>
+  </si>
+  <si>
+    <t>祖玛号角</t>
+  </si>
+  <si>
+    <t>1400003</t>
+  </si>
+  <si>
+    <t>猪王之心</t>
+  </si>
+  <si>
+    <t>1400004</t>
+  </si>
+  <si>
+    <t>树妖之皮</t>
+  </si>
+  <si>
+    <t>1400005</t>
+  </si>
+  <si>
+    <t>虹魔宝典</t>
+  </si>
+  <si>
+    <t>1400006</t>
+  </si>
+  <si>
+    <t>尸王獠牙</t>
+  </si>
+  <si>
+    <t>1400007</t>
+  </si>
+  <si>
+    <t>黄泉法杖</t>
+  </si>
+  <si>
+    <t>1400008</t>
+  </si>
+  <si>
+    <t>牛魔权杖</t>
+  </si>
+  <si>
+    <t>1400009</t>
+  </si>
+  <si>
+    <t>金刚战锤</t>
+  </si>
+  <si>
+    <t>1400010</t>
+  </si>
+  <si>
+    <t>巨人拳套</t>
+  </si>
+  <si>
+    <t>1400011</t>
+  </si>
+  <si>
+    <t>幸运之心</t>
+  </si>
+  <si>
+    <t>1400012</t>
+  </si>
+  <si>
+    <t>魔龙宝甲</t>
+  </si>
+  <si>
+    <t>1400013</t>
+  </si>
+  <si>
+    <t>龙神之爪</t>
+  </si>
+  <si>
+    <t>1400014</t>
+  </si>
+  <si>
+    <t>梦魇鸡爪</t>
+  </si>
+  <si>
+    <t>1400015</t>
+  </si>
+  <si>
+    <t>梦魇鹿茸</t>
+  </si>
+  <si>
+    <t>1400016</t>
+  </si>
+  <si>
+    <t>梦魇草帽</t>
+  </si>
+  <si>
+    <t>1400017</t>
+  </si>
+  <si>
+    <t>梦魇猫爪</t>
+  </si>
+  <si>
+    <t>1400018</t>
+  </si>
+  <si>
+    <t>梦魇花朵</t>
   </si>
   <si>
     <t>101</t>
@@ -4035,8 +4212,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4056,9 +4233,6 @@
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
@@ -4246,10 +4420,493 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>40000056</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>40000057</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>40000058</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <v>40000059</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>40000060</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <v>40000061</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2">
+        <v>40000062</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:8">
+      <c r="C13" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2">
+        <v>40000063</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:8">
+      <c r="C14" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40000064</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:8">
+      <c r="C15" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
+        <v>40000065</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:8">
+      <c r="C16" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2">
+        <v>40000066</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:8">
+      <c r="C17" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>40000067</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:8">
+      <c r="C18" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2">
+        <v>40000068</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:8">
+      <c r="C19" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2">
+        <v>40000069</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:8">
+      <c r="C20" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2">
+        <v>40000070</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:8">
+      <c r="C21" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <v>40000071</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:8">
+      <c r="C22" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2">
+        <v>40000072</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:8">
+      <c r="C23" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2">
+        <v>40000073</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:8">
+      <c r="C24" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2">
+        <v>40000074</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -4333,13 +4990,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -4348,18 +5005,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="15" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -4368,18 +5025,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="15" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -4388,18 +5045,18 @@
         <v>16</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="15" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -4408,18 +5065,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="15" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -4428,18 +5085,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="15" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -4448,307 +5105,307 @@
         <v>16</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="15" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="15" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="15" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="15" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="15" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="15" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="15" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -4759,102 +5416,102 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="15" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="15" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="15" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="15" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="15" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -4867,42 +5524,42 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="15" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="15" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="444">
   <si>
     <t>_id</t>
   </si>
@@ -1231,112 +1231,142 @@
     <t>1400000</t>
   </si>
   <si>
+    <t>钳虫心脏</t>
+  </si>
+  <si>
+    <t>1400001</t>
+  </si>
+  <si>
+    <t>蜈蚣心脏</t>
+  </si>
+  <si>
+    <t>1400002</t>
+  </si>
+  <si>
+    <t>白猪心脏</t>
+  </si>
+  <si>
+    <t>1400003</t>
+  </si>
+  <si>
+    <t>猪王之甲</t>
+  </si>
+  <si>
+    <t>1400004</t>
+  </si>
+  <si>
+    <t>蝎王之甲</t>
+  </si>
+  <si>
+    <t>1400005</t>
+  </si>
+  <si>
     <t>沃玛宝剑</t>
   </si>
   <si>
-    <t>1400001</t>
+    <t>1400006</t>
   </si>
   <si>
     <t>沃玛号角</t>
   </si>
   <si>
-    <t>1400002</t>
+    <t>1400007</t>
   </si>
   <si>
     <t>祖玛号角</t>
   </si>
   <si>
-    <t>1400003</t>
-  </si>
-  <si>
-    <t>猪王之心</t>
-  </si>
-  <si>
-    <t>1400004</t>
-  </si>
-  <si>
-    <t>树妖之皮</t>
-  </si>
-  <si>
-    <t>1400005</t>
-  </si>
-  <si>
-    <t>虹魔宝典</t>
-  </si>
-  <si>
-    <t>1400006</t>
-  </si>
-  <si>
-    <t>尸王獠牙</t>
-  </si>
-  <si>
-    <t>1400007</t>
+    <t>1400008</t>
+  </si>
+  <si>
+    <t>虹猪之甲</t>
+  </si>
+  <si>
+    <t>1400009</t>
+  </si>
+  <si>
+    <t>树妖之心</t>
+  </si>
+  <si>
+    <t>1400010</t>
+  </si>
+  <si>
+    <t>虹魔之心</t>
+  </si>
+  <si>
+    <t>1400011</t>
+  </si>
+  <si>
+    <t>尸王之心</t>
+  </si>
+  <si>
+    <t>1400012</t>
   </si>
   <si>
     <t>黄泉法杖</t>
   </si>
   <si>
-    <t>1400008</t>
+    <t>1400013</t>
   </si>
   <si>
     <t>牛魔权杖</t>
   </si>
   <si>
-    <t>1400009</t>
+    <t>1400014</t>
   </si>
   <si>
     <t>金刚战锤</t>
   </si>
   <si>
-    <t>1400010</t>
-  </si>
-  <si>
-    <t>巨人拳套</t>
-  </si>
-  <si>
-    <t>1400011</t>
-  </si>
-  <si>
-    <t>幸运之心</t>
-  </si>
-  <si>
-    <t>1400012</t>
+    <t>1400015</t>
+  </si>
+  <si>
+    <t>巨人之心</t>
+  </si>
+  <si>
+    <t>1400016</t>
+  </si>
+  <si>
+    <t>恶魔之心</t>
+  </si>
+  <si>
+    <t>1400017</t>
   </si>
   <si>
     <t>魔龙宝甲</t>
   </si>
   <si>
-    <t>1400013</t>
+    <t>1400018</t>
   </si>
   <si>
     <t>龙神之爪</t>
   </si>
   <si>
-    <t>1400014</t>
+    <t>1400019</t>
   </si>
   <si>
     <t>梦魇鸡爪</t>
   </si>
   <si>
-    <t>1400015</t>
+    <t>1400020</t>
   </si>
   <si>
     <t>梦魇鹿茸</t>
   </si>
   <si>
-    <t>1400016</t>
+    <t>1400021</t>
   </si>
   <si>
     <t>梦魇草帽</t>
   </si>
   <si>
-    <t>1400017</t>
+    <t>1400022</t>
   </si>
   <si>
     <t>梦魇猫爪</t>
   </si>
   <si>
-    <t>1400018</t>
+    <t>1400023</t>
   </si>
   <si>
     <t>梦魇花朵</t>
@@ -4420,10 +4450,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E7" sqref="E7:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4522,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="2">
-        <v>40000056</v>
+        <v>40000051</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
@@ -4542,7 +4572,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2">
-        <v>40000057</v>
+        <v>40000052</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
@@ -4562,7 +4592,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>40000058</v>
+        <v>40000053</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
@@ -4582,7 +4612,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="2">
-        <v>40000059</v>
+        <v>40000054</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
@@ -4602,7 +4632,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="2">
-        <v>40000060</v>
+        <v>40000055</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
@@ -4624,7 +4654,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="2">
-        <v>40000061</v>
+        <v>40000056</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -4645,7 +4675,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="2">
-        <v>40000062</v>
+        <v>40000057</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
@@ -4665,7 +4695,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="2">
-        <v>40000063</v>
+        <v>40000058</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
@@ -4685,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="2">
-        <v>40000064</v>
+        <v>40000059</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
@@ -4705,7 +4735,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="2">
-        <v>40000065</v>
+        <v>40000060</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
@@ -4725,7 +4755,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="2">
-        <v>40000066</v>
+        <v>40000061</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
@@ -4745,7 +4775,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="2">
-        <v>40000067</v>
+        <v>40000062</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
@@ -4765,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="2">
-        <v>40000068</v>
+        <v>40000063</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
@@ -4785,7 +4815,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="2">
-        <v>40000069</v>
+        <v>40000064</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
@@ -4805,7 +4835,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="2">
-        <v>40000070</v>
+        <v>40000065</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
@@ -4825,7 +4855,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="2">
-        <v>40000071</v>
+        <v>40000066</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
@@ -4845,7 +4875,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="2">
-        <v>40000072</v>
+        <v>40000067</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
@@ -4865,7 +4895,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="2">
-        <v>40000073</v>
+        <v>40000068</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
@@ -4885,6 +4915,106 @@
         <v>14</v>
       </c>
       <c r="H24" s="2">
+        <v>40000069</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:8">
+      <c r="C25" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2">
+        <v>40000070</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:8">
+      <c r="C26" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2">
+        <v>40000071</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:8">
+      <c r="C27" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2">
+        <v>40000072</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:8">
+      <c r="C28" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2">
+        <v>40000073</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:8">
+      <c r="C29" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2">
         <v>40000074</v>
       </c>
     </row>
@@ -4990,13 +5120,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5005,18 +5135,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="15" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5025,18 +5155,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="15" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -5045,18 +5175,18 @@
         <v>16</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="15" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -5065,18 +5195,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="15" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -5085,18 +5215,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="15" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -5105,307 +5235,307 @@
         <v>16</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="15" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="15" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="15" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="15" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="15" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>397</v>
-      </c>
       <c r="H25" s="17" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="15" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -5416,102 +5546,102 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="15" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="15" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="15" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="15" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="15" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -5524,42 +5654,42 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="15" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="15" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1231,43 +1231,43 @@
     <t>1400000</t>
   </si>
   <si>
-    <t>钳虫心脏</t>
+    <t>触龙之心</t>
   </si>
   <si>
     <t>1400001</t>
   </si>
   <si>
-    <t>蜈蚣心脏</t>
+    <t>白猪之心</t>
   </si>
   <si>
     <t>1400002</t>
   </si>
   <si>
-    <t>白猪心脏</t>
+    <t>猪王之心</t>
   </si>
   <si>
     <t>1400003</t>
   </si>
   <si>
-    <t>猪王之甲</t>
+    <t>蝎王之甲</t>
   </si>
   <si>
     <t>1400004</t>
   </si>
   <si>
-    <t>蝎王之甲</t>
+    <t>沃玛宝剑</t>
   </si>
   <si>
     <t>1400005</t>
   </si>
   <si>
-    <t>沃玛宝剑</t>
+    <t>沃玛号角</t>
   </si>
   <si>
     <t>1400006</t>
   </si>
   <si>
-    <t>沃玛号角</t>
+    <t>祖玛头像</t>
   </si>
   <si>
     <t>1400007</t>
@@ -4453,7 +4453,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E18"/>
+      <selection activeCell="E6" sqref="E6:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="447">
   <si>
     <t>_id</t>
   </si>
@@ -1135,10 +1135,19 @@
     <t>21005709,21005710,22005709,22005710,23005709,23005710</t>
   </si>
   <si>
+    <t>200704</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>21005701,21005702,22005701,22005702,23005701,23005702,21005703,21005704,22005703,22005704,23005703,23005704,21005705,21005707,22005705,22005707,23005705,23005707,21005709,21005710,22005709,22005710,23005709,23005710</t>
+  </si>
+  <si>
     <t>200750</t>
   </si>
   <si>
-    <t>700</t>
+    <t>710</t>
   </si>
   <si>
     <t>750级装备</t>
@@ -1150,7 +1159,7 @@
     <t>200751</t>
   </si>
   <si>
-    <t>710</t>
+    <t>720</t>
   </si>
   <si>
     <t>21005803,21005804,22005803,22005804,23005803,23005804</t>
@@ -1159,7 +1168,7 @@
     <t>200752</t>
   </si>
   <si>
-    <t>720</t>
+    <t>730</t>
   </si>
   <si>
     <t>21005805,21005807,22005805,22005807,23005805,23005807</t>
@@ -1168,7 +1177,7 @@
     <t>200753</t>
   </si>
   <si>
-    <t>730</t>
+    <t>740</t>
   </si>
   <si>
     <t>21005809,21005810,22005809,22005810,23005809,23005810</t>
@@ -1177,7 +1186,7 @@
     <t>200754</t>
   </si>
   <si>
-    <t>740</t>
+    <t>750</t>
   </si>
   <si>
     <t>21005801,21005802,21005803,21005804,21005805,21005807,21005809,21005810,22005801,22005802,22005803,22005804,22005805,22005807,22005809,22005810,23005801,23005802,23005803,23005804,23005805,23005807,23005809,23005810</t>
@@ -2637,12 +2646,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I80"/>
+  <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4040,7 +4049,7 @@
       <c r="G71" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="16" t="s">
         <v>272</v>
       </c>
       <c r="I71" s="13"/>
@@ -4063,7 +4072,7 @@
       <c r="G72" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="16" t="s">
         <v>275</v>
       </c>
       <c r="I72" s="13"/>
@@ -4086,7 +4095,7 @@
       <c r="G73" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="16" t="s">
         <v>278</v>
       </c>
       <c r="I73" s="13"/>
@@ -4109,40 +4118,43 @@
       <c r="G74" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="16" t="s">
         <v>281</v>
       </c>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C75" s="16" t="s">
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13" t="s">
         <v>282</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="I75" s="14"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C76" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="E76" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
@@ -4162,7 +4174,7 @@
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
@@ -4182,7 +4194,7 @@
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
@@ -4202,7 +4214,7 @@
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
@@ -4214,15 +4226,35 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+    <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C80" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4327,13 +4359,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C6" s="16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -4342,18 +4374,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -4362,18 +4394,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -4382,18 +4414,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -4402,18 +4434,18 @@
         <v>19</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -4422,7 +4454,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
@@ -4452,7 +4484,7 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E29"/>
     </sheetView>
   </sheetViews>
@@ -4537,13 +4569,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -4557,13 +4589,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -4577,13 +4609,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -4597,13 +4629,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -4617,13 +4649,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -4639,13 +4671,13 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -4660,13 +4692,13 @@
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -4680,13 +4712,13 @@
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -4700,13 +4732,13 @@
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" s="16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -4720,13 +4752,13 @@
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" s="16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -4740,13 +4772,13 @@
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -4760,13 +4792,13 @@
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" s="16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -4780,13 +4812,13 @@
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -4800,13 +4832,13 @@
     </row>
     <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -4820,13 +4852,13 @@
     </row>
     <row r="20" customHeight="1" spans="3:8">
       <c r="C20" s="16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -4840,13 +4872,13 @@
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" s="16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -4860,13 +4892,13 @@
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -4880,13 +4912,13 @@
     </row>
     <row r="23" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -4900,13 +4932,13 @@
     </row>
     <row r="24" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -4920,13 +4952,13 @@
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -4940,13 +4972,13 @@
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -4960,13 +4992,13 @@
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -4980,13 +5012,13 @@
     </row>
     <row r="28" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -5000,13 +5032,13 @@
     </row>
     <row r="29" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -5120,13 +5152,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5135,18 +5167,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5155,18 +5187,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -5175,18 +5207,18 @@
         <v>16</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="15" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -5195,18 +5227,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="15" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -5215,18 +5247,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="15" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -5235,307 +5267,307 @@
         <v>16</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="H13" s="15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="15" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="15" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>407</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="15" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="15" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="15" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -5546,102 +5578,102 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>425</v>
-      </c>
       <c r="H30" s="18" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="15" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -5654,42 +5686,42 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="F36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1258,13 +1258,13 @@
     <t>1400003</t>
   </si>
   <si>
-    <t>蝎王之甲</t>
+    <t>蝎王宝甲</t>
   </si>
   <si>
     <t>1400004</t>
   </si>
   <si>
-    <t>沃玛宝剑</t>
+    <t>沃玛宝甲</t>
   </si>
   <si>
     <t>1400005</t>
@@ -1288,7 +1288,7 @@
     <t>1400008</t>
   </si>
   <si>
-    <t>虹猪之甲</t>
+    <t>虹猪宝甲</t>
   </si>
   <si>
     <t>1400009</t>
@@ -1348,7 +1348,7 @@
     <t>1400018</t>
   </si>
   <si>
-    <t>龙神之爪</t>
+    <t>龙神利爪</t>
   </si>
   <si>
     <t>1400019</t>
@@ -1825,12 +1825,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2648,10 +2648,10 @@
   <sheetPr/>
   <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4484,7 +4484,7 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E29"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="461">
   <si>
     <t>_id</t>
   </si>
@@ -1615,6 +1615,42 @@
     <t>1999995,1999996,1999997</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>第二批白图鉴</t>
+  </si>
+  <si>
+    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>第二批绿图鉴</t>
+  </si>
+  <si>
+    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>第二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2000221,2000222,2000223,2000224,2000225,2000226</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>第二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2000227,2000228,2000229</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
@@ -1628,6 +1664,12 @@
   </si>
   <si>
     <t>3002</t>
+  </si>
+  <si>
+    <t>第二批时装</t>
+  </si>
+  <si>
+    <t>3000025,3000026,3000027,3000028,3000029,3000030,3000031,3000032,3000033,3000034,3000035,3000036,3000037,3000038,3000039,3000040,3000041,3000042,3000043,3000044,3000045,3000046,3000047,3000048</t>
   </si>
 </sst>
 </file>
@@ -1825,12 +1867,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4484,7 +4526,7 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E29"/>
     </sheetView>
   </sheetViews>
@@ -5065,10 +5107,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H36"/>
+  <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -5078,7 +5120,7 @@
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="142.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5676,52 +5718,132 @@
         <v>441</v>
       </c>
     </row>
-    <row r="34" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>445</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C37" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C39" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1516,13 +1516,13 @@
     <t>1000</t>
   </si>
   <si>
-    <t>特殊BOSS四格碎片</t>
+    <t>特殊图鉴碎片</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4007</t>
+    <t>4101</t>
   </si>
   <si>
     <t>1001</t>
@@ -5109,8 +5109,8 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="467">
   <si>
     <t>_id</t>
   </si>
@@ -1567,88 +1567,106 @@
     <t>4106</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1999995,1999996,1999997</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000006,2000007,2000008,2000009,2000010</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
     <t>第一批冠名图鉴</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>2000001,2000002,2000003,2000004,2000005</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>第一批白绿图鉴</t>
-  </si>
-  <si>
-    <t>2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111,2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>第一批蓝紫图鉴</t>
-  </si>
-  <si>
-    <t>2000121,2000122,2000123,2000124,2000125,2000126,2000127,2000128,2000129</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>守沙图鉴</t>
-  </si>
-  <si>
-    <t>2000006,2000007,2000008,2000009,2000010</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>龙之图鉴</t>
-  </si>
-  <si>
-    <t>1999995,1999996,1999997</t>
-  </si>
-  <si>
-    <t>2006</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>第一批白图鉴</t>
+  </si>
+  <si>
+    <t>2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>第一批绿图鉴</t>
+  </si>
+  <si>
+    <t>2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>第一批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2000121,2000122,2000123,2000124,2000125,2000126</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>第一批紫图鉴</t>
+  </si>
+  <si>
+    <t>2000127,2000128,2000129</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t>第二批白图鉴</t>
   </si>
   <si>
-    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211</t>
-  </si>
-  <si>
-    <t>2007</t>
+    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211,2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
   <si>
     <t>第二批绿图鉴</t>
   </si>
   <si>
-    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220</t>
-  </si>
-  <si>
-    <t>2008</t>
+    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220,2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
+  </si>
+  <si>
+    <t>2016</t>
   </si>
   <si>
     <t>第二批蓝图鉴</t>
   </si>
   <si>
-    <t>2000221,2000222,2000223,2000224,2000225,2000226</t>
-  </si>
-  <si>
-    <t>2009</t>
+    <t>2000221,2000222,2000223,2000224,2000225,2000226,2000121,2000122,2000123,2000124,2000125,2000126</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
   <si>
     <t>第二批紫图鉴</t>
   </si>
   <si>
-    <t>2000227,2000228,2000229</t>
+    <t>2000227,2000228,2000229,2000126,2000127,2000128,2000129</t>
   </si>
   <si>
     <t>3001</t>
@@ -2347,10 +2365,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2703,7 +2721,7 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4327,17 +4345,17 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="11" t="s">
@@ -4537,17 +4555,17 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="11" t="s">
@@ -5107,10 +5125,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H40"/>
+  <dimension ref="C1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -5615,18 +5633,35 @@
     <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H27" s="7"/>
     </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H28" s="8"/>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="15" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>18</v>
@@ -5635,18 +5670,18 @@
         <v>428</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>18</v>
@@ -5654,29 +5689,12 @@
       <c r="G30" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H31" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>435</v>
       </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H31" s="7"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="15" t="s">
@@ -5694,7 +5712,7 @@
       <c r="G32" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="18" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5714,7 +5732,7 @@
       <c r="G33" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="19" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5734,7 +5752,7 @@
       <c r="G34" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="18" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5754,7 +5772,7 @@
       <c r="G35" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="19" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5798,52 +5816,92 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C38" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="15" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C41" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>460</v>
+      <c r="E41" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C42" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1564,7 +1564,7 @@
     <t>节日活动</t>
   </si>
   <si>
-    <t>4106</t>
+    <t>4107</t>
   </si>
   <si>
     <t>2006</t>
@@ -5127,8 +5127,8 @@
   <sheetPr/>
   <dimension ref="C1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="575">
   <si>
     <t>_id</t>
   </si>
@@ -1192,6 +1192,54 @@
     <t>21005801,21005802,21005803,21005804,21005805,21005807,21005809,21005810,22005801,22005802,22005803,22005804,22005805,22005807,22005809,22005810,23005801,23005802,23005803,23005804,23005805,23005807,23005809,23005810</t>
   </si>
   <si>
+    <t>200800</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>800级装备</t>
+  </si>
+  <si>
+    <t>21005901,21005902,22005901,22005902,23005901,23005902</t>
+  </si>
+  <si>
+    <t>200801</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>21005903,21005904,22005903,22005904,23005903,23005904</t>
+  </si>
+  <si>
+    <t>200802</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>21005905,21005907,22005905,22005907,23005905,23005907</t>
+  </si>
+  <si>
+    <t>200803</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>21005909,21005910,22005909,22005910,23005909,23005910</t>
+  </si>
+  <si>
+    <t>200804</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>21005901,21005902,21005903,21005904,21005905,21005907,21005909,21005910,22005901,22005902,22005903,22005904,22005905,22005907,22005909,22005910,23005901,23005902,23005903,23005904,23005905,23005907,23005909,23005910</t>
+  </si>
+  <si>
     <t>210000</t>
   </si>
   <si>
@@ -1237,6 +1285,276 @@
     <t>21105801,21105802,21105803,21105804,21105805,21105807,21105809,21105810,22105801,22105802,22105803,22105804,22105805,22105807,22105809,22105810,23105801,23105802,23105803,23105804,23105805,23105807,23105809,23105810</t>
   </si>
   <si>
+    <t>210005</t>
+  </si>
+  <si>
+    <t>二阶武器、衣服升阶石</t>
+  </si>
+  <si>
+    <t>5000001,5000002</t>
+  </si>
+  <si>
+    <t>210006</t>
+  </si>
+  <si>
+    <t>二阶项链、头盔升阶石</t>
+  </si>
+  <si>
+    <t>5000003,5000004</t>
+  </si>
+  <si>
+    <t>210007</t>
+  </si>
+  <si>
+    <t>二阶手镯、戒指升阶石</t>
+  </si>
+  <si>
+    <t>5000005,5000006</t>
+  </si>
+  <si>
+    <t>210008</t>
+  </si>
+  <si>
+    <t>二阶腰带、靴子升阶石</t>
+  </si>
+  <si>
+    <t>5000007,5000008</t>
+  </si>
+  <si>
+    <t>210009</t>
+  </si>
+  <si>
+    <t>二阶所有升阶石</t>
+  </si>
+  <si>
+    <t>5000001,5000002,5000003,5000004,5000005,5000006,5000007,5000008</t>
+  </si>
+  <si>
+    <t>210010</t>
+  </si>
+  <si>
+    <t>三阶武器、衣服升阶石</t>
+  </si>
+  <si>
+    <t>5000009,5000010</t>
+  </si>
+  <si>
+    <t>210011</t>
+  </si>
+  <si>
+    <t>三阶项链、头盔升阶石</t>
+  </si>
+  <si>
+    <t>5000011,5000012</t>
+  </si>
+  <si>
+    <t>210012</t>
+  </si>
+  <si>
+    <t>三阶手镯、戒指升阶石</t>
+  </si>
+  <si>
+    <t>5000013,5000014</t>
+  </si>
+  <si>
+    <t>210013</t>
+  </si>
+  <si>
+    <t>三阶腰带、靴子升阶石</t>
+  </si>
+  <si>
+    <t>5000015,5000016</t>
+  </si>
+  <si>
+    <t>210014</t>
+  </si>
+  <si>
+    <t>三阶所有升阶石</t>
+  </si>
+  <si>
+    <t>5000009,5000010,5000011,5000012,5000013,5000014,5000015,5000016</t>
+  </si>
+  <si>
+    <t>210015</t>
+  </si>
+  <si>
+    <t>四阶武器、衣服升阶石</t>
+  </si>
+  <si>
+    <t>5000017,5000018</t>
+  </si>
+  <si>
+    <t>210016</t>
+  </si>
+  <si>
+    <t>四阶项链、头盔升阶石</t>
+  </si>
+  <si>
+    <t>5000019,5000020</t>
+  </si>
+  <si>
+    <t>210017</t>
+  </si>
+  <si>
+    <t>四阶手镯、戒指升阶石</t>
+  </si>
+  <si>
+    <t>5000021,5000022</t>
+  </si>
+  <si>
+    <t>210018</t>
+  </si>
+  <si>
+    <t>四阶腰带、靴子升阶石</t>
+  </si>
+  <si>
+    <t>5000023,5000024</t>
+  </si>
+  <si>
+    <t>210019</t>
+  </si>
+  <si>
+    <t>四阶所有升阶石</t>
+  </si>
+  <si>
+    <t>5000017,5000018,5000019,5000020,5000021,5000022,5000023,5000024</t>
+  </si>
+  <si>
+    <t>210020</t>
+  </si>
+  <si>
+    <t>五阶武器、衣服升阶石</t>
+  </si>
+  <si>
+    <t>5000025,5000026</t>
+  </si>
+  <si>
+    <t>210021</t>
+  </si>
+  <si>
+    <t>五阶项链、头盔升阶石</t>
+  </si>
+  <si>
+    <t>5000027,5000028</t>
+  </si>
+  <si>
+    <t>210022</t>
+  </si>
+  <si>
+    <t>五阶手镯、戒指升阶石</t>
+  </si>
+  <si>
+    <t>5000029,5000030</t>
+  </si>
+  <si>
+    <t>210023</t>
+  </si>
+  <si>
+    <t>五阶腰带、靴子升阶石</t>
+  </si>
+  <si>
+    <t>5000031,5000032</t>
+  </si>
+  <si>
+    <t>210024</t>
+  </si>
+  <si>
+    <t>五阶所有升阶石</t>
+  </si>
+  <si>
+    <t>5000025,5000026,5000027,5000028,5000029,5000030,5000031,5000032</t>
+  </si>
+  <si>
+    <t>210025</t>
+  </si>
+  <si>
+    <t>六阶武器、衣服升阶石</t>
+  </si>
+  <si>
+    <t>5000033,5000034</t>
+  </si>
+  <si>
+    <t>210026</t>
+  </si>
+  <si>
+    <t>六阶项链、头盔升阶石</t>
+  </si>
+  <si>
+    <t>5000035,5000036</t>
+  </si>
+  <si>
+    <t>210027</t>
+  </si>
+  <si>
+    <t>六阶手镯、戒指升阶石</t>
+  </si>
+  <si>
+    <t>5000037,5000038</t>
+  </si>
+  <si>
+    <t>210028</t>
+  </si>
+  <si>
+    <t>六阶腰带、靴子升阶石</t>
+  </si>
+  <si>
+    <t>5000039,5000040</t>
+  </si>
+  <si>
+    <t>210029</t>
+  </si>
+  <si>
+    <t>六阶所有升阶石</t>
+  </si>
+  <si>
+    <t>5000033,5000034,5000035,5000036,5000037,5000038,5000039,5000040</t>
+  </si>
+  <si>
+    <t>210030</t>
+  </si>
+  <si>
+    <t>七阶武器、衣服升阶石</t>
+  </si>
+  <si>
+    <t>50000041,50000042</t>
+  </si>
+  <si>
+    <t>210031</t>
+  </si>
+  <si>
+    <t>七阶项链、头盔升阶石</t>
+  </si>
+  <si>
+    <t>50000043,50000044</t>
+  </si>
+  <si>
+    <t>210032</t>
+  </si>
+  <si>
+    <t>七阶手镯、戒指升阶石</t>
+  </si>
+  <si>
+    <t>50000045,50000046</t>
+  </si>
+  <si>
+    <t>210033</t>
+  </si>
+  <si>
+    <t>七阶腰带、靴子升阶石</t>
+  </si>
+  <si>
+    <t>50000047,50000048</t>
+  </si>
+  <si>
+    <t>210034</t>
+  </si>
+  <si>
+    <t>七阶所有升阶石</t>
+  </si>
+  <si>
+    <t>50000041,50000042,50000043,50000044,50000045,50000046,50000047,50000048</t>
+  </si>
+  <si>
     <t>1400000</t>
   </si>
   <si>
@@ -1400,6 +1718,12 @@
   </si>
   <si>
     <t>102,202,302,402</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>103,203,303,403</t>
   </si>
   <si>
     <t>501</t>
@@ -1700,7 +2024,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,6 +2063,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2220,16 +2551,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2238,119 +2566,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2379,9 +2710,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
@@ -2706,15 +3041,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I81"/>
+  <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
@@ -3890,10 +4225,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="18" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -3914,7 +4249,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="18" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3935,7 +4270,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="18" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -3955,7 +4290,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="18" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -3995,7 +4330,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="18" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4015,7 +4350,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="18" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4035,7 +4370,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="18" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4055,7 +4390,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4075,7 +4410,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4097,7 +4432,7 @@
       <c r="C71" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="18" t="s">
         <v>270</v>
       </c>
       <c r="E71" s="13" t="s">
@@ -4109,7 +4444,7 @@
       <c r="G71" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="19" t="s">
         <v>272</v>
       </c>
       <c r="I71" s="13"/>
@@ -4120,7 +4455,7 @@
       <c r="C72" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="18" t="s">
         <v>274</v>
       </c>
       <c r="E72" s="13" t="s">
@@ -4132,7 +4467,7 @@
       <c r="G72" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="19" t="s">
         <v>275</v>
       </c>
       <c r="I72" s="13"/>
@@ -4143,7 +4478,7 @@
       <c r="C73" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="18" t="s">
         <v>277</v>
       </c>
       <c r="E73" s="13" t="s">
@@ -4155,7 +4490,7 @@
       <c r="G73" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="19" t="s">
         <v>278</v>
       </c>
       <c r="I73" s="13"/>
@@ -4166,7 +4501,7 @@
       <c r="C74" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="18" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="13" t="s">
@@ -4178,10 +4513,10 @@
       <c r="G74" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="I74" s="14"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A75" s="13"/>
@@ -4189,7 +4524,7 @@
       <c r="C75" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="18" t="s">
         <v>283</v>
       </c>
       <c r="E75" s="13" t="s">
@@ -4201,16 +4536,16 @@
       <c r="G75" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C76" s="16" t="s">
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C76" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="18" t="s">
         <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -4222,15 +4557,15 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C77" s="16" t="s">
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C77" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="18" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -4242,15 +4577,15 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C78" s="16" t="s">
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C78" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="18" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -4262,15 +4597,15 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C79" s="16" t="s">
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C79" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="18" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -4282,15 +4617,15 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C80" s="16" t="s">
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C80" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="18" t="s">
         <v>299</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -4302,19 +4637,114 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C81" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C82" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C83" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C84" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C85" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="I85" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4332,17 +4762,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
@@ -4418,14 +4848,14 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C6" s="16" t="s">
-        <v>301</v>
+      <c r="C6" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -4433,19 +4863,19 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>303</v>
+      <c r="H6" s="18" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C7" s="16" t="s">
-        <v>304</v>
+      <c r="C7" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -4453,19 +4883,19 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>306</v>
+      <c r="H7" s="18" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" s="16" t="s">
-        <v>307</v>
+      <c r="C8" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -4473,19 +4903,19 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>309</v>
+      <c r="H8" s="18" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" s="16" t="s">
-        <v>310</v>
+      <c r="C9" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -4493,19 +4923,19 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>312</v>
+      <c r="H9" s="18" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" s="16" t="s">
-        <v>313</v>
+      <c r="C10" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -4513,19 +4943,609 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H10" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
+      <c r="C11" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:8">
+      <c r="C13" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:8">
+      <c r="C14" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:8">
+      <c r="C15" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:8">
+      <c r="C16" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:8">
+      <c r="C17" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:8">
+      <c r="C18" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:8">
+      <c r="C19" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:8">
+      <c r="C20" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:8">
+      <c r="C21" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:8">
+      <c r="C22" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:8">
+      <c r="C23" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:8">
+      <c r="C24" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:8">
+      <c r="C25" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:8">
+      <c r="C26" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:8">
+      <c r="C27" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:8">
+      <c r="C28" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:8">
+      <c r="C29" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:8">
+      <c r="C30" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:8">
+      <c r="C31" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:8">
+      <c r="C32" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:8">
+      <c r="C33" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:8">
+      <c r="C34" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:8">
+      <c r="C35" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:8">
+      <c r="C36" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:8">
+      <c r="C37" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:8">
+      <c r="C38" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:8">
+      <c r="C39" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:8">
+      <c r="C40" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>421</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4544,8 +5564,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4628,14 +5648,14 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="16" t="s">
-        <v>316</v>
+      <c r="C6" s="19" t="s">
+        <v>422</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -4648,14 +5668,14 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="16" t="s">
-        <v>318</v>
+      <c r="C7" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -4668,14 +5688,14 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="16" t="s">
-        <v>320</v>
+      <c r="C8" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>321</v>
+        <v>427</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -4688,14 +5708,14 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="16" t="s">
-        <v>322</v>
+      <c r="C9" s="19" t="s">
+        <v>428</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -4708,14 +5728,14 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="16" t="s">
-        <v>324</v>
+      <c r="C10" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -4730,14 +5750,14 @@
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="16" t="s">
-        <v>326</v>
+      <c r="C11" s="19" t="s">
+        <v>432</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -4751,14 +5771,14 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="16" t="s">
-        <v>328</v>
+      <c r="C12" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -4771,14 +5791,14 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="16" t="s">
-        <v>330</v>
+      <c r="C13" s="19" t="s">
+        <v>436</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>331</v>
+        <v>437</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -4791,14 +5811,14 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="16" t="s">
-        <v>332</v>
+      <c r="C14" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -4811,14 +5831,14 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="16" t="s">
-        <v>334</v>
+      <c r="C15" s="19" t="s">
+        <v>440</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -4831,14 +5851,14 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="16" t="s">
-        <v>336</v>
+      <c r="C16" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -4851,14 +5871,14 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="16" t="s">
-        <v>338</v>
+      <c r="C17" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -4871,14 +5891,14 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="16" t="s">
-        <v>340</v>
+      <c r="C18" s="19" t="s">
+        <v>446</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -4891,14 +5911,14 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="16" t="s">
-        <v>342</v>
+      <c r="C19" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -4911,14 +5931,14 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="16" t="s">
-        <v>344</v>
+      <c r="C20" s="19" t="s">
+        <v>450</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -4931,14 +5951,14 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="16" t="s">
-        <v>346</v>
+      <c r="C21" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -4951,14 +5971,14 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="16" t="s">
-        <v>348</v>
+      <c r="C22" s="19" t="s">
+        <v>454</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -4971,14 +5991,14 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="16" t="s">
-        <v>350</v>
+      <c r="C23" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>351</v>
+        <v>457</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -4991,14 +6011,14 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="16" t="s">
-        <v>352</v>
+      <c r="C24" s="19" t="s">
+        <v>458</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>353</v>
+        <v>459</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -5011,14 +6031,14 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
-        <v>354</v>
+      <c r="C25" s="19" t="s">
+        <v>460</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -5031,14 +6051,14 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="16" t="s">
-        <v>356</v>
+      <c r="C26" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -5051,14 +6071,14 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="16" t="s">
-        <v>358</v>
+      <c r="C27" s="19" t="s">
+        <v>464</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -5071,14 +6091,14 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="16" t="s">
-        <v>360</v>
+      <c r="C28" s="19" t="s">
+        <v>466</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -5091,14 +6111,14 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="16" t="s">
-        <v>362</v>
+      <c r="C29" s="19" t="s">
+        <v>468</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -5125,10 +6145,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H42"/>
+  <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="C38:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -5212,13 +6232,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5227,18 +6247,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="15" t="s">
-        <v>368</v>
+      <c r="C7" s="18" t="s">
+        <v>474</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>369</v>
+        <v>475</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5246,662 +6266,682 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>370</v>
+      <c r="H7" s="21" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="15" t="s">
-        <v>371</v>
+      <c r="C8" s="18" t="s">
+        <v>477</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>372</v>
+        <v>475</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C12" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>383</v>
+      <c r="H12" s="21" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>385</v>
+        <v>489</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>386</v>
+        <v>490</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>389</v>
+        <v>490</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>392</v>
+        <v>490</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>393</v>
+        <v>498</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>394</v>
+        <v>499</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>395</v>
+        <v>490</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>396</v>
+        <v>501</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>397</v>
+        <v>502</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>398</v>
+        <v>490</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>401</v>
+        <v>490</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>411</v>
+        <v>514</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="15" t="s">
-        <v>412</v>
+      <c r="C22" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>414</v>
+        <v>517</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="15" t="s">
-        <v>415</v>
+      <c r="C23" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F23" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>419</v>
+      <c r="G24" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="15" t="s">
-        <v>420</v>
+      <c r="C25" s="18" t="s">
+        <v>525</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>422</v>
+        <v>526</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="15" t="s">
-        <v>423</v>
+      <c r="C26" s="18" t="s">
+        <v>528</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>429</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C27" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="15" t="s">
-        <v>430</v>
+      <c r="C29" s="18" t="s">
+        <v>534</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>432</v>
+        <v>535</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="15" t="s">
-        <v>433</v>
+      <c r="C30" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C32" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>438</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="15" t="s">
-        <v>439</v>
+      <c r="C33" s="18" t="s">
+        <v>544</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>441</v>
+        <v>545</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="15" t="s">
-        <v>442</v>
+      <c r="C34" s="18" t="s">
+        <v>547</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>444</v>
+        <v>548</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C35" s="15" t="s">
-        <v>445</v>
+      <c r="C35" s="18" t="s">
+        <v>550</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>447</v>
+        <v>551</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="15" t="s">
-        <v>448</v>
+      <c r="C36" s="18" t="s">
+        <v>553</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>450</v>
+        <v>554</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C37" s="15" t="s">
-        <v>451</v>
+      <c r="C37" s="18" t="s">
+        <v>556</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>453</v>
+        <v>557</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="15" t="s">
-        <v>454</v>
+      <c r="C38" s="18" t="s">
+        <v>559</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>456</v>
+        <v>560</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C39" s="15" t="s">
-        <v>457</v>
+      <c r="C39" s="18" t="s">
+        <v>562</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C41" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>463</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C42" s="15" t="s">
-        <v>464</v>
+      <c r="C42" s="18" t="s">
+        <v>568</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>466</v>
+        <v>569</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C43" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="585">
   <si>
     <t>_id</t>
   </si>
@@ -1697,6 +1697,36 @@
   </si>
   <si>
     <t>梦魇花朵</t>
+  </si>
+  <si>
+    <t>1400024</t>
+  </si>
+  <si>
+    <t>梦魇冰晶</t>
+  </si>
+  <si>
+    <t>1400025</t>
+  </si>
+  <si>
+    <t>梦魇蝠翼</t>
+  </si>
+  <si>
+    <t>1400026</t>
+  </si>
+  <si>
+    <t>梦魇魂火</t>
+  </si>
+  <si>
+    <t>1400027</t>
+  </si>
+  <si>
+    <t>梦魇腐肉</t>
+  </si>
+  <si>
+    <t>1400028</t>
+  </si>
+  <si>
+    <t>梦魇蛇胆</t>
   </si>
   <si>
     <t>101</t>
@@ -2216,12 +2246,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2681,7 +2711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2712,8 +2742,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -4225,10 +4253,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="16" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4249,7 +4277,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4270,7 +4298,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="16" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4290,7 +4318,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="16" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4330,7 +4358,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="16" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4350,7 +4378,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="16" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4370,7 +4398,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="16" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4390,7 +4418,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="16" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4410,7 +4438,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="16" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4432,7 +4460,7 @@
       <c r="C71" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="16" t="s">
         <v>270</v>
       </c>
       <c r="E71" s="13" t="s">
@@ -4444,7 +4472,7 @@
       <c r="G71" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="17" t="s">
         <v>272</v>
       </c>
       <c r="I71" s="13"/>
@@ -4455,7 +4483,7 @@
       <c r="C72" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="16" t="s">
         <v>274</v>
       </c>
       <c r="E72" s="13" t="s">
@@ -4467,7 +4495,7 @@
       <c r="G72" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="17" t="s">
         <v>275</v>
       </c>
       <c r="I72" s="13"/>
@@ -4478,7 +4506,7 @@
       <c r="C73" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="16" t="s">
         <v>277</v>
       </c>
       <c r="E73" s="13" t="s">
@@ -4490,7 +4518,7 @@
       <c r="G73" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="17" t="s">
         <v>278</v>
       </c>
       <c r="I73" s="13"/>
@@ -4501,7 +4529,7 @@
       <c r="C74" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="16" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="13" t="s">
@@ -4513,7 +4541,7 @@
       <c r="G74" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="17" t="s">
         <v>281</v>
       </c>
       <c r="I74" s="15"/>
@@ -4524,7 +4552,7 @@
       <c r="C75" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="16" t="s">
         <v>283</v>
       </c>
       <c r="E75" s="13" t="s">
@@ -4536,16 +4564,16 @@
       <c r="G75" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="17" t="s">
         <v>284</v>
       </c>
       <c r="I75" s="15"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="16" t="s">
         <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -4557,15 +4585,15 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -4577,15 +4605,15 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="16" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="16" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -4597,15 +4625,15 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="16" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="16" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -4617,15 +4645,15 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="16" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="16" t="s">
         <v>299</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -4637,7 +4665,7 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="16" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4657,10 +4685,10 @@
       <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="I81" s="16"/>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C82" s="2" t="s">
@@ -4678,12 +4706,12 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="I82" s="16"/>
-    </row>
-    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C83" s="2" t="s">
         <v>308</v>
       </c>
@@ -4699,12 +4727,11 @@
       <c r="G83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I83" s="17"/>
-    </row>
-    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:9">
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C84" s="2" t="s">
         <v>311</v>
       </c>
@@ -4720,12 +4747,11 @@
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="I84" s="17"/>
-    </row>
-    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:9">
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
@@ -4741,10 +4767,9 @@
       <c r="G85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="I85" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4764,7 +4789,7 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4848,7 +4873,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>317</v>
       </c>
       <c r="D6" s="2">
@@ -4863,12 +4888,12 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>320</v>
       </c>
       <c r="D7" s="2">
@@ -4883,12 +4908,12 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>323</v>
       </c>
       <c r="D8" s="2">
@@ -4903,12 +4928,12 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="2">
@@ -4923,12 +4948,12 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>329</v>
       </c>
       <c r="D10" s="2">
@@ -4943,12 +4968,12 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>332</v>
       </c>
       <c r="D11" s="2">
@@ -4963,12 +4988,12 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>335</v>
       </c>
       <c r="D12" s="2">
@@ -4983,12 +5008,12 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>338</v>
       </c>
       <c r="D13" s="2">
@@ -5003,12 +5028,12 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D14" s="2">
@@ -5023,12 +5048,12 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>344</v>
       </c>
       <c r="D15" s="2">
@@ -5043,12 +5068,12 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>347</v>
       </c>
       <c r="D16" s="2">
@@ -5063,12 +5088,12 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>350</v>
       </c>
       <c r="D17" s="2">
@@ -5083,12 +5108,12 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>353</v>
       </c>
       <c r="D18" s="2">
@@ -5103,12 +5128,12 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>356</v>
       </c>
       <c r="D19" s="2">
@@ -5123,12 +5148,12 @@
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D20" s="2">
@@ -5143,12 +5168,12 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D21" s="2">
@@ -5163,12 +5188,12 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="18" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>365</v>
       </c>
       <c r="D22" s="2">
@@ -5183,12 +5208,12 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>368</v>
       </c>
       <c r="D23" s="2">
@@ -5203,12 +5228,12 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>371</v>
       </c>
       <c r="D24" s="2">
@@ -5223,12 +5248,12 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>374</v>
       </c>
       <c r="D25" s="2">
@@ -5243,12 +5268,12 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>377</v>
       </c>
       <c r="D26" s="2">
@@ -5263,12 +5288,12 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>380</v>
       </c>
       <c r="D27" s="2">
@@ -5283,12 +5308,12 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>383</v>
       </c>
       <c r="D28" s="2">
@@ -5303,12 +5328,12 @@
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>386</v>
       </c>
       <c r="D29" s="2">
@@ -5323,12 +5348,12 @@
       <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>389</v>
       </c>
       <c r="D30" s="2">
@@ -5343,12 +5368,12 @@
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="18" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D31" s="2">
@@ -5363,12 +5388,12 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>395</v>
       </c>
       <c r="D32" s="2">
@@ -5383,12 +5408,12 @@
       <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D33" s="2">
@@ -5403,12 +5428,12 @@
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D34" s="2">
@@ -5423,12 +5448,12 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>404</v>
       </c>
       <c r="D35" s="2">
@@ -5443,12 +5468,12 @@
       <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="18" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>407</v>
       </c>
       <c r="D36" s="2">
@@ -5463,12 +5488,12 @@
       <c r="G36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="18" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>410</v>
       </c>
       <c r="D37" s="2">
@@ -5483,12 +5508,12 @@
       <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="18" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>413</v>
       </c>
       <c r="D38" s="2">
@@ -5503,12 +5528,12 @@
       <c r="G38" s="2">
         <v>5</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="18" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="2">
@@ -5523,12 +5548,12 @@
       <c r="G39" s="2">
         <v>5</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>419</v>
       </c>
       <c r="D40" s="2">
@@ -5543,7 +5568,7 @@
       <c r="G40" s="2">
         <v>5</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="18" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5562,10 +5587,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5648,7 +5673,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D6" s="2">
@@ -5668,7 +5693,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>424</v>
       </c>
       <c r="D7" s="2">
@@ -5688,7 +5713,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>426</v>
       </c>
       <c r="D8" s="2">
@@ -5708,7 +5733,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="2">
@@ -5728,7 +5753,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>430</v>
       </c>
       <c r="D10" s="2">
@@ -5750,7 +5775,7 @@
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>432</v>
       </c>
       <c r="D11" s="2">
@@ -5771,7 +5796,7 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>434</v>
       </c>
       <c r="D12" s="2">
@@ -5791,7 +5816,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>436</v>
       </c>
       <c r="D13" s="2">
@@ -5811,7 +5836,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>438</v>
       </c>
       <c r="D14" s="2">
@@ -5831,7 +5856,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="2">
@@ -5851,7 +5876,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>442</v>
       </c>
       <c r="D16" s="2">
@@ -5871,7 +5896,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>444</v>
       </c>
       <c r="D17" s="2">
@@ -5891,7 +5916,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>446</v>
       </c>
       <c r="D18" s="2">
@@ -5911,7 +5936,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D19" s="2">
@@ -5931,7 +5956,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>450</v>
       </c>
       <c r="D20" s="2">
@@ -5951,7 +5976,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>452</v>
       </c>
       <c r="D21" s="2">
@@ -5971,7 +5996,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>454</v>
       </c>
       <c r="D22" s="2">
@@ -5991,7 +6016,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>456</v>
       </c>
       <c r="D23" s="2">
@@ -6011,7 +6036,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>458</v>
       </c>
       <c r="D24" s="2">
@@ -6031,7 +6056,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>460</v>
       </c>
       <c r="D25" s="2">
@@ -6051,7 +6076,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>462</v>
       </c>
       <c r="D26" s="2">
@@ -6071,7 +6096,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>464</v>
       </c>
       <c r="D27" s="2">
@@ -6091,7 +6116,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>466</v>
       </c>
       <c r="D28" s="2">
@@ -6111,7 +6136,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>468</v>
       </c>
       <c r="D29" s="2">
@@ -6128,6 +6153,106 @@
       </c>
       <c r="H29" s="2">
         <v>40000074</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:8">
+      <c r="C30" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2">
+        <v>40000075</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:8">
+      <c r="C31" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2">
+        <v>40000076</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:8">
+      <c r="C32" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2">
+        <v>40000077</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:8">
+      <c r="C33" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2">
+        <v>40000078</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:8">
+      <c r="C34" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40000079</v>
       </c>
     </row>
   </sheetData>
@@ -6232,13 +6357,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6247,18 +6372,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="18" t="s">
-        <v>474</v>
+      <c r="C7" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6266,19 +6391,19 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>476</v>
+      <c r="H7" s="19" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="18" t="s">
-        <v>477</v>
+      <c r="C8" s="16" t="s">
+        <v>487</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6286,614 +6411,614 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>478</v>
+      <c r="H8" s="19" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="18" t="s">
-        <v>479</v>
+      <c r="C9" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>483</v>
+      <c r="H10" s="19" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="18" t="s">
-        <v>484</v>
+      <c r="C11" s="16" t="s">
+        <v>494</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>485</v>
+      <c r="H11" s="19" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="18" t="s">
-        <v>486</v>
+      <c r="C12" s="16" t="s">
+        <v>496</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>487</v>
+      <c r="H12" s="19" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>491</v>
+        <v>500</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>494</v>
+        <v>500</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>497</v>
+        <v>500</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H16" s="18" t="s">
         <v>500</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>506</v>
+        <v>500</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>509</v>
+        <v>500</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="2" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>512</v>
+        <v>500</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>515</v>
+        <v>500</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="18" t="s">
-        <v>516</v>
+      <c r="C22" s="16" t="s">
+        <v>526</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>519</v>
+        <v>527</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="18" t="s">
-        <v>520</v>
+      <c r="C23" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>522</v>
+        <v>531</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="18" t="s">
-        <v>523</v>
+      <c r="C24" s="16" t="s">
+        <v>533</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F24" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>522</v>
+      <c r="G24" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="18" t="s">
-        <v>525</v>
+      <c r="C25" s="16" t="s">
+        <v>535</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>527</v>
+        <v>536</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>530</v>
+      <c r="H26" s="19" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="18" t="s">
-        <v>531</v>
+      <c r="C27" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>533</v>
+        <v>542</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="18" t="s">
-        <v>534</v>
+      <c r="C29" s="16" t="s">
+        <v>544</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>537</v>
+        <v>545</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="18" t="s">
-        <v>538</v>
+      <c r="C30" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>540</v>
+        <v>549</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="18" t="s">
-        <v>541</v>
+      <c r="C31" s="16" t="s">
+        <v>551</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>543</v>
+        <v>552</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="18" t="s">
-        <v>544</v>
+      <c r="C33" s="16" t="s">
+        <v>554</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H33" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>546</v>
       </c>
+      <c r="H33" s="20" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="18" t="s">
-        <v>547</v>
+      <c r="C34" s="16" t="s">
+        <v>557</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>549</v>
+        <v>558</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C35" s="18" t="s">
-        <v>550</v>
+      <c r="C35" s="16" t="s">
+        <v>560</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>552</v>
+        <v>561</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="18" t="s">
-        <v>553</v>
+      <c r="C36" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>555</v>
+        <v>564</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C37" s="18" t="s">
-        <v>556</v>
+      <c r="C37" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>558</v>
+        <v>567</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="18" t="s">
-        <v>559</v>
+      <c r="C38" s="16" t="s">
+        <v>569</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>561</v>
+        <v>570</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C39" s="18" t="s">
-        <v>562</v>
+      <c r="C39" s="16" t="s">
+        <v>572</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>564</v>
+        <v>573</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="18" t="s">
-        <v>565</v>
+      <c r="C40" s="16" t="s">
+        <v>575</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>567</v>
+        <v>576</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -6905,43 +7030,43 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C42" s="18" t="s">
-        <v>568</v>
+      <c r="C42" s="16" t="s">
+        <v>578</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>571</v>
+        <v>579</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C43" s="18" t="s">
-        <v>572</v>
+      <c r="C43" s="16" t="s">
+        <v>582</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>574</v>
+        <v>583</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
     <t>二阶武器、衣服升阶石</t>
   </si>
   <si>
-    <t>5000001,5000002</t>
+    <t>50000001,50000002</t>
   </si>
   <si>
     <t>210006</t>
@@ -1300,7 +1300,7 @@
     <t>二阶项链、头盔升阶石</t>
   </si>
   <si>
-    <t>5000003,5000004</t>
+    <t>50000003,50000004</t>
   </si>
   <si>
     <t>210007</t>
@@ -1309,7 +1309,7 @@
     <t>二阶手镯、戒指升阶石</t>
   </si>
   <si>
-    <t>5000005,5000006</t>
+    <t>50000005,50000006</t>
   </si>
   <si>
     <t>210008</t>
@@ -1318,7 +1318,7 @@
     <t>二阶腰带、靴子升阶石</t>
   </si>
   <si>
-    <t>5000007,5000008</t>
+    <t>50000007,50000008</t>
   </si>
   <si>
     <t>210009</t>
@@ -1327,7 +1327,7 @@
     <t>二阶所有升阶石</t>
   </si>
   <si>
-    <t>5000001,5000002,5000003,5000004,5000005,5000006,5000007,5000008</t>
+    <t>50000001,50000002,50000003,50000004,50000005,50000006,50000007,50000008</t>
   </si>
   <si>
     <t>210010</t>
@@ -1336,7 +1336,7 @@
     <t>三阶武器、衣服升阶石</t>
   </si>
   <si>
-    <t>5000009,5000010</t>
+    <t>50000009,50000010</t>
   </si>
   <si>
     <t>210011</t>
@@ -1345,7 +1345,7 @@
     <t>三阶项链、头盔升阶石</t>
   </si>
   <si>
-    <t>5000011,5000012</t>
+    <t>50000011,50000012</t>
   </si>
   <si>
     <t>210012</t>
@@ -1354,7 +1354,7 @@
     <t>三阶手镯、戒指升阶石</t>
   </si>
   <si>
-    <t>5000013,5000014</t>
+    <t>50000013,50000014</t>
   </si>
   <si>
     <t>210013</t>
@@ -1363,7 +1363,7 @@
     <t>三阶腰带、靴子升阶石</t>
   </si>
   <si>
-    <t>5000015,5000016</t>
+    <t>50000015,50000016</t>
   </si>
   <si>
     <t>210014</t>
@@ -1372,7 +1372,7 @@
     <t>三阶所有升阶石</t>
   </si>
   <si>
-    <t>5000009,5000010,5000011,5000012,5000013,5000014,5000015,5000016</t>
+    <t>50000009,50000010,50000011,50000012,50000013,50000014,50000015,50000016</t>
   </si>
   <si>
     <t>210015</t>
@@ -1381,7 +1381,7 @@
     <t>四阶武器、衣服升阶石</t>
   </si>
   <si>
-    <t>5000017,5000018</t>
+    <t>50000017,50000018</t>
   </si>
   <si>
     <t>210016</t>
@@ -1390,7 +1390,7 @@
     <t>四阶项链、头盔升阶石</t>
   </si>
   <si>
-    <t>5000019,5000020</t>
+    <t>50000019,50000020</t>
   </si>
   <si>
     <t>210017</t>
@@ -1399,7 +1399,7 @@
     <t>四阶手镯、戒指升阶石</t>
   </si>
   <si>
-    <t>5000021,5000022</t>
+    <t>50000021,50000022</t>
   </si>
   <si>
     <t>210018</t>
@@ -1408,7 +1408,7 @@
     <t>四阶腰带、靴子升阶石</t>
   </si>
   <si>
-    <t>5000023,5000024</t>
+    <t>50000023,50000024</t>
   </si>
   <si>
     <t>210019</t>
@@ -1417,7 +1417,7 @@
     <t>四阶所有升阶石</t>
   </si>
   <si>
-    <t>5000017,5000018,5000019,5000020,5000021,5000022,5000023,5000024</t>
+    <t>50000017,50000018,50000019,50000020,50000021,50000022,50000023,50000024</t>
   </si>
   <si>
     <t>210020</t>
@@ -1426,7 +1426,7 @@
     <t>五阶武器、衣服升阶石</t>
   </si>
   <si>
-    <t>5000025,5000026</t>
+    <t>50000025,50000026</t>
   </si>
   <si>
     <t>210021</t>
@@ -1435,7 +1435,7 @@
     <t>五阶项链、头盔升阶石</t>
   </si>
   <si>
-    <t>5000027,5000028</t>
+    <t>50000027,50000028</t>
   </si>
   <si>
     <t>210022</t>
@@ -1444,7 +1444,7 @@
     <t>五阶手镯、戒指升阶石</t>
   </si>
   <si>
-    <t>5000029,5000030</t>
+    <t>50000029,50000030</t>
   </si>
   <si>
     <t>210023</t>
@@ -1453,7 +1453,7 @@
     <t>五阶腰带、靴子升阶石</t>
   </si>
   <si>
-    <t>5000031,5000032</t>
+    <t>50000031,50000032</t>
   </si>
   <si>
     <t>210024</t>
@@ -1462,7 +1462,7 @@
     <t>五阶所有升阶石</t>
   </si>
   <si>
-    <t>5000025,5000026,5000027,5000028,5000029,5000030,5000031,5000032</t>
+    <t>50000025,50000026,50000027,50000028,50000029,50000030,50000031,50000032</t>
   </si>
   <si>
     <t>210025</t>
@@ -1471,7 +1471,7 @@
     <t>六阶武器、衣服升阶石</t>
   </si>
   <si>
-    <t>5000033,5000034</t>
+    <t>50000033,50000034</t>
   </si>
   <si>
     <t>210026</t>
@@ -1480,7 +1480,7 @@
     <t>六阶项链、头盔升阶石</t>
   </si>
   <si>
-    <t>5000035,5000036</t>
+    <t>50000035,50000036</t>
   </si>
   <si>
     <t>210027</t>
@@ -1489,7 +1489,7 @@
     <t>六阶手镯、戒指升阶石</t>
   </si>
   <si>
-    <t>5000037,5000038</t>
+    <t>50000037,50000038</t>
   </si>
   <si>
     <t>210028</t>
@@ -1498,7 +1498,7 @@
     <t>六阶腰带、靴子升阶石</t>
   </si>
   <si>
-    <t>5000039,5000040</t>
+    <t>50000039,50000040</t>
   </si>
   <si>
     <t>210029</t>
@@ -1507,7 +1507,7 @@
     <t>六阶所有升阶石</t>
   </si>
   <si>
-    <t>5000033,5000034,5000035,5000036,5000037,5000038,5000039,5000040</t>
+    <t>50000033,50000034,50000035,50000036,50000037,50000038,50000039,50000040</t>
   </si>
   <si>
     <t>210030</t>
@@ -2246,12 +2246,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3072,7 +3072,7 @@
   <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
@@ -4789,8 +4789,8 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -5589,7 +5589,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H29" sqref="H29:H34"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1993,7 +1993,7 @@
     <t>第二批白图鉴</t>
   </si>
   <si>
-    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211,2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111</t>
+    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211</t>
   </si>
   <si>
     <t>2015</t>
@@ -2002,7 +2002,7 @@
     <t>第二批绿图鉴</t>
   </si>
   <si>
-    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220,2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
+    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220</t>
   </si>
   <si>
     <t>2016</t>
@@ -2011,7 +2011,7 @@
     <t>第二批蓝图鉴</t>
   </si>
   <si>
-    <t>2000221,2000222,2000223,2000224,2000225,2000226,2000121,2000122,2000123,2000124,2000125,2000126</t>
+    <t>2000221,2000222,2000223,2000224,2000225,2000226</t>
   </si>
   <si>
     <t>2017</t>
@@ -2020,7 +2020,7 @@
     <t>第二批紫图鉴</t>
   </si>
   <si>
-    <t>2000227,2000228,2000229,2000126,2000127,2000128,2000129</t>
+    <t>2000227,2000228,2000229</t>
   </si>
   <si>
     <t>3001</t>
@@ -4789,7 +4789,7 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -6272,8 +6272,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="C38:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
     <sheet name="红装" sheetId="3" r:id="rId2"/>
     <sheet name="专属" sheetId="4" r:id="rId3"/>
-    <sheet name="定制配置" sheetId="2" r:id="rId4"/>
+    <sheet name="神器" sheetId="6" r:id="rId4"/>
+    <sheet name="无尽" sheetId="5" r:id="rId5"/>
+    <sheet name="定制配置" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -238,6 +240,130 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+1 普通道具
+2，装备
+3，技能书
+6，buff
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+1 普通道具
+2，装备
+3，技能书
+6，buff
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
@@ -287,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="593">
   <si>
     <t>_id</t>
   </si>
@@ -1729,6 +1855,57 @@
     <t>梦魇蛇胆</t>
   </si>
   <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>BOSS杀手</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>副本劵</t>
+  </si>
+  <si>
+    <t>220001</t>
+  </si>
+  <si>
+    <t>Boss劵</t>
+  </si>
+  <si>
+    <t>220002</t>
+  </si>
+  <si>
+    <t>四格碎片</t>
+  </si>
+  <si>
+    <t>220003</t>
+  </si>
+  <si>
+    <t>图鉴碎片</t>
+  </si>
+  <si>
+    <t>220011</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>220012</t>
+  </si>
+  <si>
+    <t>10介技能</t>
+  </si>
+  <si>
+    <t>1010,2010,3010</t>
+  </si>
+  <si>
+    <t>220013</t>
+  </si>
+  <si>
+    <t>高级书页</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -1783,9 +1960,6 @@
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
-    <t>300010</t>
-  </si>
-  <si>
     <t>10级技能书</t>
   </si>
   <si>
@@ -1795,70 +1969,46 @@
     <t>1001,2001,3001</t>
   </si>
   <si>
-    <t>300020</t>
-  </si>
-  <si>
     <t>20级技能书</t>
   </si>
   <si>
     <t>1002,2002,3002</t>
   </si>
   <si>
-    <t>300030</t>
-  </si>
-  <si>
     <t>30级技能书</t>
   </si>
   <si>
     <t>1003,2003,3003</t>
   </si>
   <si>
-    <t>300040</t>
-  </si>
-  <si>
     <t>40级技能书</t>
   </si>
   <si>
     <t>1004,2004,3004</t>
   </si>
   <si>
-    <t>300050</t>
-  </si>
-  <si>
     <t>50级技能书</t>
   </si>
   <si>
     <t>1005,2005,3005</t>
   </si>
   <si>
-    <t>300060</t>
-  </si>
-  <si>
     <t>60级技能书</t>
   </si>
   <si>
     <t>1006,2006,3006</t>
   </si>
   <si>
-    <t>300070</t>
-  </si>
-  <si>
     <t>70级技能书</t>
   </si>
   <si>
     <t>1007,2007,3007</t>
   </si>
   <si>
-    <t>300080</t>
-  </si>
-  <si>
     <t>80级技能书</t>
   </si>
   <si>
     <t>1008,2008,3008</t>
-  </si>
-  <si>
-    <t>300090</t>
   </si>
   <si>
     <t>90级技能书</t>
@@ -3074,7 +3224,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4789,8 +4939,8 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -5589,8 +5739,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6270,10 +6420,507 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C34" s="13"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C12" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C27" s="13"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 C3 D3 C4:C5 D4:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -6357,13 +7004,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6372,18 +7019,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6392,18 +7039,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6412,18 +7059,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -6432,18 +7079,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6452,18 +7099,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6472,18 +7119,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6492,307 +7139,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C13" s="2" t="s">
-        <v>498</v>
+      <c r="C13" s="2">
+        <v>301</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C14" s="2" t="s">
-        <v>502</v>
+      <c r="C14" s="2">
+        <v>302</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C15" s="2" t="s">
-        <v>505</v>
+      <c r="C15" s="2">
+        <v>303</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="2" t="s">
-        <v>508</v>
+      <c r="C16" s="2">
+        <v>304</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="2" t="s">
-        <v>511</v>
+      <c r="C17" s="2">
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="2" t="s">
-        <v>514</v>
+      <c r="C18" s="2">
+        <v>306</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="2" t="s">
-        <v>517</v>
+      <c r="C19" s="2">
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="2" t="s">
-        <v>520</v>
+      <c r="C20" s="2">
+        <v>308</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="16" t="s">
-        <v>523</v>
+      <c r="C21" s="2">
+        <v>309</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>528</v>
-      </c>
       <c r="H25" s="19" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -6800,62 +7447,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -6863,162 +7510,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>546</v>
-      </c>
       <c r="H33" s="20" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -7031,42 +7678,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="602">
   <si>
     <t>_id</t>
   </si>
@@ -1960,6 +1960,9 @@
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
+    <t>300010</t>
+  </si>
+  <si>
     <t>10级技能书</t>
   </si>
   <si>
@@ -1969,46 +1972,70 @@
     <t>1001,2001,3001</t>
   </si>
   <si>
+    <t>300020</t>
+  </si>
+  <si>
     <t>20级技能书</t>
   </si>
   <si>
     <t>1002,2002,3002</t>
   </si>
   <si>
+    <t>300030</t>
+  </si>
+  <si>
     <t>30级技能书</t>
   </si>
   <si>
     <t>1003,2003,3003</t>
   </si>
   <si>
+    <t>300040</t>
+  </si>
+  <si>
     <t>40级技能书</t>
   </si>
   <si>
     <t>1004,2004,3004</t>
   </si>
   <si>
+    <t>300050</t>
+  </si>
+  <si>
     <t>50级技能书</t>
   </si>
   <si>
     <t>1005,2005,3005</t>
   </si>
   <si>
+    <t>300060</t>
+  </si>
+  <si>
     <t>60级技能书</t>
   </si>
   <si>
     <t>1006,2006,3006</t>
   </si>
   <si>
+    <t>300070</t>
+  </si>
+  <si>
     <t>70级技能书</t>
   </si>
   <si>
     <t>1007,2007,3007</t>
   </si>
   <si>
+    <t>300080</t>
+  </si>
+  <si>
     <t>80级技能书</t>
   </si>
   <si>
     <t>1008,2008,3008</t>
+  </si>
+  <si>
+    <t>300090</t>
   </si>
   <si>
     <t>90级技能书</t>
@@ -2232,15 +2259,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -2861,7 +2888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2876,6 +2903,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2883,17 +2911,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3222,7 +3250,7 @@
   <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
@@ -3234,71 +3262,71 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="3:4">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="3:8">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:8">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:8">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4403,10 +4431,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="17" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4427,7 +4455,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="17" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4448,7 +4476,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="17" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4468,7 +4496,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="17" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4508,7 +4536,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="17" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4528,7 +4556,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="17" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4548,7 +4576,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4568,7 +4596,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="17" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4588,7 +4616,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4605,125 +4633,125 @@
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="17" t="s">
+      <c r="F71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="I71" s="13"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="17" t="s">
+      <c r="F72" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="17" t="s">
+      <c r="F73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="17" t="s">
+      <c r="F74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="I74" s="15"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="17" t="s">
+      <c r="F75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="I75" s="15"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="17" t="s">
         <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -4735,15 +4763,15 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="17" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -4755,15 +4783,15 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="17" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -4775,15 +4803,15 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="17" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="17" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -4795,15 +4823,15 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="17" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="17" t="s">
         <v>299</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -4815,7 +4843,7 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="17" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4835,7 +4863,7 @@
       <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="17" t="s">
         <v>304</v>
       </c>
       <c r="I81" s="7"/>
@@ -4856,7 +4884,7 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="17" t="s">
         <v>307</v>
       </c>
       <c r="I82" s="7"/>
@@ -4877,7 +4905,7 @@
       <c r="G83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="17" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4897,7 +4925,7 @@
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="17" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4917,7 +4945,7 @@
       <c r="G85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="17" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4939,7 +4967,7 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4950,80 +4978,80 @@
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D6" s="2">
@@ -5038,12 +5066,12 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>320</v>
       </c>
       <c r="D7" s="2">
@@ -5058,12 +5086,12 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="17" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D8" s="2">
@@ -5078,12 +5106,12 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="2">
@@ -5098,12 +5126,12 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="17" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D10" s="2">
@@ -5118,12 +5146,12 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D11" s="2">
@@ -5138,12 +5166,12 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="19" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D12" s="2">
@@ -5158,12 +5186,12 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="19" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>338</v>
       </c>
       <c r="D13" s="2">
@@ -5178,12 +5206,12 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="19" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>341</v>
       </c>
       <c r="D14" s="2">
@@ -5198,12 +5226,12 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="19" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>344</v>
       </c>
       <c r="D15" s="2">
@@ -5218,12 +5246,12 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>347</v>
       </c>
       <c r="D16" s="2">
@@ -5238,12 +5266,12 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="19" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D17" s="2">
@@ -5258,12 +5286,12 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="19" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>353</v>
       </c>
       <c r="D18" s="2">
@@ -5278,12 +5306,12 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="19" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D19" s="2">
@@ -5298,12 +5326,12 @@
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="19" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>359</v>
       </c>
       <c r="D20" s="2">
@@ -5318,12 +5346,12 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>362</v>
       </c>
       <c r="D21" s="2">
@@ -5338,12 +5366,12 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="19" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D22" s="2">
@@ -5358,12 +5386,12 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="19" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D23" s="2">
@@ -5378,12 +5406,12 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="19" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>371</v>
       </c>
       <c r="D24" s="2">
@@ -5398,12 +5426,12 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D25" s="2">
@@ -5418,12 +5446,12 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="19" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D26" s="2">
@@ -5438,12 +5466,12 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="19" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>380</v>
       </c>
       <c r="D27" s="2">
@@ -5458,12 +5486,12 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="19" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D28" s="2">
@@ -5478,12 +5506,12 @@
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="19" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>386</v>
       </c>
       <c r="D29" s="2">
@@ -5498,12 +5526,12 @@
       <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="19" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D30" s="2">
@@ -5518,12 +5546,12 @@
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="19" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>392</v>
       </c>
       <c r="D31" s="2">
@@ -5538,12 +5566,12 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="19" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>395</v>
       </c>
       <c r="D32" s="2">
@@ -5558,12 +5586,12 @@
       <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="19" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>398</v>
       </c>
       <c r="D33" s="2">
@@ -5578,12 +5606,12 @@
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="19" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>401</v>
       </c>
       <c r="D34" s="2">
@@ -5598,12 +5626,12 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="19" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>404</v>
       </c>
       <c r="D35" s="2">
@@ -5618,12 +5646,12 @@
       <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="19" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>407</v>
       </c>
       <c r="D36" s="2">
@@ -5638,12 +5666,12 @@
       <c r="G36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="19" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="18" t="s">
         <v>410</v>
       </c>
       <c r="D37" s="2">
@@ -5658,12 +5686,12 @@
       <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="19" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>413</v>
       </c>
       <c r="D38" s="2">
@@ -5678,12 +5706,12 @@
       <c r="G38" s="2">
         <v>5</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="19" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="2">
@@ -5698,12 +5726,12 @@
       <c r="G39" s="2">
         <v>5</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="19" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="18" t="s">
         <v>419</v>
       </c>
       <c r="D40" s="2">
@@ -5718,7 +5746,7 @@
       <c r="G40" s="2">
         <v>5</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="19" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5750,80 +5778,80 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>422</v>
       </c>
       <c r="D6" s="2">
@@ -5843,7 +5871,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>424</v>
       </c>
       <c r="D7" s="2">
@@ -5863,7 +5891,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>426</v>
       </c>
       <c r="D8" s="2">
@@ -5883,7 +5911,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="2">
@@ -5903,7 +5931,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D10" s="2">
@@ -5923,9 +5951,9 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="18" t="s">
         <v>432</v>
       </c>
       <c r="D11" s="2">
@@ -5943,10 +5971,10 @@
       <c r="H11" s="2">
         <v>40000056</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>434</v>
       </c>
       <c r="D12" s="2">
@@ -5966,7 +5994,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>436</v>
       </c>
       <c r="D13" s="2">
@@ -5986,7 +6014,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>438</v>
       </c>
       <c r="D14" s="2">
@@ -6006,7 +6034,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="2">
@@ -6026,7 +6054,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>442</v>
       </c>
       <c r="D16" s="2">
@@ -6046,7 +6074,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>444</v>
       </c>
       <c r="D17" s="2">
@@ -6066,7 +6094,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>446</v>
       </c>
       <c r="D18" s="2">
@@ -6086,7 +6114,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>448</v>
       </c>
       <c r="D19" s="2">
@@ -6106,7 +6134,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>450</v>
       </c>
       <c r="D20" s="2">
@@ -6126,7 +6154,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>452</v>
       </c>
       <c r="D21" s="2">
@@ -6146,7 +6174,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>454</v>
       </c>
       <c r="D22" s="2">
@@ -6166,7 +6194,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>456</v>
       </c>
       <c r="D23" s="2">
@@ -6186,7 +6214,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>458</v>
       </c>
       <c r="D24" s="2">
@@ -6206,7 +6234,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>460</v>
       </c>
       <c r="D25" s="2">
@@ -6226,7 +6254,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>462</v>
       </c>
       <c r="D26" s="2">
@@ -6246,7 +6274,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>464</v>
       </c>
       <c r="D27" s="2">
@@ -6266,7 +6294,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>466</v>
       </c>
       <c r="D28" s="2">
@@ -6286,7 +6314,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>468</v>
       </c>
       <c r="D29" s="2">
@@ -6306,7 +6334,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>470</v>
       </c>
       <c r="D30" s="2">
@@ -6326,7 +6354,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D31" s="2">
@@ -6346,7 +6374,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>474</v>
       </c>
       <c r="D32" s="2">
@@ -6366,7 +6394,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D33" s="2">
@@ -6386,7 +6414,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D34" s="2">
@@ -6423,7 +6451,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6433,80 +6461,80 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>480</v>
       </c>
       <c r="D6" s="2">
@@ -6526,96 +6554,91 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C7" s="13"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C8" s="13"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C9" s="13"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C10" s="13"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C17" s="13"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C18" s="13"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C22" s="13"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="13"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C26" s="13"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C27" s="13"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C28" s="13"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C29" s="13"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C30" s="13"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C31" s="13"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C32" s="13"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C33" s="13"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C34" s="13"/>
+      <c r="C34" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6634,7 +6657,7 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6645,80 +6668,80 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>482</v>
       </c>
       <c r="D6" s="2">
@@ -6738,7 +6761,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>484</v>
       </c>
       <c r="D7" s="2">
@@ -6758,7 +6781,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>486</v>
       </c>
       <c r="D8" s="2">
@@ -6778,7 +6801,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>488</v>
       </c>
       <c r="D9" s="2">
@@ -6798,7 +6821,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>490</v>
       </c>
       <c r="D10" s="2">
@@ -6813,12 +6836,12 @@
       <c r="G10" s="2">
         <v>15</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>492</v>
       </c>
       <c r="D11" s="2">
@@ -6833,12 +6856,12 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>495</v>
       </c>
       <c r="D12" s="2">
@@ -6858,49 +6881,49 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C17" s="13"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C18" s="13"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C22" s="13"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="13"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C26" s="13"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C27" s="13"/>
+      <c r="C27" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6919,8 +6942,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7023,7 +7046,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>501</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -7038,12 +7061,12 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>504</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -7058,12 +7081,12 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>506</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -7075,15 +7098,15 @@
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>509</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -7095,15 +7118,15 @@
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>511</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -7115,15 +7138,15 @@
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="20" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>513</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -7135,537 +7158,537 @@
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="20" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C13" s="2">
-        <v>301</v>
+      <c r="C13" s="8" t="s">
+        <v>515</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H13" s="16" t="s">
         <v>517</v>
       </c>
+      <c r="H13" s="17" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C14" s="2">
-        <v>302</v>
+      <c r="C14" s="8" t="s">
+        <v>519</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C15" s="2">
-        <v>303</v>
+      <c r="C15" s="8" t="s">
+        <v>522</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="2">
-        <v>304</v>
+      <c r="C16" s="8" t="s">
+        <v>525</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>523</v>
+        <v>517</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="2">
-        <v>305</v>
+      <c r="C17" s="8" t="s">
+        <v>528</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>525</v>
+        <v>517</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="2">
-        <v>306</v>
+      <c r="C18" s="8" t="s">
+        <v>531</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>527</v>
+        <v>517</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="2">
-        <v>307</v>
+      <c r="C19" s="8" t="s">
+        <v>534</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>529</v>
+        <v>517</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="2">
-        <v>308</v>
+      <c r="C20" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>531</v>
+        <v>517</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="2">
-        <v>309</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>533</v>
+        <v>517</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="16" t="s">
-        <v>534</v>
+      <c r="C22" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>537</v>
+        <v>544</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="16" t="s">
-        <v>538</v>
+      <c r="C23" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>540</v>
+        <v>548</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="16" t="s">
-        <v>541</v>
+      <c r="C24" s="17" t="s">
+        <v>550</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F24" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>540</v>
+      <c r="G24" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
-        <v>543</v>
+      <c r="C25" s="17" t="s">
+        <v>552</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="H25" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>545</v>
       </c>
+      <c r="H25" s="20" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="16" t="s">
-        <v>546</v>
+      <c r="C26" s="17" t="s">
+        <v>555</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>548</v>
+        <v>556</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="16" t="s">
-        <v>549</v>
+      <c r="C27" s="17" t="s">
+        <v>558</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>551</v>
+        <v>559</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="16" t="s">
-        <v>552</v>
+      <c r="C29" s="17" t="s">
+        <v>561</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>555</v>
+        <v>562</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="16" t="s">
-        <v>556</v>
+      <c r="C30" s="17" t="s">
+        <v>565</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>558</v>
+        <v>566</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="16" t="s">
-        <v>559</v>
+      <c r="C31" s="17" t="s">
+        <v>568</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>561</v>
+        <v>569</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="16" t="s">
-        <v>562</v>
+      <c r="C33" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>564</v>
+      <c r="H33" s="21" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="16" t="s">
-        <v>565</v>
+      <c r="C34" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>567</v>
+        <v>575</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C35" s="16" t="s">
-        <v>568</v>
+      <c r="C35" s="17" t="s">
+        <v>577</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>570</v>
+        <v>578</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="16" t="s">
-        <v>571</v>
+      <c r="C36" s="17" t="s">
+        <v>580</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>573</v>
+        <v>581</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C37" s="16" t="s">
-        <v>574</v>
+      <c r="C37" s="17" t="s">
+        <v>583</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>576</v>
+        <v>584</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="16" t="s">
-        <v>577</v>
+      <c r="C38" s="17" t="s">
+        <v>586</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>579</v>
+        <v>587</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C39" s="16" t="s">
-        <v>580</v>
+      <c r="C39" s="17" t="s">
+        <v>589</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>582</v>
+        <v>590</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="16" t="s">
-        <v>583</v>
+      <c r="C40" s="17" t="s">
+        <v>592</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>585</v>
+        <v>593</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -7677,43 +7700,43 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C42" s="16" t="s">
-        <v>586</v>
+      <c r="C42" s="17" t="s">
+        <v>595</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>589</v>
+        <v>596</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C43" s="16" t="s">
-        <v>590</v>
+      <c r="C43" s="17" t="s">
+        <v>599</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>592</v>
+        <v>600</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="613">
   <si>
     <t>_id</t>
   </si>
@@ -1321,48 +1321,48 @@
     <t>200800</t>
   </si>
   <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>800级装备</t>
+  </si>
+  <si>
+    <t>21005901,21005902,22005901,22005902,23005901,23005902</t>
+  </si>
+  <si>
+    <t>200801</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>21005903,21005904,22005903,22005904,23005903,23005904</t>
+  </si>
+  <si>
+    <t>200802</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>21005905,21005907,22005905,22005907,23005905,23005907</t>
+  </si>
+  <si>
+    <t>200803</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>21005909,21005910,22005909,22005910,23005909,23005910</t>
+  </si>
+  <si>
+    <t>200804</t>
+  </si>
+  <si>
     <t>800</t>
   </si>
   <si>
-    <t>800级装备</t>
-  </si>
-  <si>
-    <t>21005901,21005902,22005901,22005902,23005901,23005902</t>
-  </si>
-  <si>
-    <t>200801</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>21005903,21005904,22005903,22005904,23005903,23005904</t>
-  </si>
-  <si>
-    <t>200802</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>21005905,21005907,22005905,22005907,23005905,23005907</t>
-  </si>
-  <si>
-    <t>200803</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>21005909,21005910,22005909,22005910,23005909,23005910</t>
-  </si>
-  <si>
-    <t>200804</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
     <t>21005901,21005902,21005903,21005904,21005905,21005907,21005909,21005910,22005901,22005902,22005903,22005904,22005905,22005907,22005909,22005910,23005901,23005902,23005903,23005904,23005905,23005907,23005909,23005910</t>
   </si>
   <si>
@@ -1855,12 +1855,45 @@
     <t>梦魇蛇胆</t>
   </si>
   <si>
-    <t>1500000</t>
-  </si>
-  <si>
     <t>BOSS杀手</t>
   </si>
   <si>
+    <t>BOSS契约</t>
+  </si>
+  <si>
+    <t>命运沙漏</t>
+  </si>
+  <si>
+    <t>副本契约</t>
+  </si>
+  <si>
+    <t>卖身契</t>
+  </si>
+  <si>
+    <t>万界图</t>
+  </si>
+  <si>
+    <t>破限本源</t>
+  </si>
+  <si>
+    <t>魔法书</t>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+  </si>
+  <si>
+    <t>无限之魂</t>
+  </si>
+  <si>
+    <t>昊天神锤</t>
+  </si>
+  <si>
+    <t>天外神石</t>
+  </si>
+  <si>
+    <t>金蛟剪</t>
+  </si>
+  <si>
     <t>220000</t>
   </si>
   <si>
@@ -2107,7 +2140,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>1999995,1999996,1999997</t>
+    <t>1999993,1999994,1999995,1999996,1999997</t>
   </si>
   <si>
     <t>2000</t>
@@ -2423,12 +2456,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2888,7 +2921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2917,7 +2950,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -3250,9 +3282,9 @@
   <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4431,10 +4463,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4455,7 +4487,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4476,7 +4508,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="16" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4496,7 +4528,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4536,7 +4568,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4556,7 +4588,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4576,7 +4608,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4596,7 +4628,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="16" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4616,7 +4648,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4633,125 +4665,125 @@
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="18" t="s">
+      <c r="F71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="I71" s="14"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="18" t="s">
+      <c r="F72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="I72" s="14"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="18" t="s">
+      <c r="F73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="I73" s="14"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14" t="s">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="18" t="s">
+      <c r="F74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="I74" s="16"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="18" t="s">
+      <c r="F75" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -4763,15 +4795,15 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -4783,15 +4815,15 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="16" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="16" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -4803,15 +4835,15 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="17" t="s">
+      <c r="H78" s="16" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="16" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -4823,15 +4855,15 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="17" t="s">
+      <c r="H79" s="16" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="16" t="s">
         <v>299</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -4843,7 +4875,7 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="16" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4851,7 +4883,7 @@
       <c r="C81" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="16" t="s">
         <v>302</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -4863,7 +4895,7 @@
       <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H81" s="16" t="s">
         <v>304</v>
       </c>
       <c r="I81" s="7"/>
@@ -4872,7 +4904,7 @@
       <c r="C82" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="16" t="s">
         <v>306</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -4884,7 +4916,7 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="16" t="s">
         <v>307</v>
       </c>
       <c r="I82" s="7"/>
@@ -4893,7 +4925,7 @@
       <c r="C83" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="16" t="s">
         <v>309</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -4905,7 +4937,7 @@
       <c r="G83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="17" t="s">
+      <c r="H83" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4913,7 +4945,7 @@
       <c r="C84" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="16" t="s">
         <v>312</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -4925,7 +4957,7 @@
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4933,7 +4965,7 @@
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="16" t="s">
         <v>315</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -4945,7 +4977,7 @@
       <c r="G85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="17" t="s">
+      <c r="H85" s="16" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5051,7 +5083,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>317</v>
       </c>
       <c r="D6" s="2">
@@ -5066,12 +5098,12 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>320</v>
       </c>
       <c r="D7" s="2">
@@ -5086,12 +5118,12 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>323</v>
       </c>
       <c r="D8" s="2">
@@ -5106,12 +5138,12 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="2">
@@ -5126,12 +5158,12 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>329</v>
       </c>
       <c r="D10" s="2">
@@ -5146,12 +5178,12 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>332</v>
       </c>
       <c r="D11" s="2">
@@ -5166,12 +5198,12 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>335</v>
       </c>
       <c r="D12" s="2">
@@ -5186,12 +5218,12 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>338</v>
       </c>
       <c r="D13" s="2">
@@ -5206,12 +5238,12 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D14" s="2">
@@ -5226,12 +5258,12 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>344</v>
       </c>
       <c r="D15" s="2">
@@ -5246,12 +5278,12 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>347</v>
       </c>
       <c r="D16" s="2">
@@ -5266,12 +5298,12 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>350</v>
       </c>
       <c r="D17" s="2">
@@ -5286,12 +5318,12 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>353</v>
       </c>
       <c r="D18" s="2">
@@ -5306,12 +5338,12 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>356</v>
       </c>
       <c r="D19" s="2">
@@ -5326,12 +5358,12 @@
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D20" s="2">
@@ -5346,12 +5378,12 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D21" s="2">
@@ -5366,12 +5398,12 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>365</v>
       </c>
       <c r="D22" s="2">
@@ -5386,12 +5418,12 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>368</v>
       </c>
       <c r="D23" s="2">
@@ -5406,12 +5438,12 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>371</v>
       </c>
       <c r="D24" s="2">
@@ -5426,12 +5458,12 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>374</v>
       </c>
       <c r="D25" s="2">
@@ -5446,12 +5478,12 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>377</v>
       </c>
       <c r="D26" s="2">
@@ -5466,12 +5498,12 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>380</v>
       </c>
       <c r="D27" s="2">
@@ -5486,12 +5518,12 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>383</v>
       </c>
       <c r="D28" s="2">
@@ -5506,12 +5538,12 @@
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="18" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>386</v>
       </c>
       <c r="D29" s="2">
@@ -5526,12 +5558,12 @@
       <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>389</v>
       </c>
       <c r="D30" s="2">
@@ -5546,12 +5578,12 @@
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="18" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D31" s="2">
@@ -5566,12 +5598,12 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="18" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>395</v>
       </c>
       <c r="D32" s="2">
@@ -5586,12 +5618,12 @@
       <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D33" s="2">
@@ -5606,12 +5638,12 @@
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="18" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D34" s="2">
@@ -5626,12 +5658,12 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>404</v>
       </c>
       <c r="D35" s="2">
@@ -5646,12 +5678,12 @@
       <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>407</v>
       </c>
       <c r="D36" s="2">
@@ -5666,12 +5698,12 @@
       <c r="G36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="18" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>410</v>
       </c>
       <c r="D37" s="2">
@@ -5686,12 +5718,12 @@
       <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="18" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>413</v>
       </c>
       <c r="D38" s="2">
@@ -5706,12 +5738,12 @@
       <c r="G38" s="2">
         <v>5</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="18" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="2">
@@ -5726,12 +5758,12 @@
       <c r="G39" s="2">
         <v>5</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>419</v>
       </c>
       <c r="D40" s="2">
@@ -5746,7 +5778,7 @@
       <c r="G40" s="2">
         <v>5</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="18" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5851,7 +5883,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D6" s="2">
@@ -5871,7 +5903,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>424</v>
       </c>
       <c r="D7" s="2">
@@ -5891,7 +5923,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>426</v>
       </c>
       <c r="D8" s="2">
@@ -5911,7 +5943,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="2">
@@ -5931,7 +5963,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>430</v>
       </c>
       <c r="D10" s="2">
@@ -5951,9 +5983,9 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="17" t="s">
         <v>432</v>
       </c>
       <c r="D11" s="2">
@@ -5971,10 +6003,10 @@
       <c r="H11" s="2">
         <v>40000056</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>434</v>
       </c>
       <c r="D12" s="2">
@@ -5994,7 +6026,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>436</v>
       </c>
       <c r="D13" s="2">
@@ -6014,7 +6046,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>438</v>
       </c>
       <c r="D14" s="2">
@@ -6034,7 +6066,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="2">
@@ -6054,7 +6086,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>442</v>
       </c>
       <c r="D16" s="2">
@@ -6074,7 +6106,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>444</v>
       </c>
       <c r="D17" s="2">
@@ -6094,7 +6126,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>446</v>
       </c>
       <c r="D18" s="2">
@@ -6114,7 +6146,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>448</v>
       </c>
       <c r="D19" s="2">
@@ -6134,7 +6166,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>450</v>
       </c>
       <c r="D20" s="2">
@@ -6154,7 +6186,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>452</v>
       </c>
       <c r="D21" s="2">
@@ -6174,7 +6206,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>454</v>
       </c>
       <c r="D22" s="2">
@@ -6194,7 +6226,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>456</v>
       </c>
       <c r="D23" s="2">
@@ -6214,7 +6246,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>458</v>
       </c>
       <c r="D24" s="2">
@@ -6234,7 +6266,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>460</v>
       </c>
       <c r="D25" s="2">
@@ -6254,7 +6286,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>462</v>
       </c>
       <c r="D26" s="2">
@@ -6274,7 +6306,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>464</v>
       </c>
       <c r="D27" s="2">
@@ -6294,7 +6326,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>466</v>
       </c>
       <c r="D28" s="2">
@@ -6314,7 +6346,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>468</v>
       </c>
       <c r="D29" s="2">
@@ -6334,7 +6366,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>470</v>
       </c>
       <c r="D30" s="2">
@@ -6354,7 +6386,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>472</v>
       </c>
       <c r="D31" s="2">
@@ -6374,7 +6406,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>474</v>
       </c>
       <c r="D32" s="2">
@@ -6394,7 +6426,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>476</v>
       </c>
       <c r="D33" s="2">
@@ -6414,7 +6446,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>478</v>
       </c>
       <c r="D34" s="2">
@@ -6450,8 +6482,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6461,7 +6493,7 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -6534,111 +6566,315 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14">
+        <v>180001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="14">
+        <v>180002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C10" s="14"/>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="H7" s="14">
+        <v>180002</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="14">
+        <v>180003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18</v>
+      </c>
+      <c r="H8" s="14">
+        <v>180003</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="14">
+        <v>180004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14">
+        <v>180004</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="14">
+        <v>180005</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="H10" s="14">
+        <v>180005</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C18" s="14"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="14">
+        <v>180006</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18</v>
+      </c>
+      <c r="H11" s="14">
+        <v>180006</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C12" s="14">
+        <v>180007</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
+      <c r="H12" s="14">
+        <v>180007</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C13" s="14">
+        <v>180008</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>18</v>
+      </c>
+      <c r="H13" s="14">
+        <v>180008</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="14">
+        <v>180009</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14">
+        <v>180009</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C15" s="14">
+        <v>180010</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>18</v>
+      </c>
+      <c r="H15" s="14">
+        <v>180010</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="14">
+        <v>180011</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18</v>
+      </c>
+      <c r="H16" s="14">
+        <v>180011</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C17" s="14">
+        <v>180012</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18</v>
+      </c>
+      <c r="H17" s="14">
+        <v>180012</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="14">
+        <v>180013</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2">
+        <v>18</v>
+      </c>
+      <c r="H18" s="14">
+        <v>180013</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C19" s="14"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C20" s="14"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C21" s="14"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C22" s="14"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C23" s="14"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C24" s="14"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="14"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C26" s="14"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C27" s="14"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C28" s="14"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C29" s="14"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C30" s="14"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C31" s="14"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C32" s="14"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C33" s="14"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C34" s="14"/>
+      <c r="C34" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6741,14 +6977,14 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="18" t="s">
-        <v>482</v>
+      <c r="C6" s="17" t="s">
+        <v>493</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6761,14 +6997,14 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="18" t="s">
-        <v>484</v>
+      <c r="C7" s="17" t="s">
+        <v>495</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6781,14 +7017,14 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="18" t="s">
-        <v>486</v>
+      <c r="C8" s="17" t="s">
+        <v>497</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="F8" s="2">
         <v>20</v>
@@ -6801,14 +7037,14 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="18" t="s">
-        <v>488</v>
+      <c r="C9" s="17" t="s">
+        <v>499</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -6821,14 +7057,14 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="18" t="s">
-        <v>490</v>
+      <c r="C10" s="17" t="s">
+        <v>501</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6836,19 +7072,19 @@
       <c r="G10" s="2">
         <v>15</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="18" t="s">
-        <v>492</v>
+      <c r="C11" s="17" t="s">
+        <v>503</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6856,19 +7092,19 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>494</v>
+      <c r="H11" s="16" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="18" t="s">
-        <v>495</v>
+      <c r="C12" s="17" t="s">
+        <v>506</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6881,49 +7117,49 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C13" s="14"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C14" s="14"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C15" s="14"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C16" s="14"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C17" s="14"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C18" s="14"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C19" s="14"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C20" s="14"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C21" s="14"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C22" s="14"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C23" s="14"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C24" s="14"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="14"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C26" s="14"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C27" s="14"/>
+      <c r="C27" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6942,8 +7178,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7027,13 +7263,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7042,18 +7278,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
-        <v>501</v>
+      <c r="C7" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7061,19 +7297,19 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>503</v>
+      <c r="H7" s="19" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
-        <v>504</v>
+      <c r="C8" s="16" t="s">
+        <v>515</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7081,614 +7317,614 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>505</v>
+      <c r="H8" s="19" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
-        <v>506</v>
+      <c r="C9" s="16" t="s">
+        <v>517</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>508</v>
+      <c r="H9" s="19" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>510</v>
+      <c r="H10" s="19" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
-        <v>511</v>
+      <c r="C11" s="16" t="s">
+        <v>522</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>512</v>
+      <c r="H11" s="19" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
-        <v>513</v>
+      <c r="C12" s="16" t="s">
+        <v>524</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>514</v>
+      <c r="H12" s="19" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>518</v>
+        <v>528</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>521</v>
+        <v>528</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>524</v>
+        <v>528</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>533</v>
+        <v>528</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>536</v>
+        <v>528</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>539</v>
+        <v>528</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D21" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>542</v>
+        <v>528</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
-        <v>543</v>
+      <c r="C22" s="16" t="s">
+        <v>554</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>546</v>
+        <v>555</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
-        <v>547</v>
+      <c r="C23" s="16" t="s">
+        <v>558</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>549</v>
+        <v>559</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="17" t="s">
-        <v>550</v>
+      <c r="C24" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F24" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>549</v>
+      <c r="G24" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
-        <v>552</v>
+      <c r="C25" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>554</v>
+        <v>564</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
-        <v>555</v>
+      <c r="C26" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>557</v>
+      <c r="H26" s="19" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
-        <v>558</v>
+      <c r="C27" s="16" t="s">
+        <v>569</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>560</v>
+        <v>570</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="17" t="s">
-        <v>561</v>
+      <c r="C29" s="16" t="s">
+        <v>572</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>564</v>
+        <v>573</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="17" t="s">
-        <v>565</v>
+      <c r="C30" s="16" t="s">
+        <v>576</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>567</v>
+        <v>577</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="17" t="s">
-        <v>568</v>
+      <c r="C31" s="16" t="s">
+        <v>579</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>570</v>
+        <v>580</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="17" t="s">
-        <v>571</v>
+      <c r="C33" s="16" t="s">
+        <v>582</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>573</v>
+        <v>583</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>576</v>
+      <c r="H34" s="21" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C35" s="17" t="s">
-        <v>577</v>
+      <c r="C35" s="16" t="s">
+        <v>588</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>579</v>
+        <v>589</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="17" t="s">
-        <v>580</v>
+      <c r="C36" s="16" t="s">
+        <v>591</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>582</v>
+        <v>592</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C37" s="17" t="s">
-        <v>583</v>
+      <c r="C37" s="16" t="s">
+        <v>594</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>585</v>
+        <v>595</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="17" t="s">
-        <v>586</v>
+      <c r="C38" s="16" t="s">
+        <v>597</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>588</v>
+        <v>598</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C39" s="17" t="s">
-        <v>589</v>
+      <c r="C39" s="16" t="s">
+        <v>600</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>591</v>
+        <v>601</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="17" t="s">
-        <v>592</v>
+      <c r="C40" s="16" t="s">
+        <v>603</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>594</v>
+        <v>604</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -7700,43 +7936,43 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C42" s="17" t="s">
-        <v>595</v>
+      <c r="C42" s="16" t="s">
+        <v>606</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>598</v>
+        <v>607</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C43" s="17" t="s">
-        <v>599</v>
+      <c r="C43" s="16" t="s">
+        <v>610</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>601</v>
+        <v>611</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="615">
   <si>
     <t>_id</t>
   </si>
@@ -1892,6 +1892,12 @@
   </si>
   <si>
     <t>金蛟剪</t>
+  </si>
+  <si>
+    <t>精练契约</t>
+  </si>
+  <si>
+    <t>财富契约</t>
   </si>
   <si>
     <t>220000</t>
@@ -6483,7 +6489,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E18"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6828,11 +6834,45 @@
         <v>180013</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C20" s="8"/>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C19" s="14">
+        <v>180014</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2">
+        <v>18</v>
+      </c>
+      <c r="H19" s="14">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="14">
+        <v>180015</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>18</v>
+      </c>
+      <c r="H20" s="14">
+        <v>180015</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C21" s="8"/>
@@ -6978,13 +7018,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6998,13 +7038,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7018,13 +7058,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F8" s="2">
         <v>20</v>
@@ -7038,13 +7078,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7058,13 +7098,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7078,13 +7118,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7093,18 +7133,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7263,13 +7303,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7278,18 +7318,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7298,19 +7338,19 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
@@ -7318,18 +7358,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7338,18 +7378,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7358,18 +7398,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7378,18 +7418,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7398,307 +7438,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>556</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7706,62 +7746,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>574</v>
-      </c>
       <c r="H30" s="19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7769,162 +7809,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -7937,42 +7977,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>608</v>
-      </c>
       <c r="H43" s="19" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -2462,12 +2462,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6488,7 +6488,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
@@ -6933,8 +6933,8 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7067,7 +7067,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1936,7 +1936,7 @@
     <t>10介技能</t>
   </si>
   <si>
-    <t>1010,2010,3010</t>
+    <t>1010</t>
   </si>
   <si>
     <t>220013</t>
@@ -6934,7 +6934,7 @@
   <dimension ref="C1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -2134,7 +2134,7 @@
     <t>节日活动</t>
   </si>
   <si>
-    <t>4107</t>
+    <t>4108</t>
   </si>
   <si>
     <t>2006</t>
@@ -6933,7 +6933,7 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -7218,8 +7218,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="616">
   <si>
     <t>_id</t>
   </si>
@@ -1951,7 +1951,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>4件套装备</t>
+    <t>一阶四格</t>
   </si>
   <si>
     <t>101,201,301,401</t>
@@ -1960,13 +1960,16 @@
     <t>102</t>
   </si>
   <si>
-    <t>4件套装备2</t>
+    <t>二阶四格</t>
   </si>
   <si>
     <t>102,202,302,402</t>
   </si>
   <si>
     <t>103</t>
+  </si>
+  <si>
+    <t>三阶四格</t>
   </si>
   <si>
     <t>103,203,303,403</t>
@@ -3288,7 +3291,7 @@
   <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
@@ -7218,8 +7221,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7349,7 +7352,7 @@
         <v>511</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7358,18 +7361,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7378,18 +7381,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7398,18 +7401,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7418,18 +7421,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7438,307 +7441,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7746,62 +7749,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7809,162 +7812,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -7977,42 +7980,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
     <sheet name="红装" sheetId="3" r:id="rId2"/>
     <sheet name="专属" sheetId="4" r:id="rId3"/>
-    <sheet name="神器" sheetId="6" r:id="rId4"/>
+    <sheet name="法宝" sheetId="6" r:id="rId4"/>
     <sheet name="无尽" sheetId="5" r:id="rId5"/>
     <sheet name="定制配置" sheetId="2" r:id="rId6"/>
   </sheets>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="619">
   <si>
     <t>_id</t>
   </si>
@@ -1898,6 +1898,15 @@
   </si>
   <si>
     <t>财富契约</t>
+  </si>
+  <si>
+    <t>天使之翼</t>
+  </si>
+  <si>
+    <t>分解机</t>
+  </si>
+  <si>
+    <t>灵魂之引</t>
   </si>
   <si>
     <t>220000</t>
@@ -6491,8 +6500,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6877,14 +6886,65 @@
         <v>180015</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C23" s="8"/>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="14">
+        <v>180016</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>18</v>
+      </c>
+      <c r="H21" s="14">
+        <v>180016</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C22" s="14">
+        <v>180017</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
+        <v>18</v>
+      </c>
+      <c r="H22" s="14">
+        <v>180017</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="14">
+        <v>180018</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
+        <v>18</v>
+      </c>
+      <c r="H23" s="14">
+        <v>180018</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C24" s="8"/>
@@ -7021,13 +7081,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7041,13 +7101,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7061,13 +7121,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7081,13 +7141,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7101,13 +7161,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7121,13 +7181,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7136,18 +7196,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7221,7 +7281,7 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7306,13 +7366,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7321,18 +7381,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7341,18 +7401,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7361,18 +7421,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7381,18 +7441,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7401,18 +7461,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7421,18 +7481,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7441,307 +7501,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>559</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7749,62 +7809,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>577</v>
-      </c>
       <c r="H30" s="19" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7812,162 +7872,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -7980,42 +8040,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>611</v>
-      </c>
       <c r="H43" s="19" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="624">
   <si>
     <t>_id</t>
   </si>
@@ -1942,7 +1942,7 @@
     <t>220012</t>
   </si>
   <si>
-    <t>10介技能</t>
+    <t>彻地钉</t>
   </si>
   <si>
     <t>1010</t>
@@ -1954,6 +1954,24 @@
     <t>高级书页</t>
   </si>
   <si>
+    <t>220014</t>
+  </si>
+  <si>
+    <t>无极道体</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>220015</t>
+  </si>
+  <si>
+    <t>分身术</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -2177,9 +2195,6 @@
   </si>
   <si>
     <t>2000001,2000002,2000003,2000004,2000005</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -6500,7 +6515,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -6996,8 +7011,8 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7219,11 +7234,45 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C14" s="8"/>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C13" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C15" s="8"/>
@@ -7281,8 +7330,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7366,13 +7415,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7381,18 +7430,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7401,18 +7450,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7421,18 +7470,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7441,18 +7490,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7461,18 +7510,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7481,18 +7530,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7501,307 +7550,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="H15" s="16" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7809,62 +7858,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>580</v>
-      </c>
       <c r="H31" s="19" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7872,162 +7921,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>588</v>
+        <v>515</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -8040,42 +8089,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -1906,7 +1906,7 @@
     <t>分解机</t>
   </si>
   <si>
-    <t>灵魂之引</t>
+    <t>摄魂瓶</t>
   </si>
   <si>
     <t>220000</t>
@@ -3315,9 +3315,9 @@
   <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="$A81:$XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6515,8 +6515,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7011,7 +7011,7 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="630">
   <si>
     <t>_id</t>
   </si>
@@ -1364,6 +1364,24 @@
   </si>
   <si>
     <t>21005901,21005902,21005903,21005904,21005905,21005907,21005909,21005910,22005901,22005902,22005903,22005904,22005905,22005907,22005909,22005910,23005901,23005902,23005903,23005904,23005905,23005907,23005909,23005910</t>
+  </si>
+  <si>
+    <t>850级装备</t>
+  </si>
+  <si>
+    <t>21006001,21006002,22006001,22006002,23006001,23006002</t>
+  </si>
+  <si>
+    <t>21006003,21006004,22006003,22006004,23006003,23006004</t>
+  </si>
+  <si>
+    <t>21006005,21006007,22006005,22006007,23006005,23006007</t>
+  </si>
+  <si>
+    <t>21006009,21006010,22006009,22006010,23006009,23006010</t>
+  </si>
+  <si>
+    <t>21006001,21006002,21006003,21006004,21006005,21006007,21006009,21006010,22006001,22006002,22006003,22006004,22006005,22006007,22006009,22006010,23006001,23006002,23006003,23006004,23006005,23006007,23006009,23006010</t>
   </si>
   <si>
     <t>210000</t>
@@ -3312,12 +3330,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I85"/>
+  <dimension ref="A2:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="$A81:$XFD85"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -5012,6 +5030,108 @@
       </c>
       <c r="H85" s="16" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C86" s="2">
+        <v>200850</v>
+      </c>
+      <c r="D86" s="2">
+        <v>810</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C87" s="2">
+        <v>200851</v>
+      </c>
+      <c r="D87" s="2">
+        <v>820</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C88" s="2">
+        <v>200852</v>
+      </c>
+      <c r="D88" s="2">
+        <v>830</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C89" s="2">
+        <v>200853</v>
+      </c>
+      <c r="D89" s="2">
+        <v>840</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C90" s="2">
+        <v>200854</v>
+      </c>
+      <c r="D90" s="2">
+        <v>850</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5117,13 +5237,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5132,18 +5252,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5152,18 +5272,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -5172,18 +5292,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -5192,18 +5312,18 @@
         <v>19</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -5212,18 +5332,18 @@
         <v>19</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -5232,18 +5352,18 @@
         <v>5</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -5252,18 +5372,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -5272,18 +5392,18 @@
         <v>5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -5292,18 +5412,18 @@
         <v>5</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -5312,18 +5432,18 @@
         <v>5</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -5332,18 +5452,18 @@
         <v>5</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -5352,18 +5472,18 @@
         <v>5</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -5372,18 +5492,18 @@
         <v>5</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -5392,18 +5512,18 @@
         <v>5</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
       <c r="C20" s="17" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -5412,18 +5532,18 @@
         <v>5</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" s="17" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -5432,18 +5552,18 @@
         <v>5</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" s="17" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -5452,18 +5572,18 @@
         <v>5</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
       <c r="C23" s="17" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -5472,18 +5592,18 @@
         <v>5</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
       <c r="C24" s="17" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -5492,18 +5612,18 @@
         <v>5</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" s="17" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -5512,18 +5632,18 @@
         <v>5</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" s="17" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -5532,18 +5652,18 @@
         <v>5</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="17" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -5552,18 +5672,18 @@
         <v>5</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
       <c r="C28" s="17" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -5572,18 +5692,18 @@
         <v>5</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
       <c r="C29" s="17" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -5592,18 +5712,18 @@
         <v>5</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
       <c r="C30" s="17" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -5612,18 +5732,18 @@
         <v>5</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
       <c r="C31" s="17" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -5632,18 +5752,18 @@
         <v>5</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
       <c r="C32" s="17" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -5652,18 +5772,18 @@
         <v>5</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
       <c r="C33" s="17" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -5672,18 +5792,18 @@
         <v>5</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
       <c r="C34" s="17" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>18</v>
@@ -5692,18 +5812,18 @@
         <v>5</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
       <c r="C35" s="17" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
@@ -5712,18 +5832,18 @@
         <v>5</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
       <c r="C36" s="17" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
@@ -5732,18 +5852,18 @@
         <v>5</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
       <c r="C37" s="17" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
@@ -5752,18 +5872,18 @@
         <v>5</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="17" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
@@ -5772,18 +5892,18 @@
         <v>5</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
       <c r="C39" s="17" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -5792,18 +5912,18 @@
         <v>5</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
       <c r="C40" s="17" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -5812,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5917,13 +6037,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5937,13 +6057,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5957,13 +6077,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -5977,13 +6097,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -5997,13 +6117,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6019,13 +6139,13 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="17" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6040,13 +6160,13 @@
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6060,13 +6180,13 @@
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -6080,13 +6200,13 @@
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -6100,13 +6220,13 @@
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -6120,13 +6240,13 @@
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -6140,13 +6260,13 @@
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -6160,13 +6280,13 @@
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -6180,13 +6300,13 @@
     </row>
     <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -6200,13 +6320,13 @@
     </row>
     <row r="20" customHeight="1" spans="3:8">
       <c r="C20" s="17" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -6220,13 +6340,13 @@
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" s="17" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -6240,13 +6360,13 @@
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" s="17" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -6260,13 +6380,13 @@
     </row>
     <row r="23" customHeight="1" spans="3:8">
       <c r="C23" s="17" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -6280,13 +6400,13 @@
     </row>
     <row r="24" customHeight="1" spans="3:8">
       <c r="C24" s="17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -6300,13 +6420,13 @@
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" s="17" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -6320,13 +6440,13 @@
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" s="17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -6340,13 +6460,13 @@
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="17" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -6360,13 +6480,13 @@
     </row>
     <row r="28" customHeight="1" spans="3:8">
       <c r="C28" s="17" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -6380,13 +6500,13 @@
     </row>
     <row r="29" customHeight="1" spans="3:8">
       <c r="C29" s="17" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -6400,13 +6520,13 @@
     </row>
     <row r="30" customHeight="1" spans="3:8">
       <c r="C30" s="17" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -6420,13 +6540,13 @@
     </row>
     <row r="31" customHeight="1" spans="3:8">
       <c r="C31" s="17" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -6440,13 +6560,13 @@
     </row>
     <row r="32" customHeight="1" spans="3:8">
       <c r="C32" s="17" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -6460,13 +6580,13 @@
     </row>
     <row r="33" customHeight="1" spans="3:8">
       <c r="C33" s="17" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -6480,13 +6600,13 @@
     </row>
     <row r="34" customHeight="1" spans="3:8">
       <c r="C34" s="17" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>18</v>
@@ -6515,7 +6635,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -6606,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6626,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6646,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6666,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -6686,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6708,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6729,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6749,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -6769,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -6789,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -6809,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -6829,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -6849,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -6869,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -6889,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -6909,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -6929,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -6949,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -7096,13 +7216,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7116,13 +7236,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7136,13 +7256,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7156,13 +7276,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7176,13 +7296,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7196,13 +7316,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7211,18 +7331,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7236,13 +7356,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7251,18 +7371,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7271,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
@@ -7415,13 +7535,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7430,18 +7550,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7450,18 +7570,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7470,18 +7590,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7490,18 +7610,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7510,18 +7630,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7530,18 +7650,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7550,307 +7670,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="H15" s="16" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7858,62 +7978,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>586</v>
-      </c>
       <c r="H31" s="19" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7921,162 +8041,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -8089,42 +8209,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="640">
   <si>
     <t>_id</t>
   </si>
@@ -1873,6 +1873,36 @@
     <t>梦魇蛇胆</t>
   </si>
   <si>
+    <t>1400029</t>
+  </si>
+  <si>
+    <t>梦魇狼爪</t>
+  </si>
+  <si>
+    <t>1400030</t>
+  </si>
+  <si>
+    <t>梦魇虫皮</t>
+  </si>
+  <si>
+    <t>1400031</t>
+  </si>
+  <si>
+    <t>梦魇鹰羽</t>
+  </si>
+  <si>
+    <t>1400032</t>
+  </si>
+  <si>
+    <t>梦魇虫角</t>
+  </si>
+  <si>
+    <t>1400033</t>
+  </si>
+  <si>
+    <t>梦魇蜈膏</t>
+  </si>
+  <si>
     <t>BOSS杀手</t>
   </si>
   <si>
@@ -1978,16 +2008,16 @@
     <t>无极道体</t>
   </si>
   <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>220015</t>
+  </si>
+  <si>
+    <t>分身术</t>
+  </si>
+  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>220015</t>
-  </si>
-  <si>
-    <t>分身术</t>
-  </si>
-  <si>
-    <t>3010</t>
   </si>
   <si>
     <t>101</t>
@@ -3332,7 +3362,7 @@
   <sheetPr/>
   <dimension ref="A2:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
@@ -5950,10 +5980,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6616,6 +6646,106 @@
       </c>
       <c r="H34" s="2">
         <v>40000079</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:8">
+      <c r="C35" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2">
+        <v>40000080</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:8">
+      <c r="C36" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2">
+        <v>40000081</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:8">
+      <c r="C37" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2">
+        <v>40000082</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:8">
+      <c r="C38" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2">
+        <v>40000083</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:8">
+      <c r="C39" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2">
+        <v>40000084</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6766,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6726,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6746,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6766,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6786,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -6806,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6828,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6849,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6869,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -6889,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -6909,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -6929,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -6949,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -6969,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -6989,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -7009,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -7029,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -7049,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -7069,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -7132,7 +7262,7 @@
   <dimension ref="C1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7216,13 +7346,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7236,13 +7366,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7256,13 +7386,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7276,13 +7406,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7296,13 +7426,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7316,13 +7446,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7331,18 +7461,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7356,13 +7486,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7371,18 +7501,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7391,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
@@ -7535,13 +7665,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7550,18 +7680,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7570,18 +7700,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7590,18 +7720,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7610,18 +7740,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7630,18 +7760,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7650,18 +7780,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7670,307 +7800,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>574</v>
-      </c>
       <c r="H26" s="19" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -7978,62 +8108,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8041,162 +8171,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="H34" s="21" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -8209,42 +8339,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="646">
   <si>
     <t>_id</t>
   </si>
@@ -2018,6 +2018,24 @@
   </si>
   <si>
     <t>2010</t>
+  </si>
+  <si>
+    <t>麻痹戒指</t>
+  </si>
+  <si>
+    <t>护身戒指</t>
+  </si>
+  <si>
+    <t>复活戒指</t>
+  </si>
+  <si>
+    <t>防御戒指</t>
+  </si>
+  <si>
+    <t>传送神戒</t>
+  </si>
+  <si>
+    <t>隐身戒指</t>
   </si>
   <si>
     <t>101</t>
@@ -5982,7 +6000,7 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -7261,8 +7279,8 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7527,23 +7545,125 @@
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C21" s="8"/>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="14">
+        <v>190001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>19</v>
+      </c>
+      <c r="H16" s="14">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C17" s="14">
+        <v>190002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19</v>
+      </c>
+      <c r="H17" s="14">
+        <v>190002</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="14">
+        <v>190003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>19</v>
+      </c>
+      <c r="H18" s="14">
+        <v>190003</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C19" s="14">
+        <v>190004</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>19</v>
+      </c>
+      <c r="H19" s="14">
+        <v>190004</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="14">
+        <v>190005</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
+      <c r="H20" s="14">
+        <v>190005</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="14">
+        <v>190006</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>19</v>
+      </c>
+      <c r="H21" s="14">
+        <v>190006</v>
+      </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C22" s="8"/>
@@ -7665,13 +7785,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7680,18 +7800,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7700,18 +7820,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7720,18 +7840,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7740,18 +7860,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7760,18 +7880,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7780,18 +7900,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7800,307 +7920,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="H15" s="16" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8108,62 +8228,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>602</v>
-      </c>
       <c r="H31" s="19" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8174,159 +8294,159 @@
         <v>534</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -8339,42 +8459,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="647">
   <si>
     <t>_id</t>
   </si>
@@ -1955,6 +1955,9 @@
   </si>
   <si>
     <t>摄魂瓶</t>
+  </si>
+  <si>
+    <t>副本杀手</t>
   </si>
   <si>
     <t>220000</t>
@@ -6783,8 +6786,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7229,8 +7232,25 @@
         <v>180018</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C24" s="8"/>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="14">
+        <v>180019</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2">
+        <v>18</v>
+      </c>
+      <c r="H24" s="14">
+        <v>180019</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C25" s="8"/>
@@ -7279,7 +7299,7 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -7364,13 +7384,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7384,13 +7404,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7404,13 +7424,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7424,13 +7444,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7444,13 +7464,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7464,13 +7484,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7479,18 +7499,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7504,13 +7524,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7519,18 +7539,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7539,7 +7559,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
@@ -7553,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -7573,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -7593,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -7613,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -7633,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -7653,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -7785,13 +7805,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7800,18 +7820,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7820,18 +7840,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7840,18 +7860,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7860,18 +7880,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7880,18 +7900,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7900,18 +7920,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7920,307 +7940,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8228,62 +8248,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8291,162 +8311,162 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -8459,42 +8479,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="644">
   <si>
     <t>_id</t>
   </si>
@@ -2023,22 +2023,13 @@
     <t>2010</t>
   </si>
   <si>
-    <t>麻痹戒指</t>
-  </si>
-  <si>
-    <t>护身戒指</t>
-  </si>
-  <si>
-    <t>复活戒指</t>
-  </si>
-  <si>
-    <t>防御戒指</t>
-  </si>
-  <si>
-    <t>传送神戒</t>
-  </si>
-  <si>
-    <t>隐身戒指</t>
+    <t>220016</t>
+  </si>
+  <si>
+    <t>六大神戒</t>
+  </si>
+  <si>
+    <t>190001,190002,190003,190004,190005,190006</t>
   </si>
   <si>
     <t>101</t>
@@ -5203,7 +5194,7 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6786,7 +6777,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -7299,8 +7290,8 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7310,7 +7301,7 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7566,14 +7557,14 @@
       <c r="C15" s="8"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="14">
-        <v>190001</v>
+      <c r="C16" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -7581,109 +7572,49 @@
       <c r="G16" s="2">
         <v>19</v>
       </c>
-      <c r="H16" s="14">
-        <v>190001</v>
+      <c r="H16" s="18" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="14">
-        <v>190002</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19</v>
-      </c>
-      <c r="H17" s="14">
-        <v>190002</v>
-      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="14">
-        <v>190003</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>19</v>
-      </c>
-      <c r="H18" s="14">
-        <v>190003</v>
-      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="14">
-        <v>190004</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>19</v>
-      </c>
-      <c r="H19" s="14">
-        <v>190004</v>
-      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="14">
-        <v>190005</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>19</v>
-      </c>
-      <c r="H20" s="14">
-        <v>190005</v>
-      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="14">
-        <v>190006</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>19</v>
-      </c>
-      <c r="H21" s="14">
-        <v>190006</v>
-      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C22" s="8"/>
@@ -7805,33 +7736,33 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7840,18 +7771,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7860,18 +7791,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7880,18 +7811,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7900,18 +7831,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7920,18 +7851,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7940,307 +7871,307 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>589</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8248,62 +8179,62 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>607</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8314,159 +8245,159 @@
         <v>535</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C39" s="16" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" customFormat="1" customHeight="1" spans="3:8">
@@ -8479,42 +8410,42 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>640</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -2224,7 +2224,7 @@
     <t>节日活动</t>
   </si>
   <si>
-    <t>4108</t>
+    <t>4109</t>
   </si>
   <si>
     <t>2006</t>
@@ -7290,7 +7290,7 @@
   <sheetPr/>
   <dimension ref="C1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -7578,42 +7578,22 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="14"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="14"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="14"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="14"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="14"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
       <c r="H21" s="14"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
@@ -7651,8 +7631,8 @@
   <sheetPr/>
   <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="654">
   <si>
     <t>_id</t>
   </si>
@@ -2032,6 +2032,18 @@
     <t>190001,190002,190003,190004,190005,190006</t>
   </si>
   <si>
+    <t>220017</t>
+  </si>
+  <si>
+    <t>220018</t>
+  </si>
+  <si>
+    <t>220019</t>
+  </si>
+  <si>
+    <t>220020</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -2089,6 +2101,198 @@
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>特殊图鉴碎片</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4101</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>特殊月饼BOSS</t>
+  </si>
+  <si>
+    <t>4006</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>镜像挑战1羽毛</t>
+  </si>
+  <si>
+    <t>4008</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>4010</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>节日活动</t>
+  </si>
+  <si>
+    <t>4109</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>等级丹</t>
+  </si>
+  <si>
+    <t>4014</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1999993,1999994,1999995,1999996,1999997</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000006,2000007,2000008,2000009,2000010</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>第一批冠名图鉴</t>
+  </si>
+  <si>
+    <t>2000001,2000002,2000003,2000004,2000005</t>
+  </si>
+  <si>
+    <t>第一批白图鉴</t>
+  </si>
+  <si>
+    <t>2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>第一批绿图鉴</t>
+  </si>
+  <si>
+    <t>2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>第一批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2000121,2000122,2000123,2000124,2000125,2000126</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>第一批紫图鉴</t>
+  </si>
+  <si>
+    <t>2000127,2000128,2000129</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>第二批白图鉴</t>
+  </si>
+  <si>
+    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>第二批绿图鉴</t>
+  </si>
+  <si>
+    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>第二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2000221,2000222,2000223,2000224,2000225,2000226</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>第二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2000227,2000228,2000229</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>第一批时装</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3000001,3000002,3000003,3000004,3000005,3000006,3000007,3000008,3000009,3000010,3000011,3000012,3000013,3000014,3000015,3000016,3000017,3000018,3000019,3000020,3000021,3000022,3000023,3000024</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>第二批时装</t>
+  </si>
+  <si>
+    <t>3000025,3000026,3000027,3000028,3000029,3000030,3000031,3000032,3000033,3000034,3000035,3000036,3000037,3000038,3000039,3000040,3000041,3000042,3000043,3000044,3000045,3000046,3000047,3000048</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>神技</t>
+  </si>
+  <si>
+    <t>8001,8002,8003,8004,8005,8006,8007,8008,8009,8010</t>
+  </si>
+  <si>
     <t>300010</t>
   </si>
   <si>
@@ -2171,180 +2375,6 @@
   </si>
   <si>
     <t>1009,2009,3009</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>特殊图鉴碎片</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4101</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>特殊月饼BOSS</t>
-  </si>
-  <si>
-    <t>4006</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>守沙100书页</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>镜像挑战1羽毛</t>
-  </si>
-  <si>
-    <t>4008</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>4010</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>节日活动</t>
-  </si>
-  <si>
-    <t>4109</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>龙之图鉴</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1999993,1999994,1999995,1999996,1999997</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>守沙图鉴</t>
-  </si>
-  <si>
-    <t>2000006,2000007,2000008,2000009,2000010</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>第一批冠名图鉴</t>
-  </si>
-  <si>
-    <t>2000001,2000002,2000003,2000004,2000005</t>
-  </si>
-  <si>
-    <t>第一批白图鉴</t>
-  </si>
-  <si>
-    <t>2000100,2000101,2000102,2000103,2000104,2000105,2000106,2000107,2000108,2000109,2000110,2000111</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>第一批绿图鉴</t>
-  </si>
-  <si>
-    <t>2000112,2000113,2000114,2000115,2000116,2000117,2000118,2000119,2000120</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>第一批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2000121,2000122,2000123,2000124,2000125,2000126</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>第一批紫图鉴</t>
-  </si>
-  <si>
-    <t>2000127,2000128,2000129</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>第二批白图鉴</t>
-  </si>
-  <si>
-    <t>2000200,2000201,2000202,2000203,2000204,2000205,2000206,2000207,2000208,2000209,2000210,2000211</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>第二批绿图鉴</t>
-  </si>
-  <si>
-    <t>2000212,2000213,2000214,2000215,2000216,2000217,2000218,2000219,2000220</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>第二批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2000221,2000222,2000223,2000224,2000225,2000226</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>第二批紫图鉴</t>
-  </si>
-  <si>
-    <t>2000227,2000228,2000229</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>第一批时装</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3000001,3000002,3000003,3000004,3000005,3000006,3000007,3000008,3000009,3000010,3000011,3000012,3000013,3000014,3000015,3000016,3000017,3000018,3000019,3000020,3000021,3000022,3000023,3000024</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>第二批时装</t>
-  </si>
-  <si>
-    <t>3000025,3000026,3000027,3000028,3000029,3000030,3000031,3000032,3000033,3000034,3000035,3000036,3000037,3000038,3000039,3000040,3000041,3000042,3000043,3000044,3000045,3000046,3000047,3000048</t>
   </si>
 </sst>
 </file>
@@ -3029,11 +3059,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3053,6 +3083,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3387,7 +3418,7 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4758,90 +4789,90 @@
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10" t="s">
         <v>269</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="F71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="I71" s="8"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10" t="s">
         <v>273</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="8" t="s">
+      <c r="F72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H72" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="I72" s="8"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10" t="s">
         <v>276</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="8" t="s">
+      <c r="F73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="I73" s="8"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10" t="s">
         <v>279</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="8" t="s">
+      <c r="F74" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H74" s="17" t="s">
@@ -4850,21 +4881,21 @@
       <c r="I74" s="15"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8" t="s">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10" t="s">
         <v>282</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="8" t="s">
+      <c r="F75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H75" s="17" t="s">
@@ -5205,17 +5236,17 @@
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="12" t="s">
@@ -6005,17 +6036,17 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="12" t="s">
@@ -6178,8 +6209,8 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="17" t="s">
         <v>438</v>
       </c>
@@ -6198,7 +6229,7 @@
       <c r="H11" s="2">
         <v>40000056</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
@@ -6788,17 +6819,17 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="12" t="s">
@@ -6961,8 +6992,8 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="14">
         <v>180006</v>
       </c>
@@ -6981,7 +7012,7 @@
       <c r="H11" s="14">
         <v>180006</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="14">
@@ -7244,34 +7275,34 @@
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="8"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C26" s="8"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C27" s="8"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C28" s="8"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C29" s="8"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C30" s="8"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C31" s="8"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C32" s="8"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C33" s="8"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C34" s="8"/>
+      <c r="C34" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7288,10 +7319,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H27"/>
+  <dimension ref="C1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7301,17 +7332,17 @@
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="12" t="s">
@@ -7553,66 +7584,127 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C15" s="8"/>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C15" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>19</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2">
-        <v>19</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>538</v>
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4007</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4101</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4007</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="C19" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F19" s="2">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4101</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="14"/>
-      <c r="H21" s="14"/>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
+      <c r="C21" s="10"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C22" s="8"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C23" s="8"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C24" s="8"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="8"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C27" s="8"/>
+      <c r="C26" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7629,10 +7721,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H43"/>
+  <dimension ref="C1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7716,13 +7808,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7731,18 +7823,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7751,18 +7843,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7771,18 +7863,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7791,18 +7883,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7811,18 +7903,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7831,18 +7923,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7851,381 +7943,361 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C13" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H13" s="16" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>562</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>544</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>564</v>
       </c>
+      <c r="H14" s="19" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C15" s="8" t="s">
-        <v>565</v>
+      <c r="C15" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>544</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H15" s="16" t="s">
         <v>567</v>
       </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>571</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>544</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="16" t="s">
         <v>574</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>544</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>577</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>544</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H19" s="16" t="s">
+      <c r="F19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>580</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>544</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>560</v>
+      <c r="F20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>564</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>585</v>
-      </c>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H21" s="7"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>586</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>597</v>
-      </c>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H25" s="7"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>598</v>
+        <v>535</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>600</v>
+        <v>585</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H28" s="7"/>
+        <v>585</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>607</v>
+        <v>585</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>606</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>614</v>
@@ -8234,198 +8306,258 @@
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H33" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>618</v>
-      </c>
+    <row r="34" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="H35" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E36" s="2" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="3:8">
+      <c r="C38" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H36" s="21" t="s">
+      <c r="D38" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C37" s="16" t="s">
+      <c r="F38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H38" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E37" s="2" t="s">
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="16" t="s">
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="H40" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H38" s="19" t="s">
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C41" s="10" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C39" s="16" t="s">
+      <c r="D41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H41" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H39" s="19" t="s">
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C42" s="10" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="16" t="s">
+      <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H40" s="19" t="s">
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C43" s="10" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="41" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C42" s="16" t="s">
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="16" t="s">
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C44" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="D44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C43" s="16" t="s">
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E43" s="2" t="s">
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C45" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="D45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>643</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C46" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C47" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C48" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="655">
   <si>
     <t>_id</t>
   </si>
@@ -2159,6 +2159,9 @@
   </si>
   <si>
     <t>等级丹</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>4014</t>
@@ -2579,12 +2582,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7321,7 +7324,7 @@
   <sheetPr/>
   <dimension ref="C1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -7723,8 +7726,8 @@
   <sheetPr/>
   <dimension ref="C1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -8080,10 +8083,10 @@
         <v>18</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8091,62 +8094,62 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8160,156 +8163,156 @@
         <v>544</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -8322,53 +8325,53 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
@@ -8377,187 +8380,187 @@
         <v>564</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C41" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C44" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="661">
   <si>
     <t>_id</t>
   </si>
@@ -1382,6 +1382,24 @@
   </si>
   <si>
     <t>21006001,21006002,21006003,21006004,21006005,21006007,21006009,21006010,22006001,22006002,22006003,22006004,22006005,22006007,22006009,22006010,23006001,23006002,23006003,23006004,23006005,23006007,23006009,23006010</t>
+  </si>
+  <si>
+    <t>900级装备</t>
+  </si>
+  <si>
+    <t>21006101,21006102,22006101,22006102,23006101,23006102</t>
+  </si>
+  <si>
+    <t>21006103,22006103,23006103,21006104,22006104,23006104</t>
+  </si>
+  <si>
+    <t>21006105,22006105,23006105,21006107,22006107,23006107</t>
+  </si>
+  <si>
+    <t>21006109,22006109,23006109,21006110,22006110,23006110</t>
+  </si>
+  <si>
+    <t>21006101,22006101,23006101,21006102,22006102,23006102,21006103,22006103,23006103,21006104,22006104,23006104,21006105,22006105,23006105,21006107,22006107,23006107,21006109,22006109,23006109,21006110,22006110,23006110</t>
   </si>
   <si>
     <t>210000</t>
@@ -2582,12 +2600,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3406,12 +3424,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I90"/>
+  <dimension ref="A2:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -5208,6 +5226,108 @@
       </c>
       <c r="H90" s="16" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C91" s="2">
+        <v>200900</v>
+      </c>
+      <c r="D91" s="2">
+        <v>860</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C92" s="2">
+        <v>200901</v>
+      </c>
+      <c r="D92" s="2">
+        <v>870</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C93" s="2">
+        <v>200902</v>
+      </c>
+      <c r="D93" s="2">
+        <v>880</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C94" s="2">
+        <v>200903</v>
+      </c>
+      <c r="D94" s="2">
+        <v>890</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C95" s="2">
+        <v>200904</v>
+      </c>
+      <c r="D95" s="2">
+        <v>900</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5313,13 +5433,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5328,18 +5448,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5348,18 +5468,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -5368,18 +5488,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -5388,18 +5508,18 @@
         <v>19</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -5408,18 +5528,18 @@
         <v>19</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -5428,18 +5548,18 @@
         <v>5</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -5448,18 +5568,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -5468,18 +5588,18 @@
         <v>5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -5488,18 +5608,18 @@
         <v>5</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -5508,18 +5628,18 @@
         <v>5</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -5528,18 +5648,18 @@
         <v>5</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -5548,18 +5668,18 @@
         <v>5</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -5568,18 +5688,18 @@
         <v>5</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -5588,18 +5708,18 @@
         <v>5</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
       <c r="C20" s="17" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -5608,18 +5728,18 @@
         <v>5</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" s="17" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -5628,18 +5748,18 @@
         <v>5</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" s="17" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -5648,18 +5768,18 @@
         <v>5</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
       <c r="C23" s="17" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -5668,18 +5788,18 @@
         <v>5</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
       <c r="C24" s="17" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -5688,18 +5808,18 @@
         <v>5</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" s="17" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -5708,18 +5828,18 @@
         <v>5</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" s="17" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -5728,18 +5848,18 @@
         <v>5</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="17" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -5748,18 +5868,18 @@
         <v>5</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
       <c r="C28" s="17" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -5768,18 +5888,18 @@
         <v>5</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
       <c r="C29" s="17" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -5788,18 +5908,18 @@
         <v>5</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
       <c r="C30" s="17" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -5808,18 +5928,18 @@
         <v>5</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
       <c r="C31" s="17" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -5828,18 +5948,18 @@
         <v>5</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
       <c r="C32" s="17" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -5848,18 +5968,18 @@
         <v>5</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
       <c r="C33" s="17" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -5868,18 +5988,18 @@
         <v>5</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
       <c r="C34" s="17" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>18</v>
@@ -5888,18 +6008,18 @@
         <v>5</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
       <c r="C35" s="17" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
@@ -5908,18 +6028,18 @@
         <v>5</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
       <c r="C36" s="17" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
@@ -5928,18 +6048,18 @@
         <v>5</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
       <c r="C37" s="17" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
@@ -5948,18 +6068,18 @@
         <v>5</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="17" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
@@ -5968,18 +6088,18 @@
         <v>5</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
       <c r="C39" s="17" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -5988,18 +6108,18 @@
         <v>5</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
       <c r="C40" s="17" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -6008,7 +6128,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6113,13 +6233,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6133,13 +6253,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6153,13 +6273,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6173,13 +6293,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -6193,13 +6313,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6215,13 +6335,13 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="17" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6236,13 +6356,13 @@
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6256,13 +6376,13 @@
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -6276,13 +6396,13 @@
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -6296,13 +6416,13 @@
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -6316,13 +6436,13 @@
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -6336,13 +6456,13 @@
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -6356,13 +6476,13 @@
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -6376,13 +6496,13 @@
     </row>
     <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -6396,13 +6516,13 @@
     </row>
     <row r="20" customHeight="1" spans="3:8">
       <c r="C20" s="17" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -6416,13 +6536,13 @@
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" s="17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -6436,13 +6556,13 @@
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" s="17" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -6456,13 +6576,13 @@
     </row>
     <row r="23" customHeight="1" spans="3:8">
       <c r="C23" s="17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -6476,13 +6596,13 @@
     </row>
     <row r="24" customHeight="1" spans="3:8">
       <c r="C24" s="17" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -6496,13 +6616,13 @@
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" s="17" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -6516,13 +6636,13 @@
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" s="17" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -6536,13 +6656,13 @@
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="17" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -6556,13 +6676,13 @@
     </row>
     <row r="28" customHeight="1" spans="3:8">
       <c r="C28" s="17" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -6576,13 +6696,13 @@
     </row>
     <row r="29" customHeight="1" spans="3:8">
       <c r="C29" s="17" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -6596,13 +6716,13 @@
     </row>
     <row r="30" customHeight="1" spans="3:8">
       <c r="C30" s="17" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -6616,13 +6736,13 @@
     </row>
     <row r="31" customHeight="1" spans="3:8">
       <c r="C31" s="17" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -6636,13 +6756,13 @@
     </row>
     <row r="32" customHeight="1" spans="3:8">
       <c r="C32" s="17" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -6656,13 +6776,13 @@
     </row>
     <row r="33" customHeight="1" spans="3:8">
       <c r="C33" s="17" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -6676,13 +6796,13 @@
     </row>
     <row r="34" customHeight="1" spans="3:8">
       <c r="C34" s="17" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>18</v>
@@ -6696,13 +6816,13 @@
     </row>
     <row r="35" customHeight="1" spans="3:8">
       <c r="C35" s="17" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
@@ -6716,13 +6836,13 @@
     </row>
     <row r="36" customHeight="1" spans="3:8">
       <c r="C36" s="17" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
@@ -6736,13 +6856,13 @@
     </row>
     <row r="37" customHeight="1" spans="3:8">
       <c r="C37" s="17" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
@@ -6756,13 +6876,13 @@
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="17" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
@@ -6776,13 +6896,13 @@
     </row>
     <row r="39" customHeight="1" spans="3:8">
       <c r="C39" s="17" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -6902,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6922,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6942,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6962,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -6982,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7004,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7025,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7045,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7065,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7085,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -7105,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -7125,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -7145,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -7165,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -7185,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -7205,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -7225,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -7245,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -7265,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -7409,13 +7529,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7429,13 +7549,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7449,13 +7569,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7469,13 +7589,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7489,13 +7609,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7509,13 +7629,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7524,18 +7644,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7549,13 +7669,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7564,18 +7684,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7584,18 +7704,18 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -7604,18 +7724,18 @@
         <v>19</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F16" s="2">
         <v>75</v>
@@ -7629,13 +7749,13 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -7649,13 +7769,13 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F18" s="2">
         <v>100</v>
@@ -7669,13 +7789,13 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F19" s="2">
         <v>40</v>
@@ -7726,7 +7846,7 @@
   <sheetPr/>
   <dimension ref="C1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -7811,13 +7931,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7826,18 +7946,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7846,18 +7966,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7866,18 +7986,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7886,18 +8006,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7906,18 +8026,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7926,18 +8046,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7946,147 +8066,147 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="16" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="16" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="16" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="16" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="16" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8094,62 +8214,62 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>586</v>
-      </c>
       <c r="H24" s="19" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8157,162 +8277,162 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="16" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -8325,242 +8445,242 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="10" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C41" s="10" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="10" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="H42" s="16" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="10" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C44" s="10" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -2600,12 +2600,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3426,8 +3426,8 @@
   <sheetPr/>
   <dimension ref="A2:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
@@ -7445,7 +7445,7 @@
   <dimension ref="C1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -7846,8 +7846,8 @@
   <sheetPr/>
   <dimension ref="C1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -8200,7 +8200,7 @@
         <v>587</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>588</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="666">
   <si>
     <t>_id</t>
   </si>
@@ -1919,6 +1919,21 @@
   </si>
   <si>
     <t>梦魇蜈膏</t>
+  </si>
+  <si>
+    <t>1400034</t>
+  </si>
+  <si>
+    <t>1400035</t>
+  </si>
+  <si>
+    <t>1400036</t>
+  </si>
+  <si>
+    <t>1400037</t>
+  </si>
+  <si>
+    <t>1400038</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -2600,12 +2615,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5349,7 +5364,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -6146,10 +6161,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6911,6 +6926,106 @@
         <v>14</v>
       </c>
       <c r="H39" s="2">
+        <v>40000084</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:8">
+      <c r="C40" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40000084</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:8">
+      <c r="C41" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40000084</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:8">
+      <c r="C42" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40000084</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:8">
+      <c r="C43" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2">
+        <v>40000084</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:8">
+      <c r="C44" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2">
         <v>40000084</v>
       </c>
     </row>
@@ -7022,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7042,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7062,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7082,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7102,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7124,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7145,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7165,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7185,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7205,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -7225,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -7245,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -7265,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -7285,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -7305,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -7325,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -7345,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -7365,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -7385,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -7529,13 +7644,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7549,13 +7664,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7569,13 +7684,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7589,13 +7704,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7609,13 +7724,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7629,13 +7744,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7644,18 +7759,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7669,13 +7784,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7684,18 +7799,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7704,18 +7819,18 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -7724,18 +7839,18 @@
         <v>19</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F16" s="2">
         <v>75</v>
@@ -7749,13 +7864,13 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -7769,13 +7884,13 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F18" s="2">
         <v>100</v>
@@ -7789,13 +7904,13 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F19" s="2">
         <v>40</v>
@@ -7846,7 +7961,7 @@
   <sheetPr/>
   <dimension ref="C1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -7931,13 +8046,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7946,18 +8061,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7966,18 +8081,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7986,18 +8101,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -8006,18 +8121,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -8026,18 +8141,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -8046,18 +8161,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -8066,147 +8181,147 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="16" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="16" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="16" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="16" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8214,62 +8329,62 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="H24" s="19" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8277,162 +8392,162 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="16" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -8445,242 +8560,242 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="10" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C41" s="10" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="10" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="10" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C44" s="10" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="671">
   <si>
     <t>_id</t>
   </si>
@@ -1924,16 +1924,31 @@
     <t>1400034</t>
   </si>
   <si>
+    <t>梦魇虫心</t>
+  </si>
+  <si>
     <t>1400035</t>
   </si>
   <si>
+    <t>梦魇龙皮</t>
+  </si>
+  <si>
     <t>1400036</t>
   </si>
   <si>
+    <t>梦魇猪皮</t>
+  </si>
+  <si>
     <t>1400037</t>
   </si>
   <si>
+    <t>梦魇猪心</t>
+  </si>
+  <si>
     <t>1400038</t>
+  </si>
+  <si>
+    <t>梦魇蝎皮</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -6164,7 +6179,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6937,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -6946,18 +6961,18 @@
         <v>14</v>
       </c>
       <c r="H40" s="2">
-        <v>40000084</v>
+        <v>40000085</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:8">
       <c r="C41" s="17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
@@ -6966,18 +6981,18 @@
         <v>14</v>
       </c>
       <c r="H41" s="2">
-        <v>40000084</v>
+        <v>40000086</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:8">
       <c r="C42" s="17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
@@ -6986,18 +7001,18 @@
         <v>14</v>
       </c>
       <c r="H42" s="2">
-        <v>40000084</v>
+        <v>40000087</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:8">
       <c r="C43" s="17" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
@@ -7006,18 +7021,18 @@
         <v>14</v>
       </c>
       <c r="H43" s="2">
-        <v>40000084</v>
+        <v>40000088</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:8">
       <c r="C44" s="17" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
@@ -7026,7 +7041,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="2">
-        <v>40000084</v>
+        <v>40000089</v>
       </c>
     </row>
   </sheetData>
@@ -7137,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7157,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7177,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7197,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7217,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7239,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7260,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7280,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7300,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7320,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -7340,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -7360,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -7380,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -7400,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -7420,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -7440,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -7460,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -7480,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -7500,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -7644,13 +7659,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7664,13 +7679,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7684,13 +7699,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7704,13 +7719,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7724,13 +7739,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7744,13 +7759,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7759,18 +7774,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7784,13 +7799,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7799,18 +7814,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7819,18 +7834,18 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -7839,18 +7854,18 @@
         <v>19</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F16" s="2">
         <v>75</v>
@@ -7864,13 +7879,13 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -7884,13 +7899,13 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F18" s="2">
         <v>100</v>
@@ -7904,13 +7919,13 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F19" s="2">
         <v>40</v>
@@ -8046,13 +8061,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -8061,18 +8076,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -8081,18 +8096,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -8101,18 +8116,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -8121,18 +8136,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -8141,18 +8156,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -8161,18 +8176,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -8181,147 +8196,147 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="16" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="16" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="16" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="16" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="16" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8329,62 +8344,62 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>597</v>
-      </c>
       <c r="H24" s="19" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8392,162 +8407,162 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="16" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -8560,242 +8575,242 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="10" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C41" s="10" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="10" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="10" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C44" s="10" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="672">
   <si>
     <t>_id</t>
   </si>
@@ -2006,6 +2006,9 @@
   </si>
   <si>
     <t>副本杀手</t>
+  </si>
+  <si>
+    <t>传世之源</t>
   </si>
   <si>
     <t>220000</t>
@@ -6178,7 +6181,7 @@
   <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -7061,8 +7064,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7527,8 +7530,25 @@
         <v>180019</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:3">
-      <c r="C25" s="10"/>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="14">
+        <v>180020</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2">
+        <v>18</v>
+      </c>
+      <c r="H25" s="14">
+        <v>180020</v>
+      </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C26" s="10"/>
@@ -7659,13 +7679,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7679,13 +7699,13 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7699,13 +7719,13 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7719,13 +7739,13 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7739,13 +7759,13 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7759,13 +7779,13 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7774,18 +7794,18 @@
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7799,13 +7819,13 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7814,18 +7834,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7834,18 +7854,18 @@
         <v>3</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -7854,18 +7874,18 @@
         <v>19</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F16" s="2">
         <v>75</v>
@@ -7879,13 +7899,13 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -7899,13 +7919,13 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F18" s="2">
         <v>100</v>
@@ -7919,13 +7939,13 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F19" s="2">
         <v>40</v>
@@ -8061,13 +8081,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -8076,18 +8096,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -8096,18 +8116,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -8116,18 +8136,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -8136,18 +8156,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -8156,18 +8176,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -8176,18 +8196,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -8196,147 +8216,147 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="16" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="16" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8344,62 +8364,62 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8407,162 +8427,162 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C26" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="3:8">
@@ -8575,242 +8595,242 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C41" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C42" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C43" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C44" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="687">
   <si>
     <t>_id</t>
   </si>
@@ -2218,6 +2218,15 @@
     <t>4014</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>红装精华</t>
+  </si>
+  <si>
+    <t>4011</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
@@ -2315,6 +2324,42 @@
   </si>
   <si>
     <t>2000227,2000228,2000229</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>第三批白图鉴</t>
+  </si>
+  <si>
+    <t>2000300,2000301,2000302,2000303,2000304,2000305,2000306,2000307,2000308,2000309,2000310,2000311</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>第三批绿图鉴</t>
+  </si>
+  <si>
+    <t>2000312,2000313,2000314,2000315,2000316,2000317,2000318,2000319,2000320</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>第三批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2000321,2000322,2000323,2000324,2000325,2000326</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>第三批紫图鉴</t>
+  </si>
+  <si>
+    <t>2000327,2000328,2000329</t>
   </si>
   <si>
     <t>3001</t>
@@ -5381,7 +5426,7 @@
   <sheetPr/>
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
@@ -7064,7 +7109,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -7994,10 +8039,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H48"/>
+  <dimension ref="C1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -8359,44 +8404,44 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C22" s="16" t="s">
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>604</v>
-      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H22" s="7"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>606</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>603</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>607</v>
@@ -8416,38 +8461,38 @@
         <v>18</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="8:8">
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="H26" s="20" t="s">
+      <c r="E25" s="2" t="s">
         <v>612</v>
       </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C27" s="16" t="s">
-        <v>613</v>
+        <v>552</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>561</v>
@@ -8459,9 +8504,9 @@
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="H27" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>615</v>
       </c>
     </row>
@@ -8479,9 +8524,9 @@
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="H28" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8499,9 +8544,9 @@
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="H29" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>621</v>
       </c>
     </row>
@@ -8519,9 +8564,9 @@
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="H30" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8539,7 +8584,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>627</v>
@@ -8559,7 +8604,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>630</v>
@@ -8579,195 +8624,195 @@
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="34" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C37" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>642</v>
+      <c r="E38" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C41" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:8">
+      <c r="C43" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="H38" s="22" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C41" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C42" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C43" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C44" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="H43" s="22" t="s">
         <v>658</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>662</v>
@@ -8778,7 +8823,7 @@
         <v>663</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>664</v>
@@ -8787,7 +8832,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>665</v>
@@ -8798,7 +8843,7 @@
         <v>666</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>667</v>
@@ -8807,9 +8852,9 @@
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H47" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8817,8 +8862,8 @@
       <c r="C48" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>50</v>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>670</v>
@@ -8827,10 +8872,110 @@
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H48" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C49" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C50" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C51" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C52" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C53" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -3505,7 +3505,7 @@
   <dimension ref="A2:I95"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
@@ -7639,8 +7639,8 @@
   <sheetPr/>
   <dimension ref="C1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -8041,7 +8041,7 @@
   <sheetPr/>
   <dimension ref="C1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="689">
   <si>
     <t>_id</t>
   </si>
@@ -2093,6 +2093,12 @@
   </si>
   <si>
     <t>220020</t>
+  </si>
+  <si>
+    <t>220021</t>
+  </si>
+  <si>
+    <t>传世劵</t>
   </si>
   <si>
     <t>101</t>
@@ -7640,7 +7646,7 @@
   <dimension ref="C1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -8003,8 +8009,24 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="C20" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4013</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:3">
       <c r="C21" s="10"/>
@@ -8126,13 +8148,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -8141,18 +8163,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -8161,18 +8183,18 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -8181,18 +8203,18 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -8201,18 +8223,18 @@
         <v>16</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -8221,18 +8243,18 @@
         <v>16</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -8241,18 +8263,18 @@
         <v>16</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -8261,167 +8283,167 @@
         <v>16</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C14" s="16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C15" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>581</v>
-      </c>
       <c r="H15" s="19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C16" s="16" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="16" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C19" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C20" s="16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="16" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8429,62 +8451,62 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C23" s="16" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C24" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>606</v>
-      </c>
       <c r="H24" s="19" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C25" s="16" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="8:8">
@@ -8495,239 +8517,239 @@
         <v>552</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C28" s="16" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C29" s="16" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="16" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C31" s="16" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C32" s="16" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C33" s="16" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="16" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C36" s="16" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C37" s="16" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C38" s="16" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" customFormat="1" customHeight="1" spans="3:8">
@@ -8740,242 +8762,242 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C40" s="16" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C41" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>651</v>
-      </c>
       <c r="H41" s="19" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C49" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C50" s="10" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C51" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C52" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C53" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -7646,7 +7646,7 @@
   <dimension ref="C1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -8022,7 +8022,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H20" s="2">
         <v>4013</v>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -2209,7 +2209,7 @@
     <t>节日活动</t>
   </si>
   <si>
-    <t>4109</t>
+    <t>4110</t>
   </si>
   <si>
     <t>1006</t>
@@ -7645,7 +7645,7 @@
   <sheetPr/>
   <dimension ref="C1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -8063,8 +8063,8 @@
   <sheetPr/>
   <dimension ref="C1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="705">
   <si>
     <t>_id</t>
   </si>
@@ -1400,6 +1400,54 @@
   </si>
   <si>
     <t>21006101,22006101,23006101,21006102,22006102,23006102,21006103,22006103,23006103,21006104,22006104,23006104,21006105,22006105,23006105,21006107,22006107,23006107,21006109,22006109,23006109,21006110,22006110,23006110</t>
+  </si>
+  <si>
+    <t>200950</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>950级装备</t>
+  </si>
+  <si>
+    <t>21006201,21006202,22006201,22006202,23006201,23006202</t>
+  </si>
+  <si>
+    <t>200951</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>21006203,21006204,22006203,22006204,23006203,23006204</t>
+  </si>
+  <si>
+    <t>200952</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>21006205,21006207,22006205,22006207,23006205,23006207</t>
+  </si>
+  <si>
+    <t>200953</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>21006209,21006210,22006209,22006210,23006209,23006210</t>
+  </si>
+  <si>
+    <t>200954</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>21006201,21006202,21006203,21006204,21006205,21006207,21006209,21006210,22006201,22006202,22006203,22006204,22006205,22006207,22006209,22006210,23006201,23006202,23006203,23006204,23006205,23006207,23006209,23006210</t>
   </si>
   <si>
     <t>210000</t>
@@ -3149,7 +3197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3180,6 +3228,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -3508,12 +3558,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I95"/>
+  <dimension ref="A2:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4692,10 +4742,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="18" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4716,7 +4766,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="18" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4737,7 +4787,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="18" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4757,7 +4807,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="18" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4797,7 +4847,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="18" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4817,7 +4867,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="18" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4837,7 +4887,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="18" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4857,7 +4907,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="18" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4877,7 +4927,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="18" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4899,7 +4949,7 @@
       <c r="C71" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="18" t="s">
         <v>270</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -4911,7 +4961,7 @@
       <c r="G71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="H71" s="19" t="s">
         <v>272</v>
       </c>
       <c r="I71" s="10"/>
@@ -4922,7 +4972,7 @@
       <c r="C72" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="18" t="s">
         <v>274</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -4934,7 +4984,7 @@
       <c r="G72" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="19" t="s">
         <v>275</v>
       </c>
       <c r="I72" s="10"/>
@@ -4945,7 +4995,7 @@
       <c r="C73" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="18" t="s">
         <v>277</v>
       </c>
       <c r="E73" s="10" t="s">
@@ -4957,7 +5007,7 @@
       <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="17" t="s">
+      <c r="H73" s="19" t="s">
         <v>278</v>
       </c>
       <c r="I73" s="10"/>
@@ -4968,7 +5018,7 @@
       <c r="C74" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="18" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="10" t="s">
@@ -4980,7 +5030,7 @@
       <c r="G74" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="19" t="s">
         <v>281</v>
       </c>
       <c r="I74" s="15"/>
@@ -4991,7 +5041,7 @@
       <c r="C75" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="18" t="s">
         <v>283</v>
       </c>
       <c r="E75" s="10" t="s">
@@ -5003,16 +5053,16 @@
       <c r="G75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="17" t="s">
+      <c r="H75" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I75" s="15"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="18" t="s">
         <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5024,15 +5074,15 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="18" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="18" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -5044,15 +5094,15 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="18" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="18" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5064,15 +5114,15 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="18" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="18" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5084,15 +5134,15 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="18" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="18" t="s">
         <v>299</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5104,7 +5154,7 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="18" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5112,7 +5162,7 @@
       <c r="C81" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="18" t="s">
         <v>302</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5124,7 +5174,7 @@
       <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="18" t="s">
         <v>304</v>
       </c>
       <c r="I81" s="7"/>
@@ -5133,7 +5183,7 @@
       <c r="C82" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="18" t="s">
         <v>306</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -5145,7 +5195,7 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="18" t="s">
         <v>307</v>
       </c>
       <c r="I82" s="7"/>
@@ -5154,7 +5204,7 @@
       <c r="C83" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="18" t="s">
         <v>309</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -5166,7 +5216,7 @@
       <c r="G83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="18" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5174,7 +5224,7 @@
       <c r="C84" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="18" t="s">
         <v>312</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -5186,7 +5236,7 @@
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="18" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5194,7 +5244,7 @@
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="18" t="s">
         <v>315</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -5206,7 +5256,7 @@
       <c r="G85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="18" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5226,7 +5276,7 @@
       <c r="G86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="18" t="s">
         <v>318</v>
       </c>
       <c r="I86" s="7"/>
@@ -5247,7 +5297,7 @@
       <c r="G87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="H87" s="18" t="s">
         <v>319</v>
       </c>
       <c r="I87" s="7"/>
@@ -5268,7 +5318,7 @@
       <c r="G88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="18" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5288,7 +5338,7 @@
       <c r="G89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="16" t="s">
+      <c r="H89" s="18" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5308,7 +5358,7 @@
       <c r="G90" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="18" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5328,7 +5378,7 @@
       <c r="G91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="18" t="s">
         <v>324</v>
       </c>
       <c r="I91" s="7"/>
@@ -5349,7 +5399,7 @@
       <c r="G92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" s="18" t="s">
         <v>325</v>
       </c>
       <c r="I92" s="7"/>
@@ -5370,7 +5420,7 @@
       <c r="G93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" s="18" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5390,7 +5440,7 @@
       <c r="G94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="18" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5410,9 +5460,114 @@
       <c r="G95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="18" t="s">
         <v>328</v>
       </c>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="12" spans="3:9">
+      <c r="C96" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="12" spans="3:9">
+      <c r="C97" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C98" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C99" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="C100" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I100" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5516,14 +5671,14 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
-        <v>329</v>
+      <c r="C6" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -5531,19 +5686,19 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>331</v>
+      <c r="H6" s="18" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
-        <v>332</v>
+      <c r="C7" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -5551,19 +5706,19 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>334</v>
+      <c r="H7" s="18" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
-        <v>335</v>
+      <c r="C8" s="19" t="s">
+        <v>351</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -5571,19 +5726,19 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>337</v>
+      <c r="H8" s="18" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
-        <v>338</v>
+      <c r="C9" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -5591,19 +5746,19 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>340</v>
+      <c r="H9" s="18" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
-        <v>341</v>
+      <c r="C10" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -5611,19 +5766,19 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>343</v>
+      <c r="H10" s="18" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
-        <v>344</v>
+      <c r="C11" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -5631,19 +5786,19 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>346</v>
+      <c r="H11" s="20" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
-        <v>347</v>
+      <c r="C12" s="19" t="s">
+        <v>363</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -5651,19 +5806,19 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>349</v>
+      <c r="H12" s="20" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="17" t="s">
-        <v>350</v>
+      <c r="C13" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -5671,19 +5826,19 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>352</v>
+      <c r="H13" s="20" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="17" t="s">
-        <v>353</v>
+      <c r="C14" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -5691,19 +5846,19 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>355</v>
+      <c r="H14" s="20" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="17" t="s">
-        <v>356</v>
+      <c r="C15" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -5711,19 +5866,19 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>358</v>
+      <c r="H15" s="20" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="17" t="s">
-        <v>359</v>
+      <c r="C16" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -5731,19 +5886,19 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>361</v>
+      <c r="H16" s="20" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="17" t="s">
-        <v>362</v>
+      <c r="C17" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -5751,19 +5906,19 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>364</v>
+      <c r="H17" s="20" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="17" t="s">
-        <v>365</v>
+      <c r="C18" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -5771,19 +5926,19 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>367</v>
+      <c r="H18" s="20" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="17" t="s">
-        <v>368</v>
+      <c r="C19" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -5791,19 +5946,19 @@
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>370</v>
+      <c r="H19" s="20" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
-        <v>371</v>
+      <c r="C20" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -5811,19 +5966,19 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>373</v>
+      <c r="H20" s="20" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="17" t="s">
-        <v>374</v>
+      <c r="C21" s="19" t="s">
+        <v>390</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -5831,19 +5986,19 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>376</v>
+      <c r="H21" s="20" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
-        <v>377</v>
+      <c r="C22" s="19" t="s">
+        <v>393</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -5851,19 +6006,19 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>379</v>
+      <c r="H22" s="20" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
-        <v>380</v>
+      <c r="C23" s="19" t="s">
+        <v>396</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -5871,19 +6026,19 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>382</v>
+      <c r="H23" s="20" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="17" t="s">
-        <v>383</v>
+      <c r="C24" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -5891,19 +6046,19 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>385</v>
+      <c r="H24" s="20" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
-        <v>386</v>
+      <c r="C25" s="19" t="s">
+        <v>402</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -5911,19 +6066,19 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>388</v>
+      <c r="H25" s="20" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
-        <v>389</v>
+      <c r="C26" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -5931,19 +6086,19 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>391</v>
+      <c r="H26" s="20" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
-        <v>392</v>
+      <c r="C27" s="19" t="s">
+        <v>408</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -5951,19 +6106,19 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>394</v>
+      <c r="H27" s="20" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="17" t="s">
-        <v>395</v>
+      <c r="C28" s="19" t="s">
+        <v>411</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -5971,19 +6126,19 @@
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>397</v>
+      <c r="H28" s="20" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="17" t="s">
-        <v>398</v>
+      <c r="C29" s="19" t="s">
+        <v>414</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -5991,19 +6146,19 @@
       <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>400</v>
+      <c r="H29" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="17" t="s">
-        <v>401</v>
+      <c r="C30" s="19" t="s">
+        <v>417</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -6011,19 +6166,19 @@
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>403</v>
+      <c r="H30" s="20" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="17" t="s">
-        <v>404</v>
+      <c r="C31" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -6031,19 +6186,19 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>406</v>
+      <c r="H31" s="20" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="17" t="s">
-        <v>407</v>
+      <c r="C32" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -6051,19 +6206,19 @@
       <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>409</v>
+      <c r="H32" s="20" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="17" t="s">
-        <v>410</v>
+      <c r="C33" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -6071,19 +6226,19 @@
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>412</v>
+      <c r="H33" s="20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="17" t="s">
-        <v>413</v>
+      <c r="C34" s="19" t="s">
+        <v>429</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>18</v>
@@ -6091,19 +6246,19 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>415</v>
+      <c r="H34" s="20" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="17" t="s">
-        <v>416</v>
+      <c r="C35" s="19" t="s">
+        <v>432</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
@@ -6111,19 +6266,19 @@
       <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>418</v>
+      <c r="H35" s="20" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="17" t="s">
-        <v>419</v>
+      <c r="C36" s="19" t="s">
+        <v>435</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
@@ -6131,19 +6286,19 @@
       <c r="G36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>421</v>
+      <c r="H36" s="20" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="17" t="s">
-        <v>422</v>
+      <c r="C37" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
@@ -6151,19 +6306,19 @@
       <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>424</v>
+      <c r="H37" s="20" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="17" t="s">
-        <v>425</v>
+      <c r="C38" s="19" t="s">
+        <v>441</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
@@ -6171,19 +6326,19 @@
       <c r="G38" s="2">
         <v>5</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>427</v>
+      <c r="H38" s="20" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="17" t="s">
-        <v>428</v>
+      <c r="C39" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -6191,19 +6346,19 @@
       <c r="G39" s="2">
         <v>5</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>430</v>
+      <c r="H39" s="20" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
-      <c r="C40" s="17" t="s">
-        <v>431</v>
+      <c r="C40" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -6211,8 +6366,8 @@
       <c r="G40" s="2">
         <v>5</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>433</v>
+      <c r="H40" s="20" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6316,14 +6471,14 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
-        <v>434</v>
+      <c r="C6" s="19" t="s">
+        <v>450</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -6336,14 +6491,14 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
-        <v>436</v>
+      <c r="C7" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -6356,14 +6511,14 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
-        <v>438</v>
+      <c r="C8" s="19" t="s">
+        <v>454</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -6376,14 +6531,14 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
-        <v>440</v>
+      <c r="C9" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -6396,14 +6551,14 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
-        <v>442</v>
+      <c r="C10" s="19" t="s">
+        <v>458</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -6418,14 +6573,14 @@
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="17" t="s">
-        <v>444</v>
+      <c r="C11" s="19" t="s">
+        <v>460</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -6439,14 +6594,14 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
-        <v>446</v>
+      <c r="C12" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -6459,14 +6614,14 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="17" t="s">
-        <v>448</v>
+      <c r="C13" s="19" t="s">
+        <v>464</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -6479,14 +6634,14 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="17" t="s">
-        <v>450</v>
+      <c r="C14" s="19" t="s">
+        <v>466</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -6499,14 +6654,14 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="17" t="s">
-        <v>452</v>
+      <c r="C15" s="19" t="s">
+        <v>468</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -6519,14 +6674,14 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="17" t="s">
-        <v>454</v>
+      <c r="C16" s="19" t="s">
+        <v>470</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -6539,14 +6694,14 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="17" t="s">
-        <v>456</v>
+      <c r="C17" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -6559,14 +6714,14 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="17" t="s">
-        <v>458</v>
+      <c r="C18" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -6579,14 +6734,14 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="17" t="s">
-        <v>460</v>
+      <c r="C19" s="19" t="s">
+        <v>476</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -6599,14 +6754,14 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
-        <v>462</v>
+      <c r="C20" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -6619,14 +6774,14 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="17" t="s">
-        <v>464</v>
+      <c r="C21" s="19" t="s">
+        <v>480</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -6639,14 +6794,14 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="17" t="s">
-        <v>466</v>
+      <c r="C22" s="19" t="s">
+        <v>482</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -6659,14 +6814,14 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="17" t="s">
-        <v>468</v>
+      <c r="C23" s="19" t="s">
+        <v>484</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -6679,14 +6834,14 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="17" t="s">
-        <v>470</v>
+      <c r="C24" s="19" t="s">
+        <v>486</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -6699,14 +6854,14 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="17" t="s">
-        <v>472</v>
+      <c r="C25" s="19" t="s">
+        <v>488</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -6719,14 +6874,14 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="17" t="s">
-        <v>474</v>
+      <c r="C26" s="19" t="s">
+        <v>490</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -6739,14 +6894,14 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="17" t="s">
-        <v>476</v>
+      <c r="C27" s="19" t="s">
+        <v>492</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -6759,14 +6914,14 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="17" t="s">
-        <v>478</v>
+      <c r="C28" s="19" t="s">
+        <v>494</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -6779,14 +6934,14 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="17" t="s">
-        <v>480</v>
+      <c r="C29" s="19" t="s">
+        <v>496</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -6799,14 +6954,14 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="17" t="s">
-        <v>482</v>
+      <c r="C30" s="19" t="s">
+        <v>498</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -6819,14 +6974,14 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="17" t="s">
-        <v>484</v>
+      <c r="C31" s="19" t="s">
+        <v>500</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -6839,14 +6994,14 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="17" t="s">
-        <v>486</v>
+      <c r="C32" s="19" t="s">
+        <v>502</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -6859,14 +7014,14 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="17" t="s">
-        <v>488</v>
+      <c r="C33" s="19" t="s">
+        <v>504</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -6879,14 +7034,14 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="17" t="s">
-        <v>490</v>
+      <c r="C34" s="19" t="s">
+        <v>506</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>18</v>
@@ -6899,14 +7054,14 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:8">
-      <c r="C35" s="17" t="s">
-        <v>492</v>
+      <c r="C35" s="19" t="s">
+        <v>508</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
@@ -6919,14 +7074,14 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:8">
-      <c r="C36" s="17" t="s">
-        <v>494</v>
+      <c r="C36" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
@@ -6939,14 +7094,14 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="17" t="s">
-        <v>496</v>
+      <c r="C37" s="19" t="s">
+        <v>512</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
@@ -6959,14 +7114,14 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="17" t="s">
-        <v>498</v>
+      <c r="C38" s="19" t="s">
+        <v>514</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
@@ -6979,14 +7134,14 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="17" t="s">
-        <v>500</v>
+      <c r="C39" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -6999,14 +7154,14 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:8">
-      <c r="C40" s="17" t="s">
-        <v>502</v>
+      <c r="C40" s="19" t="s">
+        <v>518</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -7019,14 +7174,14 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:8">
-      <c r="C41" s="17" t="s">
-        <v>504</v>
+      <c r="C41" s="19" t="s">
+        <v>520</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
@@ -7039,14 +7194,14 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:8">
-      <c r="C42" s="17" t="s">
-        <v>506</v>
+      <c r="C42" s="19" t="s">
+        <v>522</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
@@ -7059,14 +7214,14 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:8">
-      <c r="C43" s="17" t="s">
-        <v>508</v>
+      <c r="C43" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
@@ -7079,14 +7234,14 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:8">
-      <c r="C44" s="17" t="s">
-        <v>510</v>
+      <c r="C44" s="19" t="s">
+        <v>526</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
@@ -7206,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7226,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7246,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -7266,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -7286,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7308,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7329,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7349,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7369,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7389,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -7409,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -7429,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
@@ -7449,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -7469,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -7489,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -7509,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
@@ -7529,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -7549,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
@@ -7569,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -7589,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -7729,14 +7884,14 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C6" s="17" t="s">
-        <v>532</v>
+      <c r="C6" s="19" t="s">
+        <v>548</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -7749,14 +7904,14 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="17" t="s">
-        <v>534</v>
+      <c r="C7" s="19" t="s">
+        <v>550</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -7769,14 +7924,14 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="17" t="s">
-        <v>536</v>
+      <c r="C8" s="19" t="s">
+        <v>552</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -7789,14 +7944,14 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="17" t="s">
-        <v>538</v>
+      <c r="C9" s="19" t="s">
+        <v>554</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -7809,14 +7964,14 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="17" t="s">
-        <v>540</v>
+      <c r="C10" s="19" t="s">
+        <v>556</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -7824,19 +7979,19 @@
       <c r="G10" s="2">
         <v>15</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="17" t="s">
-        <v>542</v>
+      <c r="C11" s="19" t="s">
+        <v>558</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -7844,19 +7999,19 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>544</v>
+      <c r="H11" s="18" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="17" t="s">
-        <v>545</v>
+      <c r="C12" s="19" t="s">
+        <v>561</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -7869,14 +8024,14 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C13" s="17" t="s">
-        <v>547</v>
+      <c r="C13" s="19" t="s">
+        <v>563</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
@@ -7884,19 +8039,19 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>549</v>
+      <c r="H13" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C14" s="17" t="s">
-        <v>550</v>
+      <c r="C14" s="19" t="s">
+        <v>566</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
@@ -7904,19 +8059,19 @@
       <c r="G14" s="2">
         <v>3</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>552</v>
+      <c r="H14" s="18" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C15" s="17" t="s">
-        <v>553</v>
+      <c r="C15" s="19" t="s">
+        <v>569</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -7924,19 +8079,19 @@
       <c r="G15" s="2">
         <v>19</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>555</v>
+      <c r="H15" s="20" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="17" t="s">
-        <v>556</v>
+      <c r="C16" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="F16" s="2">
         <v>75</v>
@@ -7949,14 +8104,14 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="17" t="s">
-        <v>557</v>
+      <c r="C17" s="19" t="s">
+        <v>573</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -7969,14 +8124,14 @@
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="17" t="s">
-        <v>558</v>
+      <c r="C18" s="19" t="s">
+        <v>574</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="F18" s="2">
         <v>100</v>
@@ -7989,14 +8144,14 @@
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="17" t="s">
-        <v>559</v>
+      <c r="C19" s="19" t="s">
+        <v>575</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="F19" s="2">
         <v>40</v>
@@ -8009,14 +8164,14 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="17" t="s">
-        <v>560</v>
+      <c r="C20" s="19" t="s">
+        <v>576</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -8063,7 +8218,7 @@
   <sheetPr/>
   <dimension ref="C1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -8148,13 +8303,13 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -8163,18 +8318,18 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C7" s="16" t="s">
-        <v>566</v>
+      <c r="C7" s="18" t="s">
+        <v>582</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -8182,19 +8337,19 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>568</v>
+      <c r="H7" s="21" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C8" s="16" t="s">
-        <v>569</v>
+      <c r="C8" s="18" t="s">
+        <v>585</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -8202,554 +8357,554 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>571</v>
+      <c r="H8" s="21" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C9" s="16" t="s">
-        <v>572</v>
+      <c r="C9" s="18" t="s">
+        <v>588</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>574</v>
+      <c r="H9" s="21" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C10" s="16" t="s">
-        <v>575</v>
+      <c r="C10" s="18" t="s">
+        <v>591</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>576</v>
+      <c r="H10" s="21" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="16" t="s">
-        <v>577</v>
+      <c r="C11" s="18" t="s">
+        <v>593</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>578</v>
+      <c r="H11" s="21" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>580</v>
+      <c r="H12" s="21" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C14" s="16" t="s">
-        <v>581</v>
+      <c r="C14" s="18" t="s">
+        <v>597</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>584</v>
+        <v>598</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C15" s="16" t="s">
-        <v>585</v>
+      <c r="C15" s="18" t="s">
+        <v>601</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>587</v>
+        <v>602</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="16" t="s">
-        <v>588</v>
+      <c r="C16" s="18" t="s">
+        <v>604</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F16" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>587</v>
+      <c r="G16" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C17" s="16" t="s">
-        <v>590</v>
+      <c r="C17" s="18" t="s">
+        <v>606</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>592</v>
+        <v>607</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C18" s="16" t="s">
-        <v>593</v>
+      <c r="C18" s="18" t="s">
+        <v>609</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>595</v>
+        <v>610</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C19" s="16" t="s">
-        <v>596</v>
+      <c r="C19" s="18" t="s">
+        <v>612</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>598</v>
+        <v>613</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C21" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>605</v>
+      <c r="H21" s="21" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H22" s="7"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C23" s="16" t="s">
-        <v>606</v>
+      <c r="C23" s="18" t="s">
+        <v>622</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>609</v>
+        <v>623</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="16" t="s">
-        <v>610</v>
+      <c r="C24" s="18" t="s">
+        <v>626</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>612</v>
+        <v>627</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
-        <v>613</v>
+      <c r="C25" s="18" t="s">
+        <v>629</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>615</v>
+        <v>630</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="8:8">
       <c r="H26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="16" t="s">
-        <v>552</v>
+      <c r="C27" s="18" t="s">
+        <v>568</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>617</v>
+        <v>632</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="16" t="s">
-        <v>618</v>
+      <c r="C28" s="18" t="s">
+        <v>634</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>620</v>
+        <v>635</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C29" s="16" t="s">
-        <v>621</v>
+      <c r="C29" s="18" t="s">
+        <v>637</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>623</v>
+        <v>638</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>626</v>
+      <c r="H30" s="23" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C31" s="16" t="s">
-        <v>627</v>
+      <c r="C31" s="18" t="s">
+        <v>643</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>629</v>
+        <v>644</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C32" s="16" t="s">
-        <v>630</v>
+      <c r="C32" s="18" t="s">
+        <v>646</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>632</v>
+        <v>647</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C33" s="16" t="s">
-        <v>633</v>
+      <c r="C33" s="18" t="s">
+        <v>649</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>635</v>
+        <v>650</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C34" s="16" t="s">
-        <v>636</v>
+      <c r="C34" s="18" t="s">
+        <v>652</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>638</v>
+        <v>653</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C35" s="16" t="s">
-        <v>639</v>
+      <c r="C35" s="18" t="s">
+        <v>655</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>641</v>
+        <v>656</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="16" t="s">
-        <v>642</v>
+      <c r="C36" s="18" t="s">
+        <v>658</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>644</v>
+        <v>659</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C37" s="16" t="s">
-        <v>645</v>
+      <c r="C37" s="18" t="s">
+        <v>661</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>647</v>
+        <v>662</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C38" s="16" t="s">
-        <v>648</v>
+      <c r="C38" s="18" t="s">
+        <v>664</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>650</v>
+        <v>665</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="39" customFormat="1" customHeight="1" spans="3:8">
@@ -8761,243 +8916,243 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C40" s="16" t="s">
-        <v>651</v>
+      <c r="C40" s="18" t="s">
+        <v>667</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>654</v>
+        <v>668</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C41" s="16" t="s">
-        <v>655</v>
+      <c r="C41" s="18" t="s">
+        <v>671</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>657</v>
+        <v>672</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:8">
-      <c r="C43" s="16" t="s">
-        <v>658</v>
+      <c r="C43" s="18" t="s">
+        <v>674</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>660</v>
+        <v>675</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C45" s="10" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>664</v>
+        <v>679</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C46" s="10" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>667</v>
+        <v>679</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C47" s="10" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>670</v>
+        <v>679</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C48" s="10" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>673</v>
+        <v>679</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C49" s="10" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>676</v>
+        <v>679</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C50" s="10" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H50" s="16" t="s">
         <v>679</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C51" s="10" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C52" s="10" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>685</v>
+        <v>679</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C53" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D53" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>688</v>
+        <v>679</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropConfig.xlsx
+++ b/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="1" r:id="rId1"/>
@@ -2257,7 +2257,7 @@
     <t>节日活动</t>
   </si>
   <si>
-    <t>4110</t>
+    <t>4111</t>
   </si>
   <si>
     <t>1006</t>
@@ -3197,7 +3197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3228,8 +3228,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -3560,7 +3558,7 @@
   <sheetPr/>
   <dimension ref="A2:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
@@ -4742,10 +4740,10 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="16" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4766,7 +4764,7 @@
       <c r="C62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4787,7 +4785,7 @@
       <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="16" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4807,7 +4805,7 @@
       <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="16" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4847,7 +4845,7 @@
       <c r="C66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="16" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4867,7 +4865,7 @@
       <c r="C67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="16" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4887,7 +4885,7 @@
       <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="16" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4907,7 +4905,7 @@
       <c r="C69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="16" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4927,7 +4925,7 @@
       <c r="C70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="16" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4949,7 +4947,7 @@
       <c r="C71" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="16" t="s">
         <v>270</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -4961,7 +4959,7 @@
       <c r="G71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="17" t="s">
         <v>272</v>
       </c>
       <c r="I71" s="10"/>
@@ -4972,7 +4970,7 @@
       <c r="C72" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="16" t="s">
         <v>274</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -4984,7 +4982,7 @@
       <c r="G72" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="17" t="s">
         <v>275</v>
       </c>
       <c r="I72" s="10"/>
@@ -4995,7 +4993,7 @@
       <c r="C73" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="16" t="s">
         <v>277</v>
       </c>
       <c r="E73" s="10" t="s">
@@ -5007,7 +5005,7 @@
       <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="17" t="s">
         <v>278</v>
       </c>
       <c r="I73" s="10"/>
@@ -5018,7 +5016,7 @@
       <c r="C74" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="16" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="10" t="s">
@@ -5030,7 +5028,7 @@
       <c r="G74" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="17" t="s">
         <v>281</v>
       </c>
       <c r="I74" s="15"/>
@@ -5041,7 +5039,7 @@
       <c r="C75" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="16" t="s">
         <v>283</v>
       </c>
       <c r="E75" s="10" t="s">
@@ -5053,16 +5051,16 @@
       <c r="G75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="17" t="s">
         <v>284</v>
       </c>
       <c r="I75" s="15"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="16" t="s">
         <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5074,15 +5072,15 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="16" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -5094,15 +5092,15 @@
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="16" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="16" t="s">
         <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5114,15 +5112,15 @@
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="16" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="16" t="s">
         <v>296</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5134,15 +5132,15 @@
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="16" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="16" t="s">
         <v>299</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5154,7 +5152,7 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="16" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5162,7 +5160,7 @@
       <c r="C81" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="16" t="s">
         <v>302</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5174,7 +5172,7 @@
       <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="16" t="s">
         <v>304</v>
       </c>
       <c r="I81" s="7"/>
@@ -5183,7 +5181,7 @@
       <c r="C82" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="16" t="s">
         <v>306</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -5195,7 +5193,7 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="16" t="s">
         <v>307</v>
       </c>
       <c r="I82" s="7"/>
@@ -5204,7 +5202,7 @@
       <c r="C83" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="16" t="s">
         <v>309</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -5216,7 +5214,7 @@
       <c r="G83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5224,7 +5222,7 @@
       <c r="C84" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="16" t="s">
         <v>312</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -5236,7 +5234,7 @@
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5244,7 +5242,7 @@
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="16" t="s">
         <v>315</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -5256,7 +5254,7 @@
       <c r="G85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="16" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5276,7 +5274,7 @@
       <c r="G86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="H86" s="16" t="s">
         <v>318</v>
       </c>
       <c r="I86" s="7"/>
@@ -5297,7 +5295,7 @@
       <c r="G87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="16" t="s">
         <v>319</v>
       </c>
       <c r="I87" s="7"/>
@@ -5318,7 +5316,7 @@
       <c r="G88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="16" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5338,7 +5336,7 @@
       <c r="G89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="16" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5358,7 +5356,7 @@
       <c r="G90" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5378,7 +5376,7 @@
       <c r="G91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="16" t="s">
         <v>324</v>
       </c>
       <c r="I91" s="7"/>
@@ -5399,7 +5397,7 @@
       <c r="G92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="16" t="s">
         <v>325</v>
       </c>
       <c r="I92" s="7"/>
@@ -5420,7 +5418,7 @@
       <c r="G93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="16" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5440,7 +5438,7 @@
       <c r="G94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="18" t="s">
+      <c r="H94" s="16" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5460,7 +5458,7 @@
       <c r="G95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="18" t="s">
+      <c r="H95" s="16" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5483,7 +5481,7 @@
       <c r="H96" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I96" s="16"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="12" spans="3:9">
       <c r="C97" s="2" t="s">
@@ -5504,9 +5502,9 @@
       <c r="H97" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I97" s="16"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C98" s="2" t="s">
         <v>336</v>
       </c>
@@ -5525,9 +5523,8 @@
       <c r="H98" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I98" s="17"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+    </row>
+    <row r="99" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C99" s="2" t="s">
         <v>339</v>
       </c>
@@ -5546,9 +5543,8 @@
       <c r="H99" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I99" s="17"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
+    </row>
+    <row r="100" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
       <c r="C100" s="2" t="s">
         <v>342</v>
       </c>
@@ -5567,7 +5563,6 @@
       <c r="H100" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I100" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5671,7 +5666,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>345</v>
       </c>
       <c r="D6" s="2">
@@ -5686,12 +5681,12 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D7" s="2">
@@ -5706,12 +5701,12 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D8" s="2">
@@ -5726,12 +5721,12 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>354</v>
       </c>
       <c r="D9" s="2">
@@ -5746,12 +5741,12 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D10" s="2">
@@ -5766,12 +5761,12 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:8">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>360</v>
       </c>
       <c r="D11" s="2">
@@ -5786,12 +5781,12 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>363</v>
       </c>
       <c r="D12" s="2">
@@ -5806,12 +5801,12 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>366</v>
       </c>
       <c r="D13" s="2">
@@ -5826,12 +5821,12 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>369</v>
       </c>
       <c r="D14" s="2">
@@ -5846,12 +5841,12 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>372</v>
       </c>
       <c r="D15" s="2">
@@ -5866,12 +5861,12 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>375</v>
       </c>
       <c r="D16" s="2">
@@ -5886,12 +5881,12 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>378</v>
       </c>
       <c r="D17" s="2">
@@ -5906,12 +5901,12 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D18" s="2">
@@ -5926,12 +5921,12 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D19" s="2">
@@ -5946,12 +5941,12 @@
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:8">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>387</v>
       </c>
       <c r="D20" s="2">
@@ -5966,12 +5961,12 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D21" s="2">
@@ -5986,12 +5981,12 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>393</v>
       </c>
       <c r="D22" s="2">
@@ -6006,12 +6001,12 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:8">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>396</v>
       </c>
       <c r="D23" s="2">
@@ -6026,12 +6021,12 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="2">
@@ -6046,12 +6041,12 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>402</v>
       </c>
       <c r="D25" s="2">
@@ -6066,12 +6061,12 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:8">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>405</v>
       </c>
       <c r="D26" s="2">
@@ -6086,12 +6081,12 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>408</v>
       </c>
       <c r="D27" s="2">
@@ -6106,12 +6101,12 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:8">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>411</v>
       </c>
       <c r="D28" s="2">
@@ -6126,12 +6121,12 @@
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:8">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>414</v>
       </c>
       <c r="D29" s="2">
@@ -6146,12 +6141,12 @@
       <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="18" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:8">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>417</v>
       </c>
       <c r="D30" s="2">
@@ -6166,12 +6161,12 @@
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:8">
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>420</v>
       </c>
       <c r="D31" s="2">
@@ -6186,12 +6181,12 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D32" s="2">
@@ -6206,12 +6201,12 @@
       <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>426</v>
       </c>
       <c r="D33" s="2">
@@ -6226,12 +6221,12 @@
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>429</v>
       </c>
       <c r="D34" s="2">
@@ -6246,12 +6241,12 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>431</v>
   